--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1326494</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326494</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>ACE Program | Polish Language Coach</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -520,22 +520,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1325396</t>
+          <t>1326040</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325396</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Onboarding &amp; Induction Coordinator</t>
+          <t>ACE Program | Portuguese Customer Support</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>187 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1326038</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326038</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Customer Support</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -688,22 +688,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1326988</t>
+          <t>1326974</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326988</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326974</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>English Instructor and marketing specialist</t>
+          <t>[Impact Brazil] - Cooking SubSystems Intern</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
+          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -713,39 +713,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>we care academy zag</t>
+          <t>Whirlpool Corporation</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1326974</t>
+          <t>1326970</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326974</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Cooking SubSystems Intern</t>
+          <t>Head of Ecommerce</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
+          <t>Galle, Sri Lanka</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Whirlpool Corporation</t>
+          <t>Tallentire House (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1326970</t>
+          <t>1326965</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326970</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326965</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Head of Ecommerce</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Galle, Sri Lanka</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,17 +797,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tallentire House (Pvt) Ltd</t>
+          <t>Enveks Toz Kontrol Teknolojileri Sanayi ve Ticaret A.Ş.</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -940,22 +940,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1326927</t>
+          <t>1326936</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326927</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326936</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Marketing Expert</t>
+          <t>Safety officer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Alexandria, Alexandria Governorate, Egypt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -975,29 +975,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Think Big Global Education Solution Pvt Ltd.</t>
+          <t>Eagle Office for Services</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1326926</t>
+          <t>1326934</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326926</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326934</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Study Abroad Counsellor</t>
+          <t>Social media manager</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Alexandria, Alexandria Governorate, Egypt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1017,24 +1017,24 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Think Big Global Education Solution Pvt Ltd.</t>
+          <t>Eagle Office for Services</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1326925</t>
+          <t>1326927</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326925</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326927</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Digital Marketer</t>
+          <t>Marketing Expert</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1066,22 +1066,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1326924</t>
+          <t>1326926</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326924</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326926</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Learning and Development Trainee</t>
+          <t>Study Abroad Counsellor</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,39 +1091,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>HILTI Panama</t>
+          <t>Think Big Global Education Solution Pvt Ltd.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1326923</t>
+          <t>1326925</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326923</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326925</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AI Tech Developer</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,39 +1133,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>Think Big Global Education Solution Pvt Ltd.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1326917</t>
+          <t>1326924</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326917</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326924</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Learning and Development Trainee</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat, India</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,39 +1175,39 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Port The Container Pvt. Ltd.</t>
+          <t>HILTI Panama</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1326913</t>
+          <t>1326923</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326913</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326923</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Occupational Health and Safety Project Specialist (Mine Opp)</t>
+          <t>AI Tech Developer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mexico City, CDMX, Mexico</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1227,29 +1227,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sodexo Mexico</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1326906</t>
+          <t>1326917</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326906</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326917</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mersin, Akdeniz/Mersin, Türkiye</t>
+          <t>Ahmedabad, Gujarat, India</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1269,29 +1269,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>İlke Sports</t>
+          <t>Port The Container Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1326899</t>
+          <t>1326913</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326899</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326913</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Research on India’s Semiconductor Trends and Japan India Collaboration Opportunities</t>
+          <t>Occupational Health and Safety Project Specialist (Mine Opp)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>日本、東京都東京</t>
+          <t>Mexico City, CDMX, Mexico</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,39 +1301,39 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>VALQUA, LTD.</t>
+          <t>Sodexo Mexico</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1326898</t>
+          <t>1326906</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326898</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326906</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Accounting Consulting and Market Research Internship on Indian Companies Entering Japan</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>日本、大阪府豊中市</t>
+          <t>Mersin, Akdeniz/Mersin, Türkiye</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,39 +1343,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>NKGR Consulting co. ltd.</t>
+          <t>İlke Sports</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1326897</t>
+          <t>1326899</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326897</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326899</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Global Marketing Immersion Program Mastering the Fundamentals of Web Advertising</t>
+          <t>Research on India’s Semiconductor Trends and Japan India Collaboration Opportunities</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>日本、愛知県名古屋市</t>
+          <t>日本、東京都東京</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1395,71 +1395,71 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>QUARTET COMMUNICATIONS Co.,Ltd.</t>
+          <t>VALQUA, LTD.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1326896</t>
+          <t>1326898</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326896</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326898</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Crisis Designer</t>
+          <t>Accounting Consulting and Market Research Internship on Indian Companies Entering Japan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Londres, Reino Unido</t>
+          <t>日本、大阪府豊中市</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>66 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>International SOS</t>
+          <t>NKGR Consulting co. ltd.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1326894</t>
+          <t>1326897</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326894</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326897</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Business Strategist</t>
+          <t>Global Marketing Immersion Program Mastering the Fundamentals of Web Advertising</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Karnal, Haryana, India</t>
+          <t>日本、愛知県名古屋市</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,81 +1469,81 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Jollygoodfellow creations</t>
+          <t>QUARTET COMMUNICATIONS Co.,Ltd.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1326891</t>
+          <t>1326896</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326891</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326896</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Experience in learning about the production management system of the plating line and creating  proposals for efficiency improvement.</t>
+          <t>Crisis Designer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>日本、愛知県名古屋市</t>
+          <t>Londres, Reino Unido</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>YADAGAWA Electric Plating Co.,Ltd.</t>
+          <t>International SOS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1326890</t>
+          <t>1326894</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326890</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326894</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Occupational Health and Safety Projects Specialist</t>
+          <t>Business Strategist</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mexico City, CDMX, Mexico</t>
+          <t>Karnal, Haryana, India</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,39 +1553,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sodexo Mexico</t>
+          <t>Jollygoodfellow creations</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1326889</t>
+          <t>1326891</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326889</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326891</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Experience in developing software systems and practicing marketing for the social implementation of drones</t>
+          <t>Experience in learning about the production management system of the plating line and creating  proposals for efficiency improvement.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>日本、東京都東京</t>
+          <t>日本、愛知県名古屋市</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1605,29 +1605,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ALL NIPPON AIRWAYS CO., LTD.</t>
+          <t>YADAGAWA Electric Plating Co.,Ltd.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1326874</t>
+          <t>1326890</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326874</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326890</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Analyzing HR and Organizational Development Data Driven Insights and Strategy</t>
+          <t>Occupational Health and Safety Projects Specialist</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>日本、東京都港区</t>
+          <t>Mexico City, CDMX, Mexico</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1637,34 +1637,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mercer Japan Ltd.</t>
+          <t>Sodexo Mexico</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1326872</t>
+          <t>1326889</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326872</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326889</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Conduct market research and develop a deployment strategy to bring the online IBDP to more countries and regions</t>
+          <t>Experience in developing software systems and practicing marketing for the social implementation of drones</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1689,29 +1689,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aoba-BBT, Inc.</t>
+          <t>ALL NIPPON AIRWAYS CO., LTD.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1326869</t>
+          <t>1326874</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326869</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326874</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Demonstrative Virtual Design of AI English Learning Tools</t>
+          <t>Analyzing HR and Organizational Development Data Driven Insights and Strategy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>日本、東京都東京</t>
+          <t>日本、東京都港区</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1731,29 +1731,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aoba-BBT, Inc.</t>
+          <t>Mercer Japan Ltd.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1326868</t>
+          <t>1326872</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326872</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Practical Experience in Tourism-Based Marketing and Market Research for International Service Promotion</t>
+          <t>Conduct market research and develop a deployment strategy to bring the online IBDP to more countries and regions</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>日本、東京都台東区</t>
+          <t>日本、東京都東京</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Japan Dream Tour Co., Ltd.</t>
+          <t>Aoba-BBT, Inc.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1326867</t>
+          <t>1326869</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326867</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326869</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hands-on experience in back-end and front-end development of image recognition AI</t>
+          <t>Demonstrative Virtual Design of AI English Learning Tools</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1815,29 +1815,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Systems Nakashima Co., Ltd.</t>
+          <t>Aoba-BBT, Inc.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1326860</t>
+          <t>1326868</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326860</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326868</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Exploring the Healthcare Markets of Japan and India and Developing New Business Ideas within Non-Practical Training</t>
+          <t>Practical Experience in Tourism-Based Marketing and Market Research for International Service Promotion</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>日本、東京都東京</t>
+          <t>日本、東京都台東区</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1857,29 +1857,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SECOM Medical System Co., Ltd.</t>
+          <t>Japan Dream Tour Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1326844</t>
+          <t>1326867</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326844</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326867</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate – PQU Annotator intern</t>
+          <t>Hands-on experience in back-end and front-end development of image recognition AI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>日本、東京都東京</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1899,29 +1899,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tech Mahindra Ltd</t>
+          <t>Systems Nakashima Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1326843</t>
+          <t>1326860</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326843</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326860</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Exploring the Healthcare Markets of Japan and India and Developing New Business Ideas within Non-Practical Training</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Delft, Nederland</t>
+          <t>日本、東京都東京</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>IRM systems</t>
+          <t>SECOM Medical System Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1326834</t>
+          <t>1326844</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326834</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326844</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Taste Hungary| Associate – PQU Annotator intern</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jamshedpur, Jharkhand, India</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,39 +1973,39 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ToWaSo Pvt.Ltd.</t>
+          <t>Tech Mahindra Ltd</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1326820</t>
+          <t>1326843</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326820</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326843</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Delft, Nederland</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>126 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>IRM systems</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1326816</t>
+          <t>1326834</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326816</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326834</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>International Business Development Manager</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat, India</t>
+          <t>Jamshedpur, Jharkhand, India</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2062,34 +2062,34 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>GUJARAT TEA PROCESSORS AND PACKERS LIMITED</t>
+          <t>ToWaSo Pvt.Ltd.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1326815</t>
+          <t>1326820</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326815</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326820</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>International Business Development</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat, India</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2099,34 +2099,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pavit Ceramics Pvt Ltd</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1326814</t>
+          <t>1326816</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326814</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326816</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>International Business Development Manager</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2141,39 +2141,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Alchemy Translations</t>
+          <t>GUJARAT TEA PROCESSORS AND PACKERS LIMITED</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1326802</t>
+          <t>1326815</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326802</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326815</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>International Business Development</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Karnal, Haryana, India</t>
+          <t>Ahmedabad, Gujarat, India</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2183,39 +2183,39 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jollygoodfellow creations</t>
+          <t>Pavit Ceramics Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1326801</t>
+          <t>1326814</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326801</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326814</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Content creation and Brand Management</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Karnal, Haryana, India</t>
+          <t>Ahmedabad, Gujarat, India</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,29 +2235,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Jollygoodfellow creations</t>
+          <t>Alchemy Translations</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1326789</t>
+          <t>1326802</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326789</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326802</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4750 Barcelos, Portugal</t>
+          <t>Karnal, Haryana, India</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2267,39 +2267,39 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Design Studio</t>
+          <t>Jollygoodfellow creations</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1326778</t>
+          <t>1326801</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326778</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326801</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Talent Rewards Intern</t>
+          <t>Content creation and Brand Management</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Karnal, Haryana, India</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,39 +2309,39 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>Jollygoodfellow creations</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1326732</t>
+          <t>1326789</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326732</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326789</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Translator</t>
+          <t>Content Creation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>4750 Barcelos, Portugal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,39 +2351,39 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Design Studio</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1326706</t>
+          <t>1326778</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326778</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sales Customer Service Support</t>
+          <t>Talent Rewards Intern</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2403,29 +2403,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aytek Soğutma</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1326701</t>
+          <t>1326732</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326701</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326732</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Translator</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>code4business Shareholder GmbH</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1326700</t>
+          <t>1326706</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326700</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Sales Specialist</t>
+          <t>Sales Customer Service Support</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,39 +2477,39 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>re:solved</t>
+          <t>Aytek Soğutma</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1326678</t>
+          <t>1326701</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326678</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326701</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MDM (Knox) Solutions Expert</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2529,29 +2529,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>code4business Shareholder GmbH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1326671</t>
+          <t>1326700</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326671</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326700</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Accelerate Romania | Sales Specialist</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>India Someday Travels LLP</t>
+          <t>re:solved</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1326670</t>
+          <t>1326678</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326670</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326678</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TIM Operations Assistant Intern</t>
+          <t>MDM (Knox) Solutions Expert</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2620,22 +2620,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1326669</t>
+          <t>1326671</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326669</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326671</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EB Sales &amp; Supply Chain Management Assistant</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2645,39 +2645,39 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>India Someday Travels LLP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1326664</t>
+          <t>1326670</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326664</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326670</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Market Research &amp; Insights Coordinator Trainee ONLY EU</t>
+          <t>TIM Operations Assistant Intern</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2697,29 +2697,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1326658</t>
+          <t>1326669</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326658</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326669</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>EB Sales &amp; Supply Chain Management Assistant</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Malabe, Sri Lanka</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2729,39 +2729,39 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Creative Technology Solutions (Private) Limited</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1326653</t>
+          <t>1326664</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326653</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326664</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Interior Design</t>
+          <t>Market Research &amp; Insights Coordinator Trainee ONLY EU</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>New Cairo City, Cairo Governorate, Egypt</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Ahmad Elsherif Interior Designer</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1326643</t>
+          <t>1326658</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326643</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326658</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On Premise Analyst</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Malabe, Sri Lanka</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2813,39 +2813,39 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>77 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Red Bull Panamá</t>
+          <t>Creative Technology Solutions (Private) Limited</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1326636</t>
+          <t>1326653</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326636</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326653</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Computer and AI Coordinator</t>
+          <t>Interior Design</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>New Cairo City, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2855,34 +2855,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>227 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Capital Care Homes</t>
+          <t>Ahmad Elsherif Interior Designer</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1326634</t>
+          <t>1326643</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326634</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326643</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Marketing Assistant/Support</t>
+          <t>On Premise Analyst</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>81 applicants</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2907,29 +2907,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Red Bull Panamá</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1326590</t>
+          <t>1326636</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326590</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326636</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT</t>
+          <t>Computer and AI Coordinator</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>London, UK</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>231 applicants</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Egypt holiday travel</t>
+          <t>Capital Care Homes</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1326589</t>
+          <t>1326634</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326589</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326634</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Marketing Assistant/Support</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2981,34 +2981,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Egypt holiday travel</t>
+          <t>MSD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1326588</t>
+          <t>1326590</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326588</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326590</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>BUSINESS DEVELOPMENT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3040,22 +3040,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1326587</t>
+          <t>1326589</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326587</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326589</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2750 Cascais, Portugal</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3065,39 +3065,39 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>163 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>MQ Capital</t>
+          <t>Egypt holiday travel</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1326583</t>
+          <t>1326588</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326583</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326588</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2750 Cascais, Portugal</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3107,39 +3107,39 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>MQ Capital</t>
+          <t>Egypt holiday travel</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1326575</t>
+          <t>1326587</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326575</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326587</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graphic design</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>2750 Cascais, Portugal</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3149,81 +3149,81 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>163 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Egypt holiday travel</t>
+          <t>MQ Capital</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1326574</t>
+          <t>1326583</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326574</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326583</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Global Portfolio Specialist (Product Line Care) - Global Electrolux Talent Program</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Stokholm, İsveç</t>
+          <t>2750 Cascais, Portugal</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>177 applicants</t>
+          <t>68 applicants</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AB Electrolux</t>
+          <t>MQ Capital</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1326557</t>
+          <t>1326575</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326557</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326575</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Italian</t>
+          <t>Graphic design</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Egypt holiday travel</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1326556</t>
+          <t>1326557</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326556</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326557</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - French</t>
+          <t>Taste Hungary| Associate Technical Support - Italian</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3292,22 +3292,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1326555</t>
+          <t>1326556</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326555</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326556</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graphic desgin</t>
+          <t>Taste Hungary| Associate Technical Support - French</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3317,39 +3317,39 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Egypt holiday travel</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1326538</t>
+          <t>1326555</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326555</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
+          <t>Graphic desgin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG, Brasil</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3359,39 +3359,39 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Onfly</t>
+          <t>Egypt holiday travel</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1326536</t>
+          <t>1326538</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Belo Horizonte, MG, Brasil</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3401,39 +3401,39 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Egypt holiday travel</t>
+          <t>Onfly</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1326533</t>
+          <t>1326536</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326533</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326536</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3460,22 +3460,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1326517</t>
+          <t>1326533</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326517</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326533</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Researcher</t>
+          <t>BUSINESS DEVELOPMENT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3485,39 +3485,39 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Michael Page International Panamá S.A.</t>
+          <t>Egypt holiday travel</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1326505</t>
+          <t>1326517</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326505</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326517</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
+          <t>Researcher</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3527,39 +3527,39 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dog Assist</t>
+          <t>Michael Page International Panamá S.A.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1326503</t>
+          <t>1326505</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326505</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Αθήνα, Ελλάδα</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>60 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3579,29 +3579,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inzeb</t>
+          <t>Dog Assist</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1326495</t>
+          <t>1326503</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326495</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326503</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Engineering Intern</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Αθήνα, Ελλάδα</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3611,59 +3611,59 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Forbes Marshall Pvt Ltd</t>
+          <t>Inzeb</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1326494</t>
+          <t>1326495</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326494</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326495</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ACE Program | Polish Language Coach</t>
+          <t>Engineering Intern</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Forbes Marshall Pvt Ltd</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>56 applicants</t>
+          <t>57 applicants</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4258,32 +4258,32 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1326383</t>
+          <t>1326353</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326383</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326353</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ACE Program | Arabic Financial Analyst</t>
+          <t>Accounts Payable Clerk</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4293,29 +4293,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>PSA Panama International Terminal, S.A.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1326353</t>
+          <t>1326337</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326353</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326337</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Accounts Payable Clerk</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Lisboa, Portugal</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4335,29 +4335,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>PSA Panama International Terminal, S.A.</t>
+          <t>BGI S.A</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1326337</t>
+          <t>1326310</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326337</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Back - End Developer</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lisboa, Portugal</t>
+          <t>Glyfada, Greece</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4367,39 +4367,39 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>185 applicants</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>BGI S.A</t>
+          <t>Validata Software</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1326310</t>
+          <t>1326286</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326286</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Back - End Developer</t>
+          <t>Digital Patient Evidence Trainee</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Glyfada, Greece</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4409,39 +4409,39 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>178 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Validata Software</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1326286</t>
+          <t>1326281</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326281</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Digital Patient Evidence Trainee</t>
+          <t>[Impact Porto Alegre]-Business Analyst</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Porto Alegre, RS, Brazil</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4451,39 +4451,39 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>87 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>KOBE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1326281</t>
+          <t>1326262</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326281</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326262</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre]-Business Analyst</t>
+          <t>Recruiting Tech &amp; Learning Operations Trainee</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS, Brazil</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4493,39 +4493,39 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>KOBE</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1326262</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326262</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Recruiting Tech &amp; Learning Operations Trainee</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>86 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4545,29 +4545,29 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326254</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326254</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Guest Relations Manager</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4577,39 +4577,39 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Siera Beach Hotel</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1326254</t>
+          <t>1326226</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326254</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326226</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Guest Relations Manager</t>
+          <t>Commercial Advisor</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Lisboa, Portugal</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4619,39 +4619,39 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Siera Beach Hotel</t>
+          <t>AAVANZ - INOVAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1326226</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326226</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Commercial Advisor</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Lisboa, Portugal</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4661,34 +4661,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>AAVANZ - INOVAÇÃO, UNIPESSOAL LDA</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326219</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326219</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,12 +4720,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1326219</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326219</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,17 +4762,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4787,12 +4787,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,17 +4804,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4846,17 +4846,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4888,22 +4888,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326207</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326207</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Digital Marketing- Inten</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4923,29 +4923,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>All In One Holdings (PVT) Ltd</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1326207</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326207</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Digital Marketing- Inten</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4965,29 +4965,29 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>All In One Holdings (PVT) Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326205</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326205</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Web &amp; System Developer</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4997,39 +4997,39 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>All In One Holdings (PVT) Ltd</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1326205</t>
+          <t>1326204</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326205</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326204</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Web &amp; System Developer</t>
+          <t>Grant Writter</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Lisboa, Portugal</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5039,39 +5039,39 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>108 applicants</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>All In One Holdings (PVT) Ltd</t>
+          <t>AAVANZ - INOVAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1326204</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326204</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Grant Writter</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Lisboa, Portugal</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5081,34 +5081,34 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>AAVANZ - INOVAÇÃO, UNIPESSOAL LDA</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,17 +5140,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5165,12 +5165,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,17 +5182,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,17 +5224,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326198</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>AI and ML Intern</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5266,17 +5266,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1326198</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AI and ML Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5308,17 +5308,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,22 +5350,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1326174</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326174</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5375,34 +5375,34 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Ave Visto</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1326174</t>
+          <t>1326172</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326174</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326172</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
+          <t>Accelerate Romania - Community Manager</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5427,29 +5427,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Ave Visto</t>
+          <t>ClujStartups</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1326172</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326172</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Community Manager</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5459,39 +5459,39 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>85 applicants</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>ClujStartups</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1326112</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326112</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>Content Creator - Creative Team Assistant</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Αθήνα, Ελλάδα</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5501,71 +5501,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>Viral Passion</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1326112</t>
+          <t>1326043</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326112</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326043</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Content Creator - Creative Team Assistant</t>
+          <t>ACE Program | Portuguese Financial Analyst</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Αθήνα, Ελλάδα</t>
+          <t>Kolkata, West Bengal, India</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Viral Passion</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1326043</t>
+          <t>1326042</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326043</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Kolkata, West Bengal, India</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5602,17 +5602,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1326042</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Financial Analyst</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5644,17 +5644,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1326040</t>
+          <t>1326038</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326040</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326038</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Customer Support</t>
+          <t>ACE Program | Spanish Customer Support</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5770,22 +5770,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1325922</t>
+          <t>1325908</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325908</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Polish</t>
+          <t>International Business Development Intern</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5795,39 +5795,39 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Fintechnology Asia Pacific Lanka (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1325908</t>
+          <t>1325888</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325908</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325888</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>International Business Development Intern</t>
+          <t>Business Development executive</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Chandigarh, Punjab 148023, India</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5837,39 +5837,39 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Fintechnology Asia Pacific Lanka (Pvt) Ltd</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1325888</t>
+          <t>1325887</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325888</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325887</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Business Development executive</t>
+          <t>Content Creation Intern</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Chandigarh, Punjab 148023, India</t>
+          <t>Panchkula, Haryana, India</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5889,29 +5889,29 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Idea Clan</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1325887</t>
+          <t>1325876</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325887</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325876</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Content Creation Intern</t>
+          <t>[Impact Brazil]- AI Data Scientist Intern</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Panchkula, Haryana, India</t>
+          <t>Ribeirão Preto, SP, Brasil</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5921,39 +5921,39 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>95 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Idea Clan</t>
+          <t>CCM Soluções em Tecnologia LTDA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1325876</t>
+          <t>1325860</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325876</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325860</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[Impact Brazil]- AI Data Scientist Intern</t>
+          <t>Accelerate Romania | Full-stack Developer</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ribeirão Preto, SP, Brasil</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5963,34 +5963,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>95 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>CCM Soluções em Tecnologia LTDA</t>
+          <t>Webchain</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1325860</t>
+          <t>1325859</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325860</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325859</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Full-stack Developer</t>
+          <t>Accelerate Romania | Front-end Developer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6022,17 +6022,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1325859</t>
+          <t>1325858</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325859</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325858</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Front-end Developer</t>
+          <t>Accelerate Romania | Back-end Developer</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6064,22 +6064,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1325858</t>
+          <t>1325700</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325858</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325700</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Back-end Developer</t>
+          <t>Business Analyst and Executive Secretary</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6089,39 +6089,39 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Webchain</t>
+          <t>Indian Kitchen PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1325700</t>
+          <t>1325643</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325700</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325643</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Business Analyst and Executive Secretary</t>
+          <t>Quality Control Officer</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>El-Nozha, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6131,34 +6131,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Indian Kitchen PVT LTD</t>
+          <t>karma outdoor furniture</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1325643</t>
+          <t>1325642</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325643</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325642</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Quality Control Officer</t>
+          <t>Export Development Assistant</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6190,22 +6190,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1325642</t>
+          <t>1325621</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325642</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325621</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Export Development Assistant</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>El-Nozha, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6215,39 +6215,39 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>karma outdoor furniture</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1325621</t>
+          <t>1325614</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325621</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325614</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6257,34 +6257,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Vimigo</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1325614</t>
+          <t>1325613</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325614</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325613</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Talent Acquisition Intern</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6316,17 +6316,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1325613</t>
+          <t>1325612</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325613</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325612</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Talent Acquisition Intern</t>
+          <t>Retail Management Trainee Intern</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6358,22 +6358,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1325612</t>
+          <t>1325604</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325612</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325604</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Retail Management Trainee Intern</t>
+          <t>International Business &amp; Innovation Analyst</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>4520 Santa Maria da Feira, Portugal</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6383,39 +6383,39 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Vimigo</t>
+          <t>M2K Consultoria</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1325604</t>
+          <t>1325565</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325604</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325565</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>International Business &amp; Innovation Analyst</t>
+          <t>Administrative Reception Specialist</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4520 Santa Maria da Feira, Portugal</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>101 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6435,24 +6435,24 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>M2K Consultoria</t>
+          <t>AZ tech solutions</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1325565</t>
+          <t>1325564</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325565</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325564</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Administrative Reception Specialist</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1325564</t>
+          <t>1325562</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325564</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325562</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Graphic desgin</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6526,22 +6526,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1325562</t>
+          <t>1325556</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325562</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325556</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Graphic desgin</t>
+          <t>Retail Management Trainee Intern</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6551,34 +6551,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>AZ tech solutions</t>
+          <t>Big Bath Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1325556</t>
+          <t>1325555</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325556</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325555</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Retail Management Trainee Intern</t>
+          <t>Talent Acquisition Intern</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6610,17 +6610,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1325555</t>
+          <t>1325553</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325555</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325553</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Talent Acquisition Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6652,32 +6652,32 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1325553</t>
+          <t>1325546</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325553</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325546</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Taste Hungary | Jr. Commercial Analyst (Finance) - Schengen Passport only!</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Big Bath Sdn Bhd</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>78 applicants</t>
+          <t>79 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7198,64 +7198,64 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1325379</t>
+          <t>1325396</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325396</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Software Development Intern</t>
+          <t>ACE Program | Onboarding &amp; Induction Coordinator</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>187 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Eutopians</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1325349</t>
+          <t>1325379</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325349</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325379</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Software Development Intern</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7275,29 +7275,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
+          <t>Eutopians</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1325377</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325377</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7307,39 +7307,39 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>73 applicants</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>Eutopians</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1325318</t>
+          <t>1325349</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325318</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325349</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Social Media Planner &amp; Content Creator</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>القاهرة، محافظة القاهرة‬، مصر</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7359,29 +7359,29 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>The Circle Care</t>
+          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1325316</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325316</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Seo content creator &amp; google analytics</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>القاهرة، محافظة القاهرة‬، مصر</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7391,34 +7391,34 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>The Circle Care</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1325311</t>
+          <t>1325318</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325311</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325318</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Business Developer &amp; Account Manager</t>
+          <t>Social Media Planner &amp; Content Creator</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7450,22 +7450,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1325295</t>
+          <t>1325316</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325295</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325316</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[Partly Remote] [Impact Belo Horizonte]- Implementation Consultant</t>
+          <t>Seo content creator &amp; google analytics</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG, Brasil</t>
+          <t>القاهرة، محافظة القاهرة‬، مصر</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7475,39 +7475,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Teknisa Service S.A</t>
+          <t>The Circle Care</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1325268</t>
+          <t>1325311</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325268</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325311</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Business Developer &amp; Account Manager</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>القاهرة، محافظة القاهرة‬، مصر</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7527,29 +7527,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
+          <t>The Circle Care</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1325250</t>
+          <t>1325295</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325250</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325295</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Social Media Executive</t>
+          <t>[Partly Remote] [Impact Belo Horizonte]- Implementation Consultant</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Belo Horizonte, MG, Brasil</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7559,34 +7559,34 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Leadmagnet private limited</t>
+          <t>Teknisa Service S.A</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1325200</t>
+          <t>1325268</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325200</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325268</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7611,29 +7611,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1325197</t>
+          <t>1325250</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325197</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325250</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Social Media Executive</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7643,39 +7643,39 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>AKYEL TREYLER MAKİNE SANAYİ VE TİCARET LİMİTED ŞİRKETİ</t>
+          <t>Leadmagnet private limited</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1325170</t>
+          <t>1325200</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325170</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325200</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Accelerate Romania -Business Development Specialist</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7695,39 +7695,39 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>MTD Technology</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1325154</t>
+          <t>1325197</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325197</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ACE Program | Norwegian Language Coach</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>129 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7737,66 +7737,66 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>AKYEL TREYLER MAKİNE SANAYİ VE TİCARET LİMİTED ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1325153</t>
+          <t>1325170</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325170</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ACE Program | Danish Language Coach</t>
+          <t>Accelerate Romania -Business Development Specialist</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>MTD Technology</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1325152</t>
+          <t>1325154</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325154</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ACE Program | Swedish Language Coach</t>
+          <t>ACE Program | Norwegian Language Coach</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7828,106 +7828,106 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1325126</t>
+          <t>1325153</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325126</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Social media manager</t>
+          <t>ACE Program | Danish Language Coach</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Alexandria, Alexandria Governorate, Egypt</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Professional engineer</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1325115</t>
+          <t>1325152</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325115</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>ACE Program | Swedish Language Coach</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1325059</t>
+          <t>1325126</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325059</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325126</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Interior designer</t>
+          <t>Social media manager</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Alexandria, Alexandria Governorate, Egypt</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7937,39 +7937,39 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Kaian Arabi</t>
+          <t>Professional engineer</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1325115</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325115</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,39 +7979,39 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>92 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1325013</t>
+          <t>1325059</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325059</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Spanish Speaker Sales Manager</t>
+          <t>Interior designer</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Niğde, Niğde Merkez/Niğde, Türkiye</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8031,29 +8031,29 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Nuhoğlu Bakır</t>
+          <t>Kaian Arabi</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8063,39 +8063,39 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1324975</t>
+          <t>1325013</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324975</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325013</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Product Marketing</t>
+          <t>Spanish Speaker Sales Manager</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Београд, Србија</t>
+          <t>Niğde, Niğde Merkez/Niğde, Türkiye</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,39 +8105,39 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>MVP Workshop</t>
+          <t>Nuhoğlu Bakır</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1324910</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324910</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8147,39 +8147,39 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Transition Agency</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1324909</t>
+          <t>1324975</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324909</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324975</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Product Marketing</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,39 +8189,39 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Transition Agency</t>
+          <t>MVP Workshop</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1324857</t>
+          <t>1324910</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324857</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324910</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mechanical Computer Science and Electronics Engineering</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8231,39 +8231,39 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Transition Agency</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1324794</t>
+          <t>1324909</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324794</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324909</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - PLO / WPD systems Intern</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Rio Claro, SP, Brasil</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,39 +8273,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Whirlpool Corporation</t>
+          <t>Transition Agency</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1324750</t>
+          <t>1324857</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324750</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324857</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Electrical Engineering Intern</t>
+          <t>Mechanical Computer Science and Electronics Engineering</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Rio Claro, SP, Brasil</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8315,39 +8315,39 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Whirlpool Corporation</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1324676</t>
+          <t>1324794</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324676</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324794</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Motivational Speaker</t>
+          <t>[Impact Brazil] - PLO / WPD systems Intern</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Nittambuwa, Sri Lanka</t>
+          <t>Rio Claro, SP, Brasil</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,39 +8357,39 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Negombo South International School network</t>
+          <t>Whirlpool Corporation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1324665</t>
+          <t>1324750</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324665</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324750</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>[Impact Brazil] - Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Rio Claro, SP, Brasil</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8399,39 +8399,39 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Whirlpool Corporation</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1324676</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324676</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>Motivational Speaker</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Nittambuwa, Sri Lanka</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8441,39 +8441,39 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>Negombo South International School network</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1324636</t>
+          <t>1324665</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324636</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324665</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[Impact Fortaleza] -Cost &amp; Quality Planning</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Castanhal, Pará, Brasil</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8483,39 +8483,39 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Petruz Fruity</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1324628</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324628</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Computer Science Engineering Intern</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8525,39 +8525,39 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1324601</t>
+          <t>1324636</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324601</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324636</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Computer Science and Engineering Intern</t>
+          <t>[Impact Fortaleza] -Cost &amp; Quality Planning</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Castanhal, Pará, Brasil</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8572,34 +8572,34 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Petruz Fruity</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1324596</t>
+          <t>1324628</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324596</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324628</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ACCOUNTANT</t>
+          <t>Computer Science Engineering Intern</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8609,39 +8609,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1324592</t>
+          <t>1324601</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324601</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Digital marketing</t>
+          <t>Computer Science and Engineering Intern</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8651,39 +8651,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1324572</t>
+          <t>1324592</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324572</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cyber Security Intern</t>
+          <t>Digital marketing</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8703,29 +8703,29 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Business Haven Consultancy</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1324566</t>
+          <t>1324572</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324566</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324572</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Back-end Software Developer</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Eindhoven, Nederland</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8735,39 +8735,39 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>333 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Dutch Coding Company</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1324560</t>
+          <t>1324566</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324560</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324566</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[Impact Belo Horiozonte] - Inside Sales Intern</t>
+          <t>Back-end Software Developer</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Juiz de Fora, MG, Brasil</t>
+          <t>Eindhoven, Nederland</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>337 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>AUE - Juiz de Fora</t>
+          <t>Dutch Coding Company</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>258 applicants</t>
+          <t>259 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>59 applicants</t>
+          <t>60 applicants</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>385 applicants</t>
+          <t>387 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -11020,22 +11020,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1321138</t>
+          <t>1321254</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321138</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321254</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Marketing&amp;Sales</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11045,34 +11045,34 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>79 applicants</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Baharoğlu Gıda</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1321114</t>
+          <t>1321138</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321114</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321138</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Computer Science and Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -11104,22 +11104,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1321055</t>
+          <t>1321114</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321114</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>International Sales Representetive Italian Speaker</t>
+          <t>Computer Science and Engineering Intern</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11129,34 +11129,34 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1321054</t>
+          <t>1321055</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>International Sales Representetive Russian Speaker</t>
+          <t>International Sales Representetive Italian Speaker</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11188,17 +11188,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1321053</t>
+          <t>1321054</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>International Sales Representetive German Speaker</t>
+          <t>International Sales Representetive Russian Speaker</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>99 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>66 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>116 applicants</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -13036,64 +13036,64 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1304097</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304097</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Bursa, Türkiye</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -13103,39 +13103,39 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Tekinsan Otomotiv</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1304097</t>
+          <t>1303648</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304097</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303648</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Social Media Manager</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Bursa, Türkiye</t>
+          <t>Ahangama, Sri Lanka</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13145,39 +13145,39 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>86 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Tekinsan Otomotiv</t>
+          <t>Surfing Wombats</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1303648</t>
+          <t>1303327</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Social Media Manager</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Ahangama, Sri Lanka</t>
+          <t>Konak, Türkiye</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -13187,39 +13187,39 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>549 applicants</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Surfing Wombats</t>
+          <t>Tekinalp Holding</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1303327</t>
+          <t>1301829</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301829</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Market Analyst</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Konak, Türkiye</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -13229,34 +13229,34 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>549 applicants</t>
+          <t>171 applicants</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Tekinalp Holding</t>
+          <t>Bemis Teknik Elektrik</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1301829</t>
+          <t>1299952</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301829</t>
+          <t>https://aiesec.org/opportunity/global-talent/1299952</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Market Analyst</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -13266,44 +13266,44 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>171 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Bemis Teknik Elektrik</t>
+          <t>Via Premium</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1301470</t>
+          <t>1299853</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301470</t>
+          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Operation Specialist in İstanbul</t>
+          <t>[Impact Porto Alegre]- Social Media</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Fatih, Türkiye</t>
+          <t>Bom Fim, Brazil</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -13313,81 +13313,81 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>142 applicants</t>
+          <t>132 applicants</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Esenyel&amp;Partners Lawyers/Consultants</t>
+          <t>ESCOLA GIORDANO BRUNO LTDA</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1299952</t>
+          <t>1298881</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1299952</t>
+          <t>https://aiesec.org/opportunity/global-talent/1298881</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>Selçuklu, Türkiye</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>185 applicants</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Via Premium</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1299853</t>
+          <t>1294657</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1294657</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre]- Social Media</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Bom Fim, Brazil</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13397,34 +13397,34 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>132 applicants</t>
+          <t>248 applicants</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>ESCOLA GIORDANO BRUNO LTDA</t>
+          <t>OMSA</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1298881</t>
+          <t>1293536</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1298881</t>
+          <t>https://aiesec.org/opportunity/global-talent/1293536</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Export Specialist</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>185 applicants</t>
+          <t>244 applicants</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -13449,29 +13449,29 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>Sekizli Makina</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1294657</t>
+          <t>1289378</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1294657</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Medical Advisor (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>247 applicants</t>
+          <t>116 applicants</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -13491,29 +13491,29 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>OMSA</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1293536</t>
+          <t>1289377</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1293536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Export Specialist</t>
+          <t>Medical Advisor (Italian Speaker)</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Selçuklu, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>244 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -13533,29 +13533,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Sekizli Makina</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1289378</t>
+          <t>1289255</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
+          <t>Medical Advisor French Speaker</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Fatih, Türkiye</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>116 applicants</t>
+          <t>660 applicants</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -13582,22 +13582,22 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1289377</t>
+          <t>1284286</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1284286</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Medical Advisor (Italian Speaker)</t>
+          <t>International Market Expansion in Izmir</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Atatürk Osb, Türkiye</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>77 applicants</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13617,29 +13617,29 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Elektral Elektromekanik San ve Tic. A.Ş.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1289376</t>
+          <t>1280027</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289376</t>
+          <t>https://aiesec.org/opportunity/global-talent/1280027</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Medical Advisor (Dutch Speaker)</t>
+          <t>Web Developer and Software in Drupart Company</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Gebze, Türkiye</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>645 applicants</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -13658,174 +13658,6 @@
         </is>
       </c>
       <c r="H315" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>1289375</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Medical Advisor (German Speaker)</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>İstanbul, Türkiye</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>28 applicants</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>1289255</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Medical Advisor French Speaker</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Fatih, Türkiye</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>658 applicants</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>1284286</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1284286</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>International Market Expansion in Izmir</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>Atatürk Osb, Türkiye</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>77 applicants</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Elektral Elektromekanik San ve Tic. A.Ş.</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>1280027</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1280027</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Web Developer and Software in Drupart Company</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Gebze, Türkiye</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>644 applicants</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr">
         <is>
           <t>Drupart Dijital Çözümler ve Tic.Ltd.Şti.</t>
         </is>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1326043</t>
+          <t>1325152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326043</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Financial Analyst</t>
+          <t>ACE Program | Swedish Language Coach</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kolkata, West Bengal, India</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -520,22 +520,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1325153</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Danish Language Coach</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1322238</t>
+          <t>1326038</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322238</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326038</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OneERP Management Support</t>
+          <t>ACE Program | Spanish Customer Support</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lund, Sweden</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>214 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ALFA LAVAL</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>127 applicants</t>
+          <t>134 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>73 applicants</t>
+          <t>74 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3250,32 +3250,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1327959</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327959</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>Accounting Management Trainee</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3285,29 +3285,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ATHENASIA Consulting Limited</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1327959</t>
+          <t>1327958</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327959</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Accounting Management Trainee</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3317,34 +3317,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ATHENASIA Consulting Limited</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1327958</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3376,17 +3376,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327951</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3401,39 +3401,39 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>Gipfel</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1327951</t>
+          <t>1327922</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3443,34 +3443,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gipfel</t>
+          <t>Starbeans Ceylon (Pvt ) Ltd</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1327922</t>
+          <t>1327919</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Customer Representative- Intern</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3485,39 +3485,39 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Starbeans Ceylon (Pvt ) Ltd</t>
+          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1327919</t>
+          <t>1327904</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Customer Representative- Intern</t>
+          <t>UX Research Trainee</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3527,39 +3527,39 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1327904</t>
+          <t>1327889</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UX Research Trainee</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3569,39 +3569,39 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>66 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1327889</t>
+          <t>1327883</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327883</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Mobile Application Developer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
+          <t>El-Mahalla El-Kubra, Al Mahalah Al Kubra (Part 2), El Mahalla El Kubra, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Lines</t>
+          <t>Positive Kids academy</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>63 applicants</t>
+          <t>66 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>140 applicants</t>
+          <t>141 applicants</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>117 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>96 applicants</t>
+          <t>99 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10600,12 +10600,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1326042</t>
+          <t>1326043</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326043</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Kolkata, West Bengal, India</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1326042</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>ACE Program | Portuguese Financial Analyst</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10684,22 +10684,22 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1326040</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326040</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Customer Support</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10726,17 +10726,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1326038</t>
+          <t>1326040</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326038</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326040</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Customer Support</t>
+          <t>ACE Program | Portuguese Customer Support</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>95 applicants</t>
+          <t>96 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>77 applicants</t>
+          <t>78 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>68 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12238,17 +12238,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1325152</t>
+          <t>1325153</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ACE Program | Swedish Language Coach</t>
+          <t>ACE Program | Danish Language Coach</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -13036,17 +13036,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1323480</t>
+          <t>1323474</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323480</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Mechanical Engineer Intern</t>
+          <t>Computer Engineer Intern</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>330 applicants</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -13078,22 +13078,22 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1323474</t>
+          <t>1323077</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Computer Engineer Intern</t>
+          <t>Pharmacy Intern</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>329 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -13113,29 +13113,29 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1323452</t>
+          <t>1323019</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323452</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323019</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Admission Counsellor</t>
+          <t>Project Specialist</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Karjat, Maharashtra 410201, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13145,39 +13145,39 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>159 applicants</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Universal AI University</t>
+          <t>Nabulu</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1323077</t>
+          <t>1322882</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322882</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Pharmacy Intern</t>
+          <t>BUSINESS DEVELOPMENT</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Gebze, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -13187,39 +13187,39 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>126 applicants</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>ÖZLER KALIP VE İSKELE SİSTEMLERİ A.Ş.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1323019</t>
+          <t>1322756</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323019</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322756</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Project Specialist</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -13229,39 +13229,39 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>159 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Nabulu</t>
+          <t>Crunkmart Private Limited</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1322882</t>
+          <t>1322514</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322882</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322514</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT</t>
+          <t>Electronics and Communication Engineering Intern</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Gebze, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>126 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -13281,29 +13281,29 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>ÖZLER KALIP VE İSKELE SİSTEMLERİ A.Ş.</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1322756</t>
+          <t>1322494</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322756</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -13313,39 +13313,39 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Crunkmart Private Limited</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1322514</t>
+          <t>1322487</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322514</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322487</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Electronics and Communication Engineering Intern</t>
+          <t>Accelerate Romania - Social Media Manager</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13355,39 +13355,39 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>nclav</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1322494</t>
+          <t>1322448</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322448</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Web developer</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13397,39 +13397,39 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>EG scout shop</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1322487</t>
+          <t>1322447</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322487</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322447</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Social Media Manager</t>
+          <t>Social Media&amp;Content Creator</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>63 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -13449,29 +13449,29 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>nclav</t>
+          <t>EG scout shop</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1322448</t>
+          <t>1322391</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322448</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322391</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Web developer</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13481,39 +13481,39 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>EG scout shop</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1322447</t>
+          <t>1322346</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322447</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322346</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Social Media&amp;Content Creator</t>
+          <t>Cyber Security and AI Intern</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -13533,71 +13533,71 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>EG scout shop</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1322391</t>
+          <t>1322238</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322391</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322238</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>OneERP Management Support</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Lund, Sweden</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>219 applicants</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>ALFA LAVAL</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1322346</t>
+          <t>1322154</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322346</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322154</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Cyber Security and AI Intern</t>
+          <t>Talent Acquisition Specialist  German Speaker</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13607,39 +13607,39 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>TELUS DIGITAL DANIŞMANLIK VE MÜŞTERİ HİZMETLERİ AŞ</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1322154</t>
+          <t>1322024</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322024</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist  German Speaker</t>
+          <t>Accelerate - Marketing Specialist</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13649,39 +13649,39 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>TELUS DIGITAL DANIŞMANLIK VE MÜŞTERİ HİZMETLERİ AŞ</t>
+          <t>Emotionstudios</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1322024</t>
+          <t>1321872</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322024</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Accelerate - Marketing Specialist</t>
+          <t>Mechanical Computer Science and Electronics Engineering</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13691,34 +13691,34 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Emotionstudios</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1321872</t>
+          <t>1321783</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321783</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Mechanical Computer Science and Electronics Engineering</t>
+          <t>Food Science and Marketing Intern</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -13750,17 +13750,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1321783</t>
+          <t>1321782</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321783</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321782</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Food Science and Marketing Intern</t>
+          <t>Mechatronics Engineering Intern.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -13792,22 +13792,22 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1321782</t>
+          <t>1321450</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321782</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321450</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Mechatronics Engineering Intern.</t>
+          <t>Sales and Business Development Intern</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Jaipur, Rajasthan, India</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -13827,29 +13827,29 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>www.Besteduonline.in (IPS Education &amp; Learning)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1321450</t>
+          <t>1321429</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321450</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321429</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Sales and Business Development Intern</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Jaipur, Rajasthan, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>52 applicants</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -13869,29 +13869,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>www.Besteduonline.in (IPS Education &amp; Learning)</t>
+          <t>Silverkey Technologies Egypt</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1321429</t>
+          <t>1321383</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321429</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321383</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Accelerate Romania - Online Marketing Intern</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -13901,39 +13901,39 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Silverkey Technologies Egypt</t>
+          <t>Gads Online Marketing</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1321383</t>
+          <t>1321275</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321383</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Online Marketing Intern</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -13943,39 +13943,39 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Gads Online Marketing</t>
+          <t>Silverkey Technologies Egypt</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1321275</t>
+          <t>1321215</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321275</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Business Management and Analytics Intern</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -13985,7 +13985,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -13995,81 +13995,81 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Silverkey Technologies Egypt</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1321215</t>
+          <t>1321193</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321193</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Business Management and Analytics Intern</t>
+          <t>Taste Hungary- Technical Support Engineer (Schengen passport only)</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>102 applicants</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1321193</t>
+          <t>1321055</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321193</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Taste Hungary- Technical Support Engineer (Schengen passport only)</t>
+          <t>International Sales Representetive Italian Speaker</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -14079,24 +14079,24 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1321055</t>
+          <t>1321054</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>International Sales Representetive Italian Speaker</t>
+          <t>International Sales Representetive Russian Speaker</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -14128,17 +14128,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1321054</t>
+          <t>1321053</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>International Sales Representetive Russian Speaker</t>
+          <t>International Sales Representetive German Speaker</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -14170,17 +14170,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1321053</t>
+          <t>1321052</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>International Sales Representetive German Speaker</t>
+          <t>International Sales Representetive</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -14212,22 +14212,22 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1321052</t>
+          <t>1320906</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320906</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>International Sales Representetive</t>
+          <t>QA Portuguese &amp; Brazilian Localization Tester</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -14237,39 +14237,39 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Quantic Lab</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1320906</t>
+          <t>1320902</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320906</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320902</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>QA Portuguese &amp; Brazilian Localization Tester</t>
+          <t>Creative Marketing Designer</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14279,34 +14279,34 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>68 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Quantic Lab</t>
+          <t>Rabbit Digital Branding solutions</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1320902</t>
+          <t>1320901</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320902</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320901</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Creative Marketing Designer</t>
+          <t>Client Service Manager</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -14338,22 +14338,22 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1320901</t>
+          <t>1320868</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320901</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Client Service Manager</t>
+          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14363,39 +14363,39 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding solutions</t>
+          <t>RepsMate</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1320868</t>
+          <t>1317568</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
+          <t>Research Intern, Project base learning</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -14415,29 +14415,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>RepsMate</t>
+          <t>PVG’s College of Engineering and Technology</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1317568</t>
+          <t>1317404</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317404</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Research Intern, Project base learning</t>
+          <t>Demand Generation</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Mysuru, Karnataka, India</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14447,39 +14447,39 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>PVG’s College of Engineering and Technology</t>
+          <t>DeUS Tech Services</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1317404</t>
+          <t>1317352</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317352</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Demand Generation</t>
+          <t>[Accelerate Serbia] Business Development Trainee</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Mysuru, Karnataka, India</t>
+          <t>Суботица, Србија</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -14489,39 +14489,39 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>DeUS Tech Services</t>
+          <t>BIROGRAFIKA MB DOO SUBOTICA</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1317352</t>
+          <t>1317306</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317352</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317306</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Business Development Trainee</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Суботица, Србија</t>
+          <t>8670 Aljezur, Portugal</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>231 applicants</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14541,29 +14541,29 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>BIROGRAFIKA MB DOO SUBOTICA</t>
+          <t>Barranco Da Fonte</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1317306</t>
+          <t>1317292</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317306</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317292</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>8670 Aljezur, Portugal</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>231 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14583,29 +14583,29 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Barranco Da Fonte</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1317292</t>
+          <t>1317223</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317292</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>București, România</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>116 applicants</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14625,29 +14625,29 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>Kreston Romania</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1317223</t>
+          <t>1317170</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317170</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
+          <t>Guest Relations Officer</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>București, România</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -14657,39 +14657,39 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>116 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Kreston Romania</t>
+          <t>Lanka Island Resorts Ltd</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1317170</t>
+          <t>1317128</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317170</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Guest Relations Officer</t>
+          <t>BUSINESS ADMINISTRATION</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14699,39 +14699,39 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>203 applicants</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Lanka Island Resorts Ltd</t>
+          <t>Abdi İbrahim Pharmaceutical</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1317128</t>
+          <t>1316788</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
+          <t>https://aiesec.org/opportunity/global-talent/1316788</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>BUSINESS ADMINISTRATION</t>
+          <t>Travel Coordinator</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Mexico City, CDMX, Mexico</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>203 applicants</t>
+          <t>117 applicants</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14751,29 +14751,29 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Abdi İbrahim Pharmaceutical</t>
+          <t>Ikan Experience</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1316788</t>
+          <t>1316099</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1316788</t>
+          <t>https://aiesec.org/opportunity/global-talent/1316099</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Travel Coordinator</t>
+          <t>Sales &amp; BD Junior Manager</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Mexico City, CDMX, Mexico</t>
+          <t>Puzi City, Chiayi County, Taiwan 613</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>116 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -14793,29 +14793,29 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Ikan Experience</t>
+          <t>Singform Enterprise Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1316099</t>
+          <t>1315600</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1316099</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315600</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Sales &amp; BD Junior Manager</t>
+          <t>Digital Marketing Executive</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Puzi City, Chiayi County, Taiwan 613</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -14825,39 +14825,39 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>92 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Singform Enterprise Co., Ltd.</t>
+          <t>KHEBRAT MISR</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1315600</t>
+          <t>1315265</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315600</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315265</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Digital Marketing Executive</t>
+          <t>Sales Attendant</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14867,39 +14867,39 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>KHEBRAT MISR</t>
+          <t>COTTON CASTLE TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1315265</t>
+          <t>1315123</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315265</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315123</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Sales Attendant</t>
+          <t>Accelerate Romania - Sales Business Manager</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Sibiu, România</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -14909,39 +14909,39 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>55 applicants</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>COTTON CASTLE TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Gads Online Marketing</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1315123</t>
+          <t>1314934</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315123</t>
+          <t>https://aiesec.org/opportunity/global-talent/1314934</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Sales Business Manager</t>
+          <t>Social Media Marketing Executive</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Sibiu, România</t>
+          <t>Petaling Jaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -14951,39 +14951,39 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>131 applicants</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Gads Online Marketing</t>
+          <t>iWisers SDN BHD</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1314934</t>
+          <t>1314638</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1314934</t>
+          <t>https://aiesec.org/opportunity/global-talent/1314638</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Social Media Marketing Executive</t>
+          <t>Accelerate Romania - Graphic Design</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Petaling Jaya, Selangor, Malaysia</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14993,39 +14993,39 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>131 applicants</t>
+          <t>60 applicants</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>iWisers SDN BHD</t>
+          <t>ROTSA</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1314638</t>
+          <t>1313882</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1314638</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Graphic Design</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>60 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -15045,24 +15045,24 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>ROTSA</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1313882</t>
+          <t>1313813</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>119 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -15094,22 +15094,22 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1313813</t>
+          <t>1313793</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>IT Sales Executive</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
+          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>105 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -15129,29 +15129,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
+          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1313793</t>
+          <t>1313548</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313548</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>IT Sales Executive</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -15171,29 +15171,29 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
+          <t>CGC technical Campus Jhanjeri</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1313548</t>
+          <t>1313467</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313467</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Content Creation</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>8670 Aljezur, Portugal</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -15213,29 +15213,29 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>CGC technical Campus Jhanjeri</t>
+          <t>Barranco Da Fonte</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1313467</t>
+          <t>1311536</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313467</t>
+          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>Accelerate Romania | Managing Co-founder</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>8670 Aljezur, Portugal</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -15255,29 +15255,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Barranco Da Fonte</t>
+          <t>Skulptor</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1311536</t>
+          <t>1310229</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Managing Co-founder</t>
+          <t>Guest Relations Officer</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Weligama, Sri Lanka</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -15287,39 +15287,39 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Skulptor</t>
+          <t>Weligama Cliff</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1310229</t>
+          <t>1310154</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
+          <t>https://aiesec.org/opportunity/global-talent/1310154</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Guest Relations Officer</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Weligama, Sri Lanka</t>
+          <t>Mississauga, Canada</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -15329,39 +15329,39 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>276 applicants</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Weligama Cliff</t>
+          <t>Remitbee</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1310154</t>
+          <t>1309418</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1310154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1309418</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>International Marketing Intern</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Mississauga, Canada</t>
+          <t>Luzhu District, Kaohsiung City, Taiwan 821</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>276 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -15381,29 +15381,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Remitbee</t>
+          <t>Green Power Engineering Corporation</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1309418</t>
+          <t>1308576</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1309418</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>International Marketing Intern</t>
+          <t>Chinese Language Specialist</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Luzhu District, Kaohsiung City, Taiwan 821</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>101 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -15423,39 +15423,39 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Green Power Engineering Corporation</t>
+          <t>Aitken Spence Travels (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1308576</t>
+          <t>1308372</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308372</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Chinese Language Specialist</t>
+          <t>ACE Program | Talent Acquisition Specialist (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -15465,71 +15465,71 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels (Pvt) Ltd</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1308372</t>
+          <t>1307935</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308372</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>ACE Program | Talent Acquisition Specialist (Spanish Speaker)</t>
+          <t>Business Analyst - Implementation Specialist</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Haulmatic Technologies</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1307935</t>
+          <t>1307425</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307425</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Business Analyst - Implementation Specialist</t>
+          <t>Service executive II</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Naucalpan de Juárez, Mexico</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -15539,39 +15539,39 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Haulmatic Technologies</t>
+          <t>Segmenta S.C.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>1307425</t>
+          <t>1305541</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307425</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305541</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Service executive II</t>
+          <t>Accelerate Romania - Business Development Associate</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez, Mexico</t>
+          <t>Cluj-Napoca, România</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -15581,49 +15581,49 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>168 applicants</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Segmenta S.C.</t>
+          <t>Mejix</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1306542</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306542</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Sales Responsible</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Ürgüp, Nevşehir, Türkiye</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>142 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -15633,29 +15633,29 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Pink Lotus Jewellery</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1305541</t>
+          <t>1304736</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305541</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304736</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Business Development Associate</t>
+          <t>Guest Relations Manager</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, România</t>
+          <t>Heraklion, Greece</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>168 applicants</t>
+          <t>191 applicants</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -15675,71 +15675,71 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Mejix</t>
+          <t>Remarc Internation</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>51 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1304736</t>
+          <t>1303327</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304736</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Guest Relations Manager</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Heraklion, Greece</t>
+          <t>Konak, Türkiye</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>189 applicants</t>
+          <t>584 applicants</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -15759,29 +15759,29 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Remarc Internation</t>
+          <t>Tekinalp Holding</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1302356</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1302356</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>Language Specialist - French</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -15801,29 +15801,29 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Aitken Spence Travels (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>1303327</t>
+          <t>1301470</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301470</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Operation Specialist in İstanbul</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Konak, Türkiye</t>
+          <t>Fatih, Türkiye</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -15833,39 +15833,39 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>582 applicants</t>
+          <t>155 applicants</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Tekinalp Holding</t>
+          <t>Esenyel&amp;Partners Lawyers/Consultants</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>1302356</t>
+          <t>1299853</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1302356</t>
+          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Language Specialist - French</t>
+          <t>[Impact Porto Alegre]- Social Media</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Bom Fim, Brazil</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -15875,39 +15875,39 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>139 applicants</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels (Pvt) Ltd</t>
+          <t>ESCOLA GIORDANO BRUNO LTDA</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>1301470</t>
+          <t>1296294</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301470</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296294</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Operation Specialist in İstanbul</t>
+          <t>IT Sales</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Fatih, Türkiye</t>
+          <t>Đống Đa, Vietnam</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -15917,39 +15917,39 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>155 applicants</t>
+          <t>124 applicants</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Esenyel&amp;Partners Lawyers/Consultants</t>
+          <t>Vitex Vietnam Software Joint Stock Company</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>1299853</t>
+          <t>1289380</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289380</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre]- Social Media</t>
+          <t>Medical Advisor Polish Speaker</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Bom Fim, Brazil</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -15959,39 +15959,39 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>139 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>ESCOLA GIORDANO BRUNO LTDA</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>1296294</t>
+          <t>1289379</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1296294</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>IT Sales</t>
+          <t>Medical Advisor Portuguese Speaker</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Đống Đa, Vietnam</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -16001,34 +16001,34 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>124 applicants</t>
+          <t>112 applicants</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Vitex Vietnam Software Joint Stock Company</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>1289380</t>
+          <t>1289378</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Medical Advisor Polish Speaker</t>
+          <t>Medical Advisor (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -16060,17 +16060,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>1289379</t>
+          <t>1289377</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Medical Advisor Portuguese Speaker</t>
+          <t>Medical Advisor (Italian Speaker)</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>112 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -16102,17 +16102,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>1289378</t>
+          <t>1289375</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
+          <t>Medical Advisor (German Speaker)</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>119 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -16144,22 +16144,22 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>1289377</t>
+          <t>1289255</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Medical Advisor (Italian Speaker)</t>
+          <t>Medical Advisor French Speaker</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Fatih, Türkiye</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>678 applicants</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -16186,22 +16186,22 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1289375</t>
+          <t>1288371</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Medical Advisor (German Speaker)</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -16211,7 +16211,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>151 applicants</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -16220,90 +16220,6 @@
         </is>
       </c>
       <c r="H376" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>1289255</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Medical Advisor French Speaker</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>Fatih, Türkiye</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>677 applicants</t>
-        </is>
-      </c>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>1288371</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>International Sales Manager</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>Delhi, India</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>151 applicants</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr">
         <is>
           <t>ARVICON INTERNATIONAL</t>
         </is>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1325966</t>
+          <t>1322238</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325966</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322238</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACE Program | French speaking Service Desk Analyst (Schengen Passport only)</t>
+          <t>OneERP Management Support</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Lund, Sweden</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>139 applicants</t>
+          <t>319 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ALFA LAVAL</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1325546</t>
+          <t>1327967</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325546</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taste Hungary | Jr. Commercial Analyst (Finance) - Schengen Passport only!</t>
+          <t>ACE Program | Russian Financial Analyst</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>93 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,29 +597,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1329031</t>
+          <t>1329083</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329031</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329083</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Market Research Experience with planning business strategy</t>
+          <t>Accounting Associate</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>日本、大分県別府市</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,39 +629,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>YUWAKIYA SOY SAUCE Co.,Ltd.</t>
+          <t>Arcadia Management Consulting</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1328980</t>
+          <t>1329078</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328980</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329078</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engineering Intern</t>
+          <t>Accelerate Romania | Business &amp; Digital Innovation Intern</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -681,29 +681,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tepma MEP Design</t>
+          <t>Gelco Prod</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1328974</t>
+          <t>1329031</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328974</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329031</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Youth Volleyball Assistant Coach</t>
+          <t>Market Research Experience with planning business strategy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>日本、大分県別府市</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>OK Roda</t>
+          <t>YUWAKIYA SOY SAUCE Co.,Ltd.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1328934</t>
+          <t>1328980</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328934</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328980</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[CC] Global Coordinator for Talent Acquisition and Project Management (Only AIESECers. Fully read before applying)</t>
+          <t>Engineering Intern</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Tepma MEP Design</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1328931</t>
+          <t>1328974</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328931</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328974</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Market Research of Wine and Spirits</t>
+          <t>Youth Volleyball Assistant Coach</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>日本、大分県別府市</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -807,71 +807,71 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LINES Co., Ltd.</t>
+          <t>OK Roda</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1328856</t>
+          <t>1328934</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328856</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328934</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Digital Marketing &amp; Community Manager</t>
+          <t>[CC] Global Coordinator for Talent Acquisition and Project Management (Only AIESECers. Fully read before applying)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nouveaux</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1328849</t>
+          <t>1328931</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328849</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328931</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Geospatial Data Processing Intern</t>
+          <t>Market Research of Wine and Spirits</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Novi Sad, Serbia</t>
+          <t>日本、大分県別府市</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,29 +891,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DataDEV</t>
+          <t>LINES Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1328848</t>
+          <t>1328856</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328848</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328856</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Software Developer, machine vision (EU ONLY)</t>
+          <t>Accelerate Romania | Digital Marketing &amp; Community Manager</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leuven, Belgium</t>
+          <t>Iași, Romania</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,39 +923,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Heliovision</t>
+          <t>Nouveaux</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1328831</t>
+          <t>1328849</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328831</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328849</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Materials Researcher</t>
+          <t>Geospatial Data Processing Intern</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wageningen, Nederland</t>
+          <t>Novi Sad, Serbia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,39 +965,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SHR Timber research</t>
+          <t>DataDEV</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1328828</t>
+          <t>1328848</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328828</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328848</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Laboratory Researcher</t>
+          <t>Software Developer, machine vision (EU ONLY)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wageningen, Nederland</t>
+          <t>Leuven, Belgium</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1017,29 +1017,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SHR Timber research</t>
+          <t>Heliovision</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1328826</t>
+          <t>1328845</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328826</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328845</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sales Lead</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nairobi, Kenya</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1059,29 +1059,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YOUR APPS LIMITED</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1328792</t>
+          <t>1328831</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328792</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328831</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Marketing Specialist</t>
+          <t>Materials Researcher</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Wageningen, Nederland</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,39 +1091,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GIS Solutions</t>
+          <t>SHR Timber research</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1328787</t>
+          <t>1328828</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328787</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328828</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Finance intern</t>
+          <t>Laboratory Researcher</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Wageningen, Nederland</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,39 +1133,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Daidalus UG</t>
+          <t>SHR Timber research</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1328782</t>
+          <t>1328826</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328782</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328826</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Risk Intern</t>
+          <t>Sales Lead</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Nairobi, Kenya</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,39 +1175,39 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banesco Panamá</t>
+          <t>YOUR APPS LIMITED</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1328781</t>
+          <t>1328792</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328781</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328792</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Risk Trainee</t>
+          <t>Accelerate Romania - Marketing Specialist</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,39 +1217,39 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banesco Panamá</t>
+          <t>GIS Solutions</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1328780</t>
+          <t>1328787</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328780</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328787</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HR Transformation Intern</t>
+          <t>Finance intern</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,34 +1259,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>HILTI Panama</t>
+          <t>Daidalus UG</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1328779</t>
+          <t>1328782</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328779</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328782</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AMS Regional Support Intern</t>
+          <t>Risk Intern</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1311,29 +1311,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>HILTI Panama</t>
+          <t>Banesco Panamá</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1328774</t>
+          <t>1328781</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328781</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Risk Trainee</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Leiria, Portugal</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,39 +1343,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Multidrive</t>
+          <t>Banesco Panamá</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1328768</t>
+          <t>1328780</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328780</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
+          <t>HR Transformation Intern</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dog Assist</t>
+          <t>HILTI Panama</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1328767</t>
+          <t>1328779</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328779</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
+          <t>AMS Regional Support Intern</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ave Visto</t>
+          <t>HILTI Panama</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1328766</t>
+          <t>1328774</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328766</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328774</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Community Manager</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Leiria, Portugal</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1479,24 +1479,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ClujStartups</t>
+          <t>Multidrive</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1328765</t>
+          <t>1328768</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328768</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accelerate Romania -Business Development Specialist</t>
+          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1521,29 +1521,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MTD Technology</t>
+          <t>Dog Assist</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1328764</t>
+          <t>1328767</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328764</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328767</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Market Development Intern</t>
+          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Brașov, Romania</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1563,24 +1563,24 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Biklo</t>
+          <t>Ave Visto</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1328763</t>
+          <t>1328766</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328763</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328766</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Social Media Manager</t>
+          <t>Accelerate Romania - Community Manager</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1605,24 +1605,24 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>nclav</t>
+          <t>ClujStartups</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1328762</t>
+          <t>1328765</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328762</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328765</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Accelerate - Marketing Specialist</t>
+          <t>Accelerate Romania -Business Development Specialist</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1647,29 +1647,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Emotionstudios</t>
+          <t>MTD Technology</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1328761</t>
+          <t>1328764</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328764</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Online Marketing Intern</t>
+          <t>Accelerate Romania - Market Development Intern</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Brașov, Romania</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1689,29 +1689,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Gads Online Marketing</t>
+          <t>Biklo</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1328760</t>
+          <t>1328763</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328763</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Sales Business Manager</t>
+          <t>Accelerate Romania - Social Media Manager</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1731,24 +1731,24 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Gads Online Marketing</t>
+          <t>nclav</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1328759</t>
+          <t>1328762</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328759</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328762</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Graphic Design</t>
+          <t>Accelerate - Marketing Specialist</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1773,29 +1773,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ROTSA</t>
+          <t>Emotionstudios</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1328758</t>
+          <t>1328761</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328758</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328761</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Business Development Associate</t>
+          <t>Accelerate Romania - Online Marketing Intern</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1815,29 +1815,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mejix</t>
+          <t>Gads Online Marketing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1328750</t>
+          <t>1328760</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328750</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328760</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Accelerate Serbia | Digital Marketing &amp; Business Trainee</t>
+          <t>Accelerate Romania - Sales Business Manager</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Београд, Србија</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1857,29 +1857,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TERMOPLUS d.o.o.</t>
+          <t>Gads Online Marketing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1328749</t>
+          <t>1328759</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328749</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328759</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Samples Analyst</t>
+          <t>Accelerate Romania - Graphic Design</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1889,39 +1889,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>ROTSA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1328741</t>
+          <t>1328758</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328758</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BI Analyst - CRM Specialist</t>
+          <t>Accelerate Romania - Business Development Associate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>Mejix</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1328731</t>
+          <t>1328750</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328731</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328750</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Power Electronics Internship involving Inverter Experimentation and PSIM Simulation</t>
+          <t>Accelerate Serbia | Digital Marketing &amp; Business Trainee</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>日本、兵庫県神戸市</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1983,29 +1983,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sohatsu Systems Laboratory Inc.</t>
+          <t>TERMOPLUS d.o.o.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1328730</t>
+          <t>1328749</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328730</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328749</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Samples Analyst</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bursa, Türkiye</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2025,71 +2025,71 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Orhan Holding Au</t>
+          <t>Merck</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1328724</t>
+          <t>1328741</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328724</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328741</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Infosys InStep Tech Internship</t>
+          <t>BI Analyst - CRM Specialist</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Merck</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1328717</t>
+          <t>1328731</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328717</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328731</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Web developer</t>
+          <t>Power Electronics Internship involving Inverter Experimentation and PSIM Simulation</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
+          <t>日本、兵庫県神戸市</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2109,39 +2109,39 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Otantik kumpir</t>
+          <t>Sohatsu Systems Laboratory Inc.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1328715</t>
+          <t>1328730</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328715</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328730</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[EXP] Routing &amp; Capacity Analyst (EU Only)</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgium</t>
+          <t>Bursa, Türkiye</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2151,71 +2151,71 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Orhan Holding Au</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1328691</t>
+          <t>1328724</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328691</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328724</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Site Engineer</t>
+          <t>Infosys InStep Tech Internship</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Novi Sad, Serbia</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Orbis Company</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1328686</t>
+          <t>1328717</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328686</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328717</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Business Process Intern</t>
+          <t>Web developer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Coímbra, Portugal</t>
+          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,39 +2235,39 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Assis Business Partners</t>
+          <t>Otantik kumpir</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1328685</t>
+          <t>1328715</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328685</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328715</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Medical Advisor (Russian Speaker)</t>
+          <t>[EXP] Routing &amp; Capacity Analyst (EU Only)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Bruxelles, Belgium</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2277,24 +2277,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1328652</t>
+          <t>1328691</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328652</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328691</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Site Engineer</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2319,29 +2319,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>DataDrill</t>
+          <t>Orbis Company</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1328650</t>
+          <t>1328686</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328650</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328686</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Business Process Intern</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novi Sad, Serbia</t>
+          <t>Coímbra, Portugal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2361,29 +2361,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>DataDrill</t>
+          <t>Assis Business Partners</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1328649</t>
+          <t>1328685</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328649</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328685</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sales Development Representative</t>
+          <t>Medical Advisor (Russian Speaker)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novi Sad, Serbia</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,39 +2393,39 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DataDrill</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1328630</t>
+          <t>1328652</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328630</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328652</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Novi Sad, Serbia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2435,39 +2435,39 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Amaavi Luxe Travels</t>
+          <t>DataDrill</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1328624</t>
+          <t>1328650</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328624</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328650</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Novi Sad, Serbia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,39 +2477,39 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Saphiredent</t>
+          <t>DataDrill</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1328615</t>
+          <t>1328649</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328615</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328649</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Back Office Planner</t>
+          <t>Sales Development Representative</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Novi Sad, Serbia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2519,39 +2519,39 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Mitsubishi Power Europe Sucursal en España</t>
+          <t>DataDrill</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1328614</t>
+          <t>1328630</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328614</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328630</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Field Service Engineer</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,39 +2561,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Mitsubishi Power Europe Sucursal en España</t>
+          <t>Amaavi Luxe Travels</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1328613</t>
+          <t>1328624</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328613</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328624</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sales Manager Intern</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Adana, Reşatbey, Seyhan/Adana, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2603,49 +2603,49 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>HYFROST</t>
+          <t>Saphiredent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1328612</t>
+          <t>1328615</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328612</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328615</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[DSC] Finance Data Analyst</t>
+          <t>Back Office Planner</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fritz-Erler-Straße 5, 53113 Bonn, Germany</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>163 applicants</t>
+          <t>135 applicants</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2655,39 +2655,39 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Mitsubishi Power Europe Sucursal en España</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1328610</t>
+          <t>1328614</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328610</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328614</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[CC] Employee Share Plan Support (German speaker preferred)</t>
+          <t>Field Service Engineer</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>75 applicants</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2697,81 +2697,81 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Mitsubishi Power Europe Sucursal en España</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1328588</t>
+          <t>1328613</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328588</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328613</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>My Way​ Operations &amp; Innovation Coordinator​ 2026-2027</t>
+          <t>Sales Manager Intern</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>40 Düsseldorf, Germany</t>
+          <t>Adana, Reşatbey, Seyhan/Adana, Türkiye</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>PwC Global Partnership</t>
+          <t>HYFROST</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1328566</t>
+          <t>1328588</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328566</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328588</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HR Intern</t>
+          <t>My Way​ Operations &amp; Innovation Coordinator​ 2026-2027</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Santiago, Región Metropolitana, Chile</t>
+          <t>40 Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>76 applicants</t>
+          <t>106 applicants</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim in Chile</t>
+          <t>PwC Global Partnership</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>177 applicants</t>
+          <t>186 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>75 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>56 applicants</t>
+          <t>60 applicants</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>85 applicants</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>54 applicants</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>85 applicants</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>137 applicants</t>
+          <t>139 applicants</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>55 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5728,32 +5728,32 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1327967</t>
+          <t>1327959</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327959</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ACE Program | Russian Financial Analyst</t>
+          <t>Accounting Management Trainee</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5763,29 +5763,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ATHENASIA Consulting Limited</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1327959</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327959</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Accounting Management Trainee</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5795,34 +5795,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ATHENASIA Consulting Limited</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327951</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5837,39 +5837,39 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>Gipfel</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1327951</t>
+          <t>1327919</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Customer Representative- Intern</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5879,39 +5879,39 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Gipfel</t>
+          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1327919</t>
+          <t>1327909</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Customer Representative- Intern</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5931,29 +5931,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1327909</t>
+          <t>1327904</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>UX Research Trainee</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5963,39 +5963,39 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>93 applicants</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1327904</t>
+          <t>1327871</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327871</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>UX Research Trainee</t>
+          <t>International Relations Development Intern</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Jalandhar, Punjab, India</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6005,39 +6005,39 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1327871</t>
+          <t>1327863</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327871</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327863</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>International Relations Development Intern</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jalandhar, Punjab, India</t>
+          <t>8200 Albufeira, Portugal</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6047,39 +6047,39 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>BERNARDINO GOMES - GESTÃO HOTELEIRA, S.A.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1327863</t>
+          <t>1327813</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327863</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Nursery Spanish Practitioner</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8200 Albufeira, Portugal</t>
+          <t>Ashby-de-la-Zouch LE65, UK</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6089,39 +6089,39 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>BERNARDINO GOMES - GESTÃO HOTELEIRA, S.A.</t>
+          <t>Bilingual Day Nursery and Preschool Ltd</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1327813</t>
+          <t>1327811</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nursery Spanish Practitioner</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ashby-de-la-Zouch LE65, UK</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6131,39 +6131,39 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Bilingual Day Nursery and Preschool Ltd</t>
+          <t>Envision Circle (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1327811</t>
+          <t>1327810</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327810</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Photographer</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6173,39 +6173,39 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Envision Circle (Pvt) Ltd</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1327810</t>
+          <t>1327779</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327810</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Photographer</t>
+          <t>Business Development &amp; Foreign Trade Assistant</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>El Sadat City, Menofia Governorate, Egypt</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6225,29 +6225,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Habib Agency</t>
+          <t>ATM Atılım Teknik Makine</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1327779</t>
+          <t>1327778</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Business Development &amp; Foreign Trade Assistant</t>
+          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6257,39 +6257,39 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ATM Atılım Teknik Makine</t>
+          <t>Solutions Ground (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1327778</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6299,34 +6299,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Solutions Ground (Pvt) Ltd</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6358,22 +6358,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327757</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327757</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>graphic designer</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6393,29 +6393,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>Monkey Brew</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1327757</t>
+          <t>1327712</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327712</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>graphic designer</t>
+          <t>Business Process Management Intern</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6425,39 +6425,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Monkey Brew</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1327712</t>
+          <t>1327673</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327712</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327673</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Business Process Management Intern</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Jalandhar, Punjab, India</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6467,34 +6467,34 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1327673</t>
+          <t>1327671</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327673</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327671</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6526,17 +6526,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1327671</t>
+          <t>1327669</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327671</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327669</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Civil Engineering Intern</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6568,17 +6568,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1327669</t>
+          <t>1327667</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327669</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327667</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Civil Engineering Intern</t>
+          <t>Web Developer Intern</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6610,17 +6610,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1327667</t>
+          <t>1327661</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327667</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327661</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Web Developer Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6652,17 +6652,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1327661</t>
+          <t>1327660</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327661</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327660</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Chemical Engineering Intern</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6694,17 +6694,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1327660</t>
+          <t>1327659</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327660</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327659</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Chemical Engineering Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6736,17 +6736,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1327659</t>
+          <t>1327655</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327659</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327655</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>Mechatronics Engineering Intern</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6778,17 +6778,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1327655</t>
+          <t>1327652</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327655</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327652</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mechatronics Engineering Intern</t>
+          <t>Biomedical Engineering Intern</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6820,17 +6820,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1327652</t>
+          <t>1327651</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327652</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327651</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Biomedical Engineering Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6862,22 +6862,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1327651</t>
+          <t>1327544</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327651</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327544</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jalandhar, Punjab, India</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6887,39 +6887,39 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1327544</t>
+          <t>1327518</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327544</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327518</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Malabe, Sri Lanka</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6939,29 +6939,29 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>ZILLIONe Technologies Private Limited</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1327518</t>
+          <t>1327512</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Research Intern | Biotech (Duplicated)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Malabe, Sri Lanka</t>
+          <t>Aronj, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>ZILLIONe Technologies Private Limited</t>
+          <t>FS University</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>140 applicants</t>
+          <t>145 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>55 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>144 applicants</t>
+          <t>145 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>110 applicants</t>
+          <t>111 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9550,22 +9550,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1326310</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Back - End Developer</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Glyfada, Greece</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9575,39 +9575,39 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>280 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Validata Software</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9617,34 +9617,34 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326219</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326219</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1326219</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326219</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9701,12 +9701,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9718,17 +9718,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9760,17 +9760,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9802,17 +9802,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9844,17 +9844,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9911,12 +9911,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9928,17 +9928,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9953,12 +9953,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9970,17 +9970,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9995,12 +9995,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -10012,17 +10012,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10037,12 +10037,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10054,17 +10054,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326198</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>AI and ML Intern</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10096,17 +10096,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1326198</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>AI and ML Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -10138,17 +10138,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -10180,22 +10180,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10205,39 +10205,39 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>118 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1326081</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>Sales &amp; Marketing</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10257,39 +10257,39 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>ASM Crane</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1326081</t>
+          <t>1326042</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing</t>
+          <t>ACE Program | Portuguese Financial Analyst</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10299,24 +10299,24 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>ASM Crane</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1326042</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Financial Analyst</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10348,22 +10348,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1325966</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325966</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>ACE Program | French speaking Service Desk Analyst (Schengen Passport only)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>140 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10432,22 +10432,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1325856</t>
+          <t>1325859</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325856</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325859</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SALES ASSISTANT</t>
+          <t>Accelerate Romania | Front-end Developer</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10457,39 +10457,39 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>117 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>MULBERRY HOME</t>
+          <t>Webchain</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1325846</t>
+          <t>1325856</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325856</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Digital Media Strategist - Long Term</t>
+          <t>SALES ASSISTANT</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10509,29 +10509,29 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>MULBERRY HOME</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1325700</t>
+          <t>1325846</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325700</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Business Analyst and Executive Secretary</t>
+          <t>Digital Media Strategist - Long Term</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10541,39 +10541,39 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Indian Kitchen PVT LTD</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1325656</t>
+          <t>1325700</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325700</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Design Intern</t>
+          <t>Business Analyst and Executive Secretary</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10583,39 +10583,39 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rediffusion Brand Solutions Pvt Ltd</t>
+          <t>Indian Kitchen PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1325604</t>
+          <t>1325656</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325604</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>International Business &amp; Innovation Analyst</t>
+          <t>Design Intern</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>4520 Santa Maria da Feira, Portugal</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10625,39 +10625,39 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>158 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>M2K Consultoria</t>
+          <t>Rediffusion Brand Solutions Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1325594</t>
+          <t>1325604</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325594</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325604</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Brand Partner</t>
+          <t>International Business &amp; Innovation Analyst</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>4520 Santa Maria da Feira, Portugal</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10667,39 +10667,39 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>159 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rediffusion Brand Solutions Pvt Ltd</t>
+          <t>M2K Consultoria</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1325528</t>
+          <t>1325594</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325528</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325594</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Spanish-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Brand Partner</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10719,71 +10719,71 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Veo Wordwide Services - Iași</t>
+          <t>Rediffusion Brand Solutions Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1325464</t>
+          <t>1325546</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325546</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
+          <t>Taste Hungary | Jr. Commercial Analyst (Finance) - Schengen Passport only!</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Azuvioo</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1325405</t>
+          <t>1325464</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10803,24 +10803,24 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Azuvioo</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1325404</t>
+          <t>1325405</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10852,17 +10852,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1325403</t>
+          <t>1325404</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10894,22 +10894,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1325379</t>
+          <t>1325403</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Software Development Intern</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>123 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10929,24 +10929,24 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Eutopians</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1325378</t>
+          <t>1325379</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325379</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Content Creation and Social Media Marketing Intern</t>
+          <t>Software Development Intern</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>51 applicants</t>
+          <t>124 applicants</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10978,17 +10978,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1325377</t>
+          <t>1325378</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325378</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Content Creation and Social Media Marketing Intern</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>94 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -11020,22 +11020,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1325349</t>
+          <t>1325377</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325349</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325377</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>95 applicants</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -11055,29 +11055,29 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
+          <t>Eutopians</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1325349</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325349</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11087,39 +11087,39 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>Swami Vivekanand Institute of Engineering &amp; Technology</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1325318</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325318</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Social Media Planner &amp; Content Creator</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>القاهرة، محافظة القاهرة‬، مصر</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11129,39 +11129,39 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>The Circle Care</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1325297</t>
+          <t>1325318</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325318</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>International Sales Representetive Spanish Speaker</t>
+          <t>Social Media Planner &amp; Content Creator</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>القاهرة، محافظة القاهرة‬، مصر</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11171,39 +11171,39 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>The Circle Care</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1325200</t>
+          <t>1325297</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325200</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>International Sales Representetive Spanish Speaker</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11213,91 +11213,91 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1325153</t>
+          <t>1325200</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325200</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ACE Program | Danish Language Coach</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1325153</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325153</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>ACE Program | Danish Language Coach</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11307,29 +11307,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11339,39 +11339,39 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>137 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1324772</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324772</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Media Buyer</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11381,34 +11381,34 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Defactory</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1324771</t>
+          <t>1324772</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324771</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324772</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Media Buyer</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11440,22 +11440,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1324728</t>
+          <t>1324771</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324728</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324771</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Kemalpaşa, İzmir, Türkiye</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11465,39 +11465,39 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>KEBA OTOMOTİV YEDEKPARÇA SANAYİ VE TİCARİ LİMİTED ŞİRKETİ</t>
+          <t>Defactory</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1324676</t>
+          <t>1324728</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324676</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324728</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Motivational Speaker</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Nittambuwa, Sri Lanka</t>
+          <t>Kemalpaşa, İzmir, Türkiye</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11507,39 +11507,39 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Negombo South International School network</t>
+          <t>KEBA OTOMOTİV YEDEKPARÇA SANAYİ VE TİCARİ LİMİTED ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1324592</t>
+          <t>1324676</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324676</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Digital marketing</t>
+          <t>Motivational Speaker</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Nittambuwa, Sri Lanka</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11549,39 +11549,39 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>Negombo South International School network</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1324572</t>
+          <t>1324592</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324572</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Cyber Security Intern</t>
+          <t>Digital marketing</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11601,29 +11601,29 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Business Haven Consultancy</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1324438</t>
+          <t>1324572</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324572</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11643,29 +11643,29 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Brainbucks</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1324164</t>
+          <t>1324438</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324164</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Receptionist/ Hostess</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Nuwara Eliya, Sri Lanka</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>60 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11685,29 +11685,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Pedro Barn pvt ltd</t>
+          <t>Brainbucks</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1323761</t>
+          <t>1324164</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324164</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Sales representative</t>
+          <t>Receptionist/ Hostess</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Nuwara Eliya, Sri Lanka</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11717,39 +11717,39 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Fekretk</t>
+          <t>Pedro Barn pvt ltd</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1323735</t>
+          <t>1323761</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323735</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Export &amp; Sales Support Assistant</t>
+          <t>Sales representative</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11769,29 +11769,29 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Anıl Lingerie &amp; Homewear</t>
+          <t>Fekretk</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1323669</t>
+          <t>1323735</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323669</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323735</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>interior designer</t>
+          <t>Export &amp; Sales Support Assistant</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Sousse, Tunisie</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>137 applicants</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11811,29 +11811,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Zitouni Interior</t>
+          <t>Anıl Lingerie &amp; Homewear</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1323474</t>
+          <t>1323669</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323669</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Computer Engineer Intern</t>
+          <t>interior designer</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Sousse, Tunisie</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>348 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11853,29 +11853,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Zitouni Interior</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1323373</t>
+          <t>1323474</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Computer Engineer Intern</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>349 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11895,29 +11895,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1323077</t>
+          <t>1323373</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Pharmacy Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11937,29 +11937,29 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1323019</t>
+          <t>1323077</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323019</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Project Specialist</t>
+          <t>Pharmacy Intern</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11969,39 +11969,39 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>174 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Nabulu</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1323006</t>
+          <t>1323019</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323006</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323019</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>OPERATIONS MANAGER</t>
+          <t>Project Specialist</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Kaklık, 20240 Honaz/Denizli, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>175 applicants</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -12021,29 +12021,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>HEMMER MERMER MADENCİLİK İNŞAAT NAKLİYAT TURİZM İTHALAT İHRACAT SAN. VE TİC.LTD.ŞTİ.</t>
+          <t>Nabulu</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1322914</t>
+          <t>1323006</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323006</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>AI Agent Experience Specialist</t>
+          <t>OPERATIONS MANAGER</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Kaklık, 20240 Honaz/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12053,39 +12053,39 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>HEMMER MERMER MADENCİLİK İNŞAAT NAKLİYAT TURİZM İTHALAT İHRACAT SAN. VE TİC.LTD.ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1322886</t>
+          <t>1322916</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Customer Representative</t>
+          <t>Film Making / Video Editing Intern</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12095,39 +12095,39 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1322690</t>
+          <t>1322914</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Business Development Representative</t>
+          <t>AI Agent Experience Specialist</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12147,29 +12147,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Travelr</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1322596</t>
+          <t>1322886</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322596</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>HR Intern</t>
+          <t>Customer Representative</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12179,39 +12179,39 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>117 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1322514</t>
+          <t>1322690</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322514</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Electronics and Communication Engineering Intern</t>
+          <t>Business Development Representative</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -12221,39 +12221,39 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Travelr</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1322494</t>
+          <t>1322596</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322596</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>HR Intern</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12263,39 +12263,39 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1322448</t>
+          <t>1322514</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322448</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322514</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Web developer</t>
+          <t>Electronics and Communication Engineering Intern</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12305,39 +12305,39 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>EG scout shop</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1322447</t>
+          <t>1322494</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322447</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Social Media&amp;Content Creator</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12347,39 +12347,39 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>EG scout shop</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1322391</t>
+          <t>1322448</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322391</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322448</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Web developer</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12389,39 +12389,39 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>EG scout shop</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1322346</t>
+          <t>1322447</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322346</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322447</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Cyber Security and AI Intern</t>
+          <t>Social Media&amp;Content Creator</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Giza, El Omraniya, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12441,29 +12441,29 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>EG scout shop</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1322239</t>
+          <t>1322391</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322391</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Marketing and Customer Support</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Ηράκλειο, Ελλάδα</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12473,81 +12473,81 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>92 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>upsell</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1322238</t>
+          <t>1322346</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322238</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322346</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>OneERP Management Support</t>
+          <t>Cyber Security and AI Intern</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Lund, Sweden</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>313 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>ALFA LAVAL</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1322154</t>
+          <t>1322239</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist  German Speaker</t>
+          <t>Marketing and Customer Support</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Ηράκλειο, Ελλάδα</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12557,39 +12557,39 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>93 applicants</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>TELUS DIGITAL DANIŞMANLIK VE MÜŞTERİ HİZMETLERİ AŞ</t>
+          <t>upsell</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1321872</t>
+          <t>1322154</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322154</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mechanical Computer Science and Electronics Engineering</t>
+          <t>Talent Acquisition Specialist  German Speaker</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12599,39 +12599,39 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>TELUS DIGITAL DANIŞMANLIK VE MÜŞTERİ HİZMETLERİ AŞ</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1321823</t>
+          <t>1321872</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321823</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Sales Responsible at OnurPlas</t>
+          <t>Mechanical Computer Science and Electronics Engineering</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12641,39 +12641,39 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Onur Plastic</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1321796</t>
+          <t>1321823</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321796</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321823</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>MARKET RESARCH &amp; MARKETİNG | ŞAHİNLER MARBLE</t>
+          <t>Sales Responsible at OnurPlas</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12693,29 +12693,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>ŞAHİNLER MARBLE</t>
+          <t>Onur Plastic</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1321450</t>
+          <t>1321796</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321450</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321796</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Sales and Business Development Intern</t>
+          <t>MARKET RESARCH &amp; MARKETİNG | ŞAHİNLER MARBLE</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Jaipur, Rajasthan, India</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -12725,39 +12725,39 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>www.Besteduonline.in (IPS Education &amp; Learning)</t>
+          <t>ŞAHİNLER MARBLE</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1321215</t>
+          <t>1321450</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321450</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Business Management and Analytics Intern</t>
+          <t>Sales and Business Development Intern</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Jaipur, Rajasthan, India</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12777,49 +12777,49 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>www.Besteduonline.in (IPS Education &amp; Learning)</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1321193</t>
+          <t>1321215</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321193</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Taste Hungary- Technical Support Engineer (Schengen passport only)</t>
+          <t>Business Management and Analytics Intern</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>112 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>141 applicants</t>
+          <t>143 applicants</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>77 applicants</t>
+          <t>78 applicants</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -13288,22 +13288,22 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1317005</t>
+          <t>1316860</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317005</t>
+          <t>https://aiesec.org/opportunity/global-talent/1316860</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>MARKET RESARCH &amp; MARKETİNG</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Manisa, Yunusemre/Manisa, Türkiye</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -13313,34 +13313,34 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>104 applicants</t>
+          <t>118 applicants</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>TOYO MATBAA MÜREKKEPLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>NR MARBLE DOĞALTAŞ PETROL İTH. İHR. SANAYİ VE TİC. LTD. ŞTİ</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1316860</t>
+          <t>1315265</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1316860</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315265</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>MARKET RESARCH &amp; MARKETİNG</t>
+          <t>Sales Attendant</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -13365,29 +13365,29 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>NR MARBLE DOĞALTAŞ PETROL İTH. İHR. SANAYİ VE TİC. LTD. ŞTİ</t>
+          <t>COTTON CASTLE TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1315265</t>
+          <t>1315190</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315265</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Sales Attendant</t>
+          <t>Front Office Trainee</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -13407,24 +13407,24 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>COTTON CASTLE TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Park Hotel International Limited</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1315190</t>
+          <t>1315102</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315102</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Front Office Trainee</t>
+          <t>Food and Beverage Trainee</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -13456,22 +13456,22 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1315102</t>
+          <t>1313882</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315102</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Food and Beverage Trainee</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13481,39 +13481,39 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>138 applicants</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Park Hotel International Limited</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1313548</t>
+          <t>1313813</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>108 applicants</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -13533,29 +13533,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>CGC technical Campus Jhanjeri</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1313381</t>
+          <t>1313793</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Sales Attendant</t>
+          <t>IT Sales Executive</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13565,39 +13565,39 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>VAROL TEKSTİL</t>
+          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1313206</t>
+          <t>1313548</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313548</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Digital Media Strategist</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13617,29 +13617,29 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>CGC technical Campus Jhanjeri</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1311536</t>
+          <t>1313381</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313381</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Managing Co-founder</t>
+          <t>Sales Attendant</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13649,39 +13649,39 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>148 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Skulptor</t>
+          <t>VAROL TEKSTİL</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1310229</t>
+          <t>1313206</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313206</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Guest Relations Officer</t>
+          <t>Digital Media Strategist</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Weligama, Sri Lanka</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13691,39 +13691,39 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Weligama Cliff</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1308576</t>
+          <t>1312732</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Chinese Language Specialist</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -13733,39 +13733,39 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels (Pvt) Ltd</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1307935</t>
+          <t>1311536</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Business Analyst - Implementation Specialist</t>
+          <t>Accelerate Romania | Managing Co-founder</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13775,39 +13775,39 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>149 applicants</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Haulmatic Technologies</t>
+          <t>Skulptor</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1307772</t>
+          <t>1310229</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307772</t>
+          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>SALES and MARKETING - ZİMEK MAKİNE</t>
+          <t>Guest Relations Officer</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Kocabaş, 20330 Honaz/Denizli, Türkiye</t>
+          <t>Weligama, Sri Lanka</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -13817,39 +13817,39 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>130 applicants</t>
+          <t>83 applicants</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>ZİMEK MAKİNA MERMER SAN. ve TİC. LTD ŞTİ.</t>
+          <t>Weligama Cliff</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1307425</t>
+          <t>1308576</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307425</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Service executive II</t>
+          <t>Chinese Language Specialist</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez, Mexico</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -13869,29 +13869,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Segmenta S.C.</t>
+          <t>Aitken Spence Travels (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1306542</t>
+          <t>1307935</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306542</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Sales Responsible</t>
+          <t>Business Analyst - Implementation Specialist</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Ürgüp, Nevşehir, Türkiye</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -13901,39 +13901,39 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>150 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Pink Lotus Jewellery</t>
+          <t>Haulmatic Technologies</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1306470</t>
+          <t>1307772</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306470</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307772</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>MARKETING AND SALES - BİRİZ NUTS</t>
+          <t>SALES and MARKETING - ZİMEK MAKİNE</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Çal, Denizli, Türkiye</t>
+          <t>Kocabaş, 20330 Honaz/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>130 applicants</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -13953,39 +13953,39 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>BİRİZ KURUYEMİŞ</t>
+          <t>ZİMEK MAKİNA MERMER SAN. ve TİC. LTD ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1307425</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307425</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Service executive II</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Naucalpan de Juárez, Mexico</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -13995,29 +13995,29 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Segmenta S.C.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1304736</t>
+          <t>1307292</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304736</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307292</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Guest Relations Manager</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Heraklion, Greece</t>
+          <t>Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>205 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -14037,29 +14037,29 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Remarc Internation</t>
+          <t>FPT Software</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1306542</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306542</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>Sales Responsible</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Ürgüp, Nevşehir, Türkiye</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -14069,39 +14069,39 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>74 applicants</t>
+          <t>151 applicants</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Pink Lotus Jewellery</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1303857</t>
+          <t>1306470</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306470</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
+          <t>MARKETING AND SALES - BİRİZ NUTS</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
+          <t>Çal, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>151 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -14121,39 +14121,39 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>BİRİZ KURUYEMİŞ</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1303853</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>135 applicants</t>
+          <t>54 applicants</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -14163,29 +14163,29 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1303327</t>
+          <t>1304736</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304736</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Guest Relations Manager</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Konak, Türkiye</t>
+          <t>Heraklion, Greece</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>603 applicants</t>
+          <t>206 applicants</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -14205,29 +14205,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Tekinalp Holding</t>
+          <t>Remarc Internation</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -14237,39 +14237,39 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>72 applicants</t>
+          <t>74 applicants</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1301470</t>
+          <t>1303857</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301470</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Operation Specialist in İstanbul</t>
+          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Fatih, Türkiye</t>
+          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>164 applicants</t>
+          <t>151 applicants</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -14289,29 +14289,29 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Esenyel&amp;Partners Lawyers/Consultants</t>
+          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1299853</t>
+          <t>1303853</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre]- Social Media</t>
+          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Bom Fim, Brazil</t>
+          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -14321,39 +14321,39 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>145 applicants</t>
+          <t>135 applicants</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>ESCOLA GIORDANO BRUNO LTDA</t>
+          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1295935</t>
+          <t>1303327</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303327</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Business Development/HD</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Pamukkale, Türkiye</t>
+          <t>Konak, Türkiye</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14363,39 +14363,39 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>201 applicants</t>
+          <t>603 applicants</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
+          <t>Tekinalp Holding</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1289380</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Medical Advisor Polish Speaker</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -14415,29 +14415,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1289379</t>
+          <t>1301470</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301470</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Medical Advisor Portuguese Speaker</t>
+          <t>Operation Specialist in İstanbul</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Fatih, Türkiye</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>164 applicants</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -14457,29 +14457,29 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Esenyel&amp;Partners Lawyers/Consultants</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1289378</t>
+          <t>1299853</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1299853</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
+          <t>[Impact Porto Alegre]- Social Media</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Bom Fim, Brazil</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -14489,39 +14489,39 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>120 applicants</t>
+          <t>145 applicants</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>ESCOLA GIORDANO BRUNO LTDA</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1289377</t>
+          <t>1296685</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296685</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Medical Advisor (Italian Speaker)</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Đống Đa, Vietnam</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14531,39 +14531,39 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>382 applicants</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Vitex Vietnam Software Joint Stock Company</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1289375</t>
+          <t>1296294</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296294</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Medical Advisor (German Speaker)</t>
+          <t>IT Sales</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Đống Đa, Vietnam</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -14573,39 +14573,39 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Vitex Vietnam Software Joint Stock Company</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1289255</t>
+          <t>1295935</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
+          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Medical Advisor French Speaker</t>
+          <t>Business Development/HD</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Fatih, Türkiye</t>
+          <t>Pamukkale, Türkiye</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>689 applicants</t>
+          <t>201 applicants</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14625,29 +14625,29 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1288548</t>
+          <t>1289380</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289380</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
+          <t>Medical Advisor Polish Speaker</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Honaz, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>162 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -14667,29 +14667,29 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>ERGÜN ÖZEN MACHINA</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1288371</t>
+          <t>1289379</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>Medical Advisor Portuguese Speaker</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>154 applicants</t>
+          <t>115 applicants</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -14709,47 +14709,299 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
+          <t>1289378</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Medical Advisor (Spanish Speaker)</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>120 applicants</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1289377</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Medical Advisor (Italian Speaker)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>40 applicants</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1289375</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Medical Advisor (German Speaker)</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>33 applicants</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1289255</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Medical Advisor French Speaker</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Fatih, Türkiye</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>689 applicants</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1288548</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Honaz, Türkiye</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>162 applicants</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>ERGÜN ÖZEN MACHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1288371</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>International Sales Manager</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>154 applicants</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>ARVICON INTERNATIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
           <t>1280027</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B347" t="inlineStr">
         <is>
           <t>https://aiesec.org/opportunity/global-talent/1280027</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>Web Developer and Software in Drupart Company</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
+      <c r="D347" t="inlineStr">
         <is>
           <t>Gebze, Türkiye</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>683 applicants</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>685 applicants</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
         <is>
           <t>6 - 18 Months</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>Drupart Dijital Çözümler ve Tic.Ltd.Şti.</t>
         </is>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H338"/>
+  <dimension ref="A1:H346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1308370</t>
+          <t>1326491</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308370</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326491</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACE Program | Talent Acquisition Specialist (Portuguese Speaker)</t>
+          <t>ACE Program | Global Program Coordinator (AIESECers Only)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>75 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -520,17 +520,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1327967</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Russian Financial Analyst</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1330269</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>EMEA Partner Development Coordinator 2026</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>40 Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,29 +597,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>PwC Global Partnership</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1330202</t>
+          <t>1330203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Multimedia Ai Designer</t>
+          <t>Saf Teknik</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Bursa, Türkiye</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,39 +629,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Beyond Creative</t>
+          <t>Saf Teknik</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1330158</t>
+          <t>1330202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330158</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Partnership &amp; Capacity Building Analyst Development Specialist</t>
+          <t>Multimedia Ai Designer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -681,24 +681,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Krishna Sadan</t>
+          <t>Beyond Creative</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1330157</t>
+          <t>1330158</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330158</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sustainability Outreach &amp; Community Development Specialist</t>
+          <t>Partnership &amp; Capacity Building Analyst Development Specialist</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -730,22 +730,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1330155</t>
+          <t>1330157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Content Creation and Cultural Ambassador Intern</t>
+          <t>Sustainability Outreach &amp; Community Development Specialist</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
+          <t>Krishna Sadan</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1330154</t>
+          <t>1330155</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,22 +814,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1330126</t>
+          <t>1330154</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Social Media Marketing</t>
+          <t>Content Creation and Cultural Ambassador Intern</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -849,29 +849,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>StayWell</t>
+          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1330113</t>
+          <t>1330126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330113</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Interior Designer Intern</t>
+          <t>Social Media Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Subotica, Serbia</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,29 +891,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Studio White</t>
+          <t>StayWell</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1330102</t>
+          <t>1330113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
+          <t>[Accelerate Serbia] Interior Designer Intern</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Subotica, Serbia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -933,29 +933,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Vectron</t>
+          <t>Studio White</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1330095</t>
+          <t>1330102</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330095</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>International Relations Development Intern</t>
+          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -970,34 +970,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>Vectron</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1330067</t>
+          <t>1330095</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330095</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Associate Program Manager (Eu Citizen Only)</t>
+          <t>International Relations Development Intern</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,49 +1007,49 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>The Synergist</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1330065</t>
+          <t>1330067</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330065</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[EXP] Purchase to Pay Process in a Global Context (Spanish Speaker Preferred)</t>
+          <t>Associate Program Manager (Eu Citizen Only)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maastricht, Netherlands</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1059,71 +1059,71 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>The Synergist</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1330058</t>
+          <t>1330065</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330058</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330065</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chemistry Intern</t>
+          <t>[EXP] Purchase to Pay Process in a Global Context (Spanish Speaker Preferred)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Maastricht, Netherlands</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1330036</t>
+          <t>1330058</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330058</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Structural engineer</t>
+          <t>Chemistry Intern</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,39 +1133,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Welt Inzenjering</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1330033</t>
+          <t>1330056</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330056</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Design development assistance</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,39 +1175,39 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>IWA CONSALT DOO</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1330015</t>
+          <t>1330036</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>[Accelerate Serbia] Structural engineer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,44 +1217,44 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>Welt Inzenjering</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1330003</t>
+          <t>1330033</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330003</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Infosys | In-Step Global Coordinator</t>
+          <t>[Accelerate Serbia] Design development assistance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1264,34 +1264,34 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>IWA CONSALT DOO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1329997</t>
+          <t>1330015</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329997</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330015</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recruitment Consultant</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Prague, Czechia</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,81 +1301,81 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Non Stop Consulting</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1329992</t>
+          <t>1330003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Business Development manager</t>
+          <t>Infosys | In-Step Global Coordinator</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Weblook International (Pvt) Ltd</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1329983</t>
+          <t>1329997</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329983</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329997</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Marketing Intern</t>
+          <t>Recruitment Consultant</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Târgu Mureș, Romania</t>
+          <t>Prague, Czechia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>KhepriX</t>
+          <t>Non Stop Consulting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1329982</t>
+          <t>1329992</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329982</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329992</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Production</t>
+          <t>Business Development manager</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NET.Engineering</t>
+          <t>Weblook International (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1329978</t>
+          <t>1329983</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329978</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Mechanical engineer</t>
+          <t>Accelerate Romania - Marketing Intern</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Târgu Mureș, Romania</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1479,29 +1479,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NET.Engineering</t>
+          <t>KhepriX</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1329929</t>
+          <t>1329982</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329929</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329982</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES</t>
+          <t>Accelerate Romania - Digital Production</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1511,39 +1511,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>DOĞAN İNŞ.MLZM.HAFR.NAK.İŞ MAK.SAN.VE TİC.LTD.ŞTİ.</t>
+          <t>NET.Engineering</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1329918</t>
+          <t>1329978</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329918</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329978</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Marketing, Social Media &amp; Branding Intern</t>
+          <t>Accelerate Romania - Mechanical engineer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1563,29 +1563,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>goodStory</t>
+          <t>NET.Engineering</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1329895</t>
+          <t>1329929</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329895</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329929</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Office Manager (EU only)</t>
+          <t>MARKETING &amp; SALES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hamburg, Deutschland</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1605,29 +1605,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Caps &amp; Collars GmbH</t>
+          <t>DOĞAN İNŞ.MLZM.HAFR.NAK.İŞ MAK.SAN.VE TİC.LTD.ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1329876</t>
+          <t>1329918</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329876</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329918</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre] - Import and Product Development Intern</t>
+          <t>Accelerate Romania | Marketing, Social Media &amp; Branding Intern</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS, Brazil</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1637,39 +1637,39 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Asialink - International Commerce</t>
+          <t>goodStory</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1329871</t>
+          <t>1329895</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329871</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329895</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Office Manager (EU only)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mayur Vihar, Delhi, India</t>
+          <t>Hamburg, Deutschland</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1679,34 +1679,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Credifin Limited</t>
+          <t>Caps &amp; Collars GmbH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1329869</t>
+          <t>1329871</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329869</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329871</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marketing and Strategy Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1738,101 +1738,101 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1329854</t>
+          <t>1329869</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329854</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329869</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[CC] Learning Consultancy Support for DHL's Career &amp; Learning Platform</t>
+          <t>Marketing and Strategy Intern</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>Mayur Vihar, Delhi, India</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Credifin Limited</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1329821</t>
+          <t>1329854</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329821</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329854</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Intern</t>
+          <t>[CC] Learning Consultancy Support for DHL's Career &amp; Learning Platform</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>132 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1329820</t>
+          <t>1329821</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329820</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329821</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Artificial Intelligence Intern</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1864,17 +1864,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1329818</t>
+          <t>1329820</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329818</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329820</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Data Science Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1906,22 +1906,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1329810</t>
+          <t>1329818</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329810</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329818</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[IMPACT FORTALEZA] Business Development - Comercial Supervisor</t>
+          <t>Data Science Intern</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fortaleza - Zone 1, Fortaleza - Ceará, Brasil</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAKRO MOVEIS E EQUIPAMENTOS MODULADOS LTDA</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1329786</t>
+          <t>1329810</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329786</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329810</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Strategic Alliances Trainee</t>
+          <t>[IMPACT FORTALEZA] Business Development - Comercial Supervisor</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Fortaleza - Zone 1, Fortaleza - Ceará, Brasil</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1983,24 +1983,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NOVARTIS</t>
+          <t>MAKRO MOVEIS E EQUIPAMENTOS MODULADOS LTDA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1329784</t>
+          <t>1329786</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329784</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329786</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Direct Contingent Worker Tech Service</t>
+          <t>Strategic Alliances Trainee</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2025,29 +2025,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Alcon Centroamérica PA</t>
+          <t>NOVARTIS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1329765</t>
+          <t>1329784</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329784</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sales Responsible</t>
+          <t>Direct Contingent Worker Tech Service</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ürgüp, Nevşehir, Türkiye</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pink Lotus Jewellery</t>
+          <t>Alcon Centroamérica PA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1329703</t>
+          <t>1329765</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329703</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329765</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Social Media Manager</t>
+          <t>Sales Responsible</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Ürgüp, Nevşehir, Türkiye</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Minds Club</t>
+          <t>Pink Lotus Jewellery</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1329701</t>
+          <t>1329703</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329701</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329703</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sales Agent</t>
+          <t>Social Media Manager</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2151,24 +2151,24 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SSK events</t>
+          <t>Minds Club</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1329698</t>
+          <t>1329701</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329698</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329701</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IT Engineer</t>
+          <t>Sales Agent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2200,22 +2200,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1329697</t>
+          <t>1329698</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329697</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329698</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Interior architect</t>
+          <t>IT Engineer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,29 +2235,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FacePro</t>
+          <t>SSK events</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1329696</t>
+          <t>1329697</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329696</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329697</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Digital Markter</t>
+          <t>Interior architect</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2272,34 +2272,34 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CTIG</t>
+          <t>FacePro</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1329695</t>
+          <t>1329696</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329695</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329696</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Digital Markter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>El Manar, Tunis, Tunisia</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,29 +2309,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ADMISSION CARE</t>
+          <t>CTIG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1329694</t>
+          <t>1329695</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329694</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329695</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>El Manar, Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2361,29 +2361,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>The green box</t>
+          <t>ADMISSION CARE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1329693</t>
+          <t>1329694</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329693</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329694</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>El Manar, Tunis, Tunisia</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2403,24 +2403,24 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ADMISSION CARE</t>
+          <t>The green box</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1329692</t>
+          <t>1329693</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329692</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329693</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Backend Developer</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2452,17 +2452,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1329691</t>
+          <t>1329692</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329691</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329692</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>Backend Developer</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2494,22 +2494,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1329689</t>
+          <t>1329691</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329689</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329691</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Backend Odoo Developer Intern (Odoo 16)</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>El Manar, Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2529,29 +2529,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Minerva Training</t>
+          <t>ADMISSION CARE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1329674</t>
+          <t>1329689</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329674</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329689</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Digital Marketer</t>
+          <t>Backend Odoo Developer Intern (Odoo 16)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gabès, Tunisie</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2571,29 +2571,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ESSAT Privée</t>
+          <t>Minerva Training</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1329672</t>
+          <t>1329674</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329672</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329674</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Gabès, Tunisie</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2613,24 +2613,24 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Trivaw</t>
+          <t>ESSAT Privée</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1329671</t>
+          <t>1329672</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329671</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329672</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2662,17 +2662,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1329670</t>
+          <t>1329671</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329670</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329671</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2704,22 +2704,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1329669</t>
+          <t>1329670</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329669</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329670</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Electrical engineer</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Monastir, Tunisia</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2739,24 +2739,24 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>B.E.I.C</t>
+          <t>Trivaw</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1329667</t>
+          <t>1329669</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329667</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329669</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mechanical engineer</t>
+          <t>Electrical engineer</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2788,22 +2788,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1329657</t>
+          <t>1329667</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329657</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329667</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sales and Marketing Specialist</t>
+          <t>Mechanical engineer</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Monastir, Tunisia</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2823,24 +2823,24 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Metaform</t>
+          <t>B.E.I.C</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1329656</t>
+          <t>1329657</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329657</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Sales and Marketing Specialist</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2872,22 +2872,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1329617</t>
+          <t>1329656</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329617</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329656</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Recruitment and Sales Consultant</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>São Paulo, SP, Brasil</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2897,17 +2897,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hays Brasil</t>
+          <t>Metaform</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>95 applicants</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>59 applicants</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>109 applicants</t>
+          <t>111 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>68 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>169 applicants</t>
+          <t>172 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>66 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6736,22 +6736,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1328113</t>
+          <t>1328098</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328113</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Junior Brand Manager - Trainee</t>
+          <t>Arabic Translator</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>195 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6771,29 +6771,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Pie Multilingual Services</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1328098</t>
+          <t>1328052</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328052</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Arabic Translator</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6803,39 +6803,39 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Pie Multilingual Services</t>
+          <t>WIT center</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1328052</t>
+          <t>1328051</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328052</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6845,39 +6845,39 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>WIT center</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1328051</t>
+          <t>1328023</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328023</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Marketing - Intern</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>55 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6897,24 +6897,24 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1328023</t>
+          <t>1328019</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328023</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328019</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Marketing - Intern</t>
+          <t>Kitchen Operations - Intern</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6946,22 +6946,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1328019</t>
+          <t>1328015</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328019</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kitchen Operations - Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6981,24 +6981,24 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1328015</t>
+          <t>1328013</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7030,17 +7030,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1328013</t>
+          <t>1327992</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Cloud Engineering Intern</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -7072,22 +7072,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1327992</t>
+          <t>1327970</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327970</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cloud Engineering Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Malabe, Sri Lanka</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7107,81 +7107,81 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>Ribelz Integrated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1327970</t>
+          <t>1327967</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327970</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>ACE Program | Russian Financial Analyst</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Malabe, Sri Lanka</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Ribelz Integrated Pvt Ltd</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1327959</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327959</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Accounting Management Trainee</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>ATHENASIA Consulting Limited</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>117 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7450,22 +7450,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1327813</t>
+          <t>1327832</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327832</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nursery Spanish Practitioner</t>
+          <t>Accelerate Serbia | Intern – Technical Support for eBar Software</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Ashby-de-la-Zouch LE65, UK</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7475,39 +7475,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Bilingual Day Nursery and Preschool Ltd</t>
+          <t>eBar Software doo</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1327811</t>
+          <t>1327813</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Nursery Spanish Practitioner</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Ashby-de-la-Zouch LE65, UK</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,39 +7517,39 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>107 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Envision Circle (Pvt) Ltd</t>
+          <t>Bilingual Day Nursery and Preschool Ltd</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1327809</t>
+          <t>1327811</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Video editor</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>El Sadat City, Menofia Governorate, Egypt</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7559,39 +7559,39 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>109 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Habib Agency</t>
+          <t>Envision Circle (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327809</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Video editor</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7611,24 +7611,24 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7660,22 +7660,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1327757</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>graphic designer</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7695,29 +7695,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Monkey Brew</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1327512</t>
+          <t>1327757</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327757</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Research Intern | Biotech (Duplicated)</t>
+          <t>graphic designer</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Aronj, Uttar Pradesh, India</t>
+          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7727,34 +7727,34 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FS University</t>
+          <t>Monkey Brew</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1327511</t>
+          <t>1327512</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327511</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>IT Research Interns (Duplicated)</t>
+          <t>Research Intern | Biotech (Duplicated)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7786,22 +7786,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1327509</t>
+          <t>1327511</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327511</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Language trainer and Operations Manager</t>
+          <t>IT Research Interns (Duplicated)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Aronj, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7811,39 +7811,39 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
+          <t>FS University</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1327497</t>
+          <t>1327509</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SEO Specialist</t>
+          <t>Language trainer and Operations Manager</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7853,34 +7853,34 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1327495</t>
+          <t>1327497</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>SEO Specialist</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7895,12 +7895,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7912,22 +7912,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1327434</t>
+          <t>1327495</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327434</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Internship Software Development with Rust, C++ and Linux (m/f/d)</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>72 Tübingen, Germany</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7937,39 +7937,39 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>202 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Intra2net AG</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1327432</t>
+          <t>1327434</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327432</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327434</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Social Media Specialist</t>
+          <t>Internship Software Development with Rust, C++ and Linux (m/f/d)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
+          <t>72 Tübingen, Germany</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,39 +7979,39 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>204 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Admixy</t>
+          <t>Intra2net AG</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1327381</t>
+          <t>1327432</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327432</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Product Management Intern</t>
+          <t>Social Media Specialist</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8031,24 +8031,24 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Admixy</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1327380</t>
+          <t>1327381</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Comunication Intern</t>
+          <t>Product Management Intern</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>93 applicants</t>
+          <t>102 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8080,22 +8080,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1327369</t>
+          <t>1327380</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327369</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Comunication Intern</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ennasr 2, Ariana, Tunisia</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8115,29 +8115,29 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Happy Office Solutions</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1327336</t>
+          <t>1327369</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327369</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Partnerships and Innovation Intern</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ennasr 2, Ariana, Tunisia</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8157,29 +8157,29 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Happy Office Solutions</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1327286</t>
+          <t>1327336</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Taxes &amp; Internal Control</t>
+          <t>Partnerships and Innovation Intern</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,39 +8189,39 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>NESTLÉ</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1327257</t>
+          <t>1327286</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Taxes &amp; Internal Control</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>74 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8241,29 +8241,29 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>NESTLÉ</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1327221</t>
+          <t>1327281</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327281</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,39 +8273,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Admixy</t>
+          <t>Microbiologia Y Genetica LTDA</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1327200</t>
+          <t>1327257</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327200</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Accelerate Serbia | Digital Marketing Specialist</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Београд, Србија</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8315,39 +8315,39 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>57 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Innventa Pharm</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1327183</t>
+          <t>1327221</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327221</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Çayırova, Kocaeli, Türkiye</t>
+          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,39 +8357,39 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>76 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
+          <t>Admixy</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1327168</t>
+          <t>1327200</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327200</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AI &amp; ML Intern</t>
+          <t>Accelerate Serbia | Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8399,39 +8399,39 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Innventa Pharm</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1327154</t>
+          <t>1327183</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Guest Relations and Service Captain</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Çayırova, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8451,29 +8451,29 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
+          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1327042</t>
+          <t>1327168</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>AI &amp; ML Intern</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8483,39 +8483,39 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1326965</t>
+          <t>1327154</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>Guest Relations and Service Captain</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8525,34 +8525,34 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>74 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Enveks Toz Kontrol Teknolojileri Sanayi ve Ticaret A.Ş.</t>
+          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1326963</t>
+          <t>1327042</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326963</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Deutsch Ambassador and Instructor</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8584,22 +8584,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1326934</t>
+          <t>1326965</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326934</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326965</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Social media manager</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Alexandria, Alexandria Governorate, Egypt</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8609,39 +8609,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>75 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Eagle Office for Services</t>
+          <t>Enveks Toz Kontrol Teknolojileri Sanayi ve Ticaret A.Ş.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1326906</t>
+          <t>1326934</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326906</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326934</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Social media manager</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Mersin, Akdeniz/Mersin, Türkiye</t>
+          <t>Alexandria, Alexandria Governorate, Egypt</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8651,39 +8651,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>İlke Sports</t>
+          <t>Eagle Office for Services</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1326894</t>
+          <t>1326906</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326894</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326906</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Business Strategist</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Karnal, Haryana, India</t>
+          <t>Mersin, Akdeniz/Mersin, Türkiye</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8703,24 +8703,24 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Jollygoodfellow creations</t>
+          <t>İlke Sports</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1326802</t>
+          <t>1326894</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326802</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326894</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Business Strategist</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8752,17 +8752,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1326801</t>
+          <t>1326802</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326801</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326802</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Content creation and Brand Management</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8794,22 +8794,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1326776</t>
+          <t>1326801</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326801</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Content creation and Brand Management</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Karnal, Haryana, India</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8829,24 +8829,24 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Jollygoodfellow creations</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1326767</t>
+          <t>1326776</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8861,12 +8861,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8878,17 +8878,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1326765</t>
+          <t>1326767</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8920,17 +8920,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1326761</t>
+          <t>1326765</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Civil Engineering Intern</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8962,17 +8962,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1326757</t>
+          <t>1326761</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Architectural Intern</t>
+          <t>Civil Engineering Intern</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -9004,17 +9004,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1326756</t>
+          <t>1326757</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Electrical &amp; ML Intern</t>
+          <t>Architectural Intern</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -9046,22 +9046,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1326741</t>
+          <t>1326756</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Electrical &amp; ML Intern</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9081,29 +9081,29 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Vigilare biopharma Pvt Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1326706</t>
+          <t>1326741</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Sales Customer Service Support</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9113,39 +9113,39 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>166 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aytek Soğutma</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1326666</t>
+          <t>1326706</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Computer Engineering Intern</t>
+          <t>Sales Customer Service Support</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9155,39 +9155,39 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>167 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Aytek Soğutma</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1326653</t>
+          <t>1326666</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326653</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Interior Design</t>
+          <t>Computer Engineering Intern</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>New Cairo City, Cairo Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9207,29 +9207,29 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Ahmad Elsherif Interior Designer</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1326639</t>
+          <t>1326653</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326653</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Interior Design</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>New Cairo City, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9249,29 +9249,29 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Ahmad Elsherif Interior Designer</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1326538</t>
+          <t>1326639</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG, Brasil</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9281,39 +9281,39 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>94 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Onfly</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1326503</t>
+          <t>1326538</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Αθήνα, Ελλάδα</t>
+          <t>Belo Horizonte, MG, Brasil</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9323,17 +9323,17 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>154 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Inzeb</t>
+          <t>Onfly</t>
         </is>
       </c>
     </row>
@@ -9382,64 +9382,64 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1326491</t>
+          <t>1326423</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326491</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>ACE Program | Global Program Coordinator (AIESECers Only)</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>75 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1326423</t>
+          <t>1326381</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326381</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>Business Developer</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9449,39 +9449,39 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
+          <t>11 applicants</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1326381</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Business Developer</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9491,17 +9491,17 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>133 applicants</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
@@ -10054,22 +10054,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1326081</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>99 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10089,39 +10089,39 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>ASM Crane</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1326081</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>Sales &amp; Marketing</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ASM Crane</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>131 applicants</t>
+          <t>133 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>57 applicants</t>
+          <t>60 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>140 applicants</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>110 applicants</t>
+          <t>111 applicants</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -11104,32 +11104,32 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1325297</t>
+          <t>1325154</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325154</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>International Sales Representetive Spanish Speaker</t>
+          <t>ACE Program | Norwegian Language Coach</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -11139,24 +11139,24 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1325154</t>
+          <t>1325152</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>ACE Program | Norwegian Language Coach</t>
+          <t>ACE Program | Swedish Language Coach</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11188,64 +11188,64 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1325152</t>
+          <t>1324592</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>ACE Program | Swedish Language Coach</t>
+          <t>Digital marketing</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Business Haven Consultancy</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1324592</t>
+          <t>1324438</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Digital marketing</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11265,29 +11265,29 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>Brainbucks</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1324438</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11297,39 +11297,39 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Brainbucks</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1324164</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324164</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Receptionist/ Hostess</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Nuwara Eliya, Sri Lanka</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11339,39 +11339,39 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>68 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Pedro Barn pvt ltd</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1324164</t>
+          <t>1323774</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324164</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Receptionist/ Hostess</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Nuwara Eliya, Sri Lanka</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11381,39 +11381,39 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Pedro Barn pvt ltd</t>
+          <t>HB Architecture</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1323774</t>
+          <t>1323761</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Sales representative</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11433,29 +11433,29 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>HB Architecture</t>
+          <t>Fekretk</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1323761</t>
+          <t>1323714</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323714</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Sales representative</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11475,24 +11475,24 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Fekretk</t>
+          <t>Obras Descomplicadas Lda</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1323714</t>
+          <t>1323713</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323714</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>75 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11524,22 +11524,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1323713</t>
+          <t>1323480</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323480</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Mechanical Engineer Intern</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11559,24 +11559,24 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Obras Descomplicadas Lda</t>
+          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1323480</t>
+          <t>1323479</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323480</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323479</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Mechanical Engineer Intern</t>
+          <t>Electrical Engineer Intern</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>63 applicants</t>
+          <t>59 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11608,17 +11608,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1323479</t>
+          <t>1323474</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323479</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Electrical Engineer Intern</t>
+          <t>Computer Engineer Intern</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>59 applicants</t>
+          <t>367 applicants</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11650,106 +11650,106 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1323474</t>
+          <t>1323469</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Computer Engineer Intern</t>
+          <t>Infosys InStep PhD Internship</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>363 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1323469</t>
+          <t>1323373</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Infosys InStep PhD Internship</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1323373</t>
+          <t>1323006</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323006</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>OPERATIONS MANAGER</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Kaklık, 20240 Honaz/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11759,39 +11759,39 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>HEMMER MERMER MADENCİLİK İNŞAAT NAKLİYAT TURİZM İTHALAT İHRACAT SAN. VE TİC.LTD.ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1323006</t>
+          <t>1322916</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323006</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>OPERATIONS MANAGER</t>
+          <t>Film Making / Video Editing Intern</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Kaklık, 20240 Honaz/Denizli, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11801,34 +11801,34 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>68 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>HEMMER MERMER MADENCİLİK İNŞAAT NAKLİYAT TURİZM İTHALAT İHRACAT SAN. VE TİC.LTD.ŞTİ.</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1322916</t>
+          <t>1322914</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Film Making / Video Editing Intern</t>
+          <t>AI Agent Experience Specialist</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11860,22 +11860,22 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1322914</t>
+          <t>1322886</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>AI Agent Experience Specialist</t>
+          <t>Customer Representative</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,17 +11885,17 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>129 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>109 applicants</t>
+          <t>110 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>102 applicants</t>
+          <t>103 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>124 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>95 applicants</t>
+          <t>96 applicants</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>161 applicants</t>
+          <t>164 applicants</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -13288,22 +13288,22 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1313381</t>
+          <t>1313882</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sales Attendant</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -13313,39 +13313,39 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>153 applicants</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>VAROL TEKSTİL</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1312732</t>
+          <t>1313813</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>118 applicants</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -13365,29 +13365,29 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1312564</t>
+          <t>1313793</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1312564</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>IT Sales Executive</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13397,39 +13397,39 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>98 applicants</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>NRM International</t>
+          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1311536</t>
+          <t>1313381</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313381</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Managing Co-founder</t>
+          <t>Sales Attendant</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13439,39 +13439,39 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>156 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Skulptor</t>
+          <t>VAROL TEKSTİL</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1310418</t>
+          <t>1312732</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1310418</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13481,39 +13481,39 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>63 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>HÜNER</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1310229</t>
+          <t>1312564</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312564</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Guest Relations Officer</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Weligama, Sri Lanka</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13523,39 +13523,39 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>88 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Weligama Cliff</t>
+          <t>NRM International</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1309418</t>
+          <t>1311536</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1309418</t>
+          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>International Marketing Intern</t>
+          <t>Accelerate Romania | Managing Co-founder</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Luzhu District, Kaohsiung City, Taiwan 821</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13565,39 +13565,39 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>111 applicants</t>
+          <t>158 applicants</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Green Power Engineering Corporation</t>
+          <t>Skulptor</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1308576</t>
+          <t>1310418</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
+          <t>https://aiesec.org/opportunity/global-talent/1310418</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Chinese Language Specialist</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13617,71 +13617,71 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels (Pvt) Ltd</t>
+          <t>HÜNER</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1308372</t>
+          <t>1310229</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308372</t>
+          <t>https://aiesec.org/opportunity/global-talent/1310229</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ACE Program | Talent Acquisition Specialist (Spanish Speaker)</t>
+          <t>Guest Relations Officer</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Weligama, Sri Lanka</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>88 applicants</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Weligama Cliff</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1308313</t>
+          <t>1309418</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
+          <t>https://aiesec.org/opportunity/global-talent/1309418</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Mechanical/Electrical/Chemical/Environmental Engineer Intern</t>
+          <t>International Marketing Intern</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Luzhu District, Kaohsiung City, Taiwan 821</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>213 applicants</t>
+          <t>111 applicants</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -13701,24 +13701,24 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
+          <t>Green Power Engineering Corporation</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1307935</t>
+          <t>1308576</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Business Analyst - Implementation Specialist</t>
+          <t>Chinese Language Specialist</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -13733,49 +13733,49 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Haulmatic Technologies</t>
+          <t>Aitken Spence Travels (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1307772</t>
+          <t>1308372</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307772</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308372</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>SALES and MARKETING - ZİMEK MAKİNE</t>
+          <t>ACE Program | Talent Acquisition Specialist (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Kocabaş, 20330 Honaz/Denizli, Türkiye</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>135 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -13785,71 +13785,71 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>ZİMEK MAKİNA MERMER SAN. ve TİC. LTD ŞTİ.</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1307242</t>
+          <t>1308370</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308370</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Automotive Mechatronics</t>
+          <t>ACE Program | Talent Acquisition Specialist (Portuguese Speaker)</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Ghaziabad, India</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>KIET group of institutions</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1306470</t>
+          <t>1308313</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306470</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>MARKETING AND SALES - BİRİZ NUTS</t>
+          <t>Mechanical/Electrical/Chemical/Environmental Engineer Intern</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Çal, Denizli, Türkiye</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>86 applicants</t>
+          <t>214 applicants</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -13869,29 +13869,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>BİRİZ KURUYEMİŞ</t>
+          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1305239</t>
+          <t>1307935</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305239</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307935</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Business Analyst - Implementation Specialist</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Eskişehir, Türkiye</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -13901,49 +13901,49 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Esaysan Endüstriyel Metal Ürünleri Sanayi Ve Ticaret</t>
+          <t>Haulmatic Technologies</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1307772</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307772</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>SALES and MARKETING - ZİMEK MAKİNE</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Kocabaş, 20330 Honaz/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>56 applicants</t>
+          <t>135 applicants</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -13953,29 +13953,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ZİMEK MAKİNA MERMER SAN. ve TİC. LTD ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1307425</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307425</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>Service executive II</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Naucalpan de Juárez, Mexico</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -13985,39 +13985,39 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>81 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Segmenta S.C.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1304372</t>
+          <t>1307292</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304372</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307292</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>399 applicants</t>
+          <t>77 applicants</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -14037,29 +14037,29 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Ganioğulları LTD</t>
+          <t>FPT Software</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1303857</t>
+          <t>1307242</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
+          <t>Automotive Mechatronics</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
+          <t>Ghaziabad, India</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -14069,39 +14069,39 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>157 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>KIET group of institutions</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1303853</t>
+          <t>1306470</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306470</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
+          <t>MARKETING AND SALES - BİRİZ NUTS</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
+          <t>Çal, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -14121,29 +14121,29 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>BİRİZ KURUYEMİŞ</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1303804</t>
+          <t>1305239</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305239</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>Eskişehir, Türkiye</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -14153,49 +14153,49 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>76 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>Esaysan Endüstriyel Metal Ürünleri Sanayi Ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>75 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -14205,29 +14205,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1295935</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Business Development/HD</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Pamukkale, Türkiye</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -14237,29 +14237,29 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>208 applicants</t>
+          <t>81 applicants</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1294219</t>
+          <t>1304372</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1294219</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304372</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Altındağ, Türkiye</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14279,39 +14279,39 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>399 applicants</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Torksan RPM Polat Makina</t>
+          <t>Ganioğulları LTD</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1293818</t>
+          <t>1303857</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Receptionist and Marketing  Intern</t>
+          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Chalkidiki, Greece</t>
+          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -14321,39 +14321,39 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>197 applicants</t>
+          <t>157 applicants</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Hotel Kriopigi</t>
+          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1289379</t>
+          <t>1303853</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Medical Advisor Portuguese Speaker</t>
+          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>116 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -14373,29 +14373,29 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1289378</t>
+          <t>1303804</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14405,39 +14405,39 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>124 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1289377</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Medical Advisor (Italian Speaker)</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>75 applicants</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -14457,29 +14457,29 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1289375</t>
+          <t>1301385</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301385</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Medical Advisor (German Speaker)</t>
+          <t>Russian Speaking Guest Relation Intern</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Ahungalla, Sri Lanka</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -14489,39 +14489,39 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Heritance Ahungalla</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1289255</t>
+          <t>1296685</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296685</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Medical Advisor French Speaker</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Fatih, Türkiye</t>
+          <t>Đống Đa, Vietnam</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14531,39 +14531,39 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>697 applicants</t>
+          <t>387 applicants</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Vitex Vietnam Software Joint Stock Company</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1288548</t>
+          <t>1295935</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
+          <t>Business Development/HD</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Honaz, Türkiye</t>
+          <t>Pamukkale, Türkiye</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>172 applicants</t>
+          <t>208 applicants</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14583,47 +14583,383 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>ERGÜN ÖZEN MACHINA</t>
+          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
+          <t>1294219</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1294219</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Altındağ, Türkiye</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>108 applicants</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Torksan RPM Polat Makina</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1293818</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Receptionist and Marketing  Intern</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Chalkidiki, Greece</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>198 applicants</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>9 - 12 Weeks</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Hotel Kriopigi</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1289379</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Medical Advisor Portuguese Speaker</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>117 applicants</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1289378</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Medical Advisor (Spanish Speaker)</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>124 applicants</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1289377</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Medical Advisor (Italian Speaker)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>40 applicants</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1289375</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Medical Advisor (German Speaker)</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>39 applicants</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1289255</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1289255</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Medical Advisor French Speaker</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Fatih, Türkiye</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>698 applicants</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>International Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1288548</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Honaz, Türkiye</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>172 applicants</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>6 - 18 Months</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>ERGÜN ÖZEN MACHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
           <t>1288371</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
+      <c r="B346" t="inlineStr">
         <is>
           <t>https://aiesec.org/opportunity/global-talent/1288371</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>International Sales Manager</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>Delhi, India</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
         <is>
           <t>157 applicants</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
+      <c r="G346" t="inlineStr">
         <is>
           <t>6 - 18 Months</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
+      <c r="H346" t="inlineStr">
         <is>
           <t>ARVICON INTERNATIONAL</t>
         </is>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1325152</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACE Program | Swedish Language Coach</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -520,22 +520,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1326491</t>
+          <t>1330003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326491</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Global Program Coordinator (AIESECers Only)</t>
+          <t>Infosys | In-Step Global Coordinator</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>78 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,29 +555,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1330269</t>
+          <t>1327967</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330269</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EMEA Partner Development Coordinator 2026</t>
+          <t>ACE Program | Russian Financial Analyst</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40 Düsseldorf, Germany</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>109 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PwC Global Partnership</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>68 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1822,64 +1822,64 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1330251</t>
+          <t>1330269</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330251</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330269</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Customer Care Specialist with German [EU Only]</t>
+          <t>EMEA Partner Development Coordinator 2026</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sofía, Bulgaria</t>
+          <t>40 Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>115 applicants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>dormakaba</t>
+          <t>PwC Global Partnership</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1330230</t>
+          <t>1330251</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330230</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330251</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Interior Designer</t>
+          <t>Customer Care Specialist with German [EU Only]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Sofía, Bulgaria</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1889,39 +1889,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Augustn</t>
+          <t>dormakaba</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1330203</t>
+          <t>1330230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330230</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Saf Teknik</t>
+          <t>Interior Designer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bursa, Türkiye</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Saf Teknik</t>
+          <t>Augustn</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1330202</t>
+          <t>1330203</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330203</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Multimedia Ai Designer</t>
+          <t>Saf Teknik</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Bursa, Türkiye</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,39 +1973,39 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Beyond Creative</t>
+          <t>Saf Teknik</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1330174</t>
+          <t>1330202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330174</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330202</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Sales Specialist</t>
+          <t>Multimedia Ai Designer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2025,29 +2025,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Hibyte</t>
+          <t>Beyond Creative</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1330158</t>
+          <t>1330174</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330158</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330174</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Partnership &amp; Capacity Building Analyst Development Specialist</t>
+          <t>Accelerate Romania | Sales Specialist</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2067,24 +2067,24 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Krishna Sadan</t>
+          <t>Hibyte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1330157</t>
+          <t>1330158</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330158</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sustainability Outreach &amp; Community Development Specialist</t>
+          <t>Partnership &amp; Capacity Building Analyst Development Specialist</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2116,22 +2116,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1330155</t>
+          <t>1330157</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Content Creation and Cultural Ambassador Intern</t>
+          <t>Sustainability Outreach &amp; Community Development Specialist</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
+          <t>Krishna Sadan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1330154</t>
+          <t>1330155</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,22 +2200,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1330126</t>
+          <t>1330154</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Social Media Marketing</t>
+          <t>Content Creation and Cultural Ambassador Intern</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,29 +2235,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>StayWell</t>
+          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1330113</t>
+          <t>1330126</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330113</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Interior Designer Intern</t>
+          <t>Social Media Marketing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Subotica, Serbia</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2277,29 +2277,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Studio White</t>
+          <t>StayWell</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1330102</t>
+          <t>1330113</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330113</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
+          <t>[Accelerate Serbia] Interior Designer Intern</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Subotica, Serbia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2319,29 +2319,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Vectron</t>
+          <t>Studio White</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1330095</t>
+          <t>1330102</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330095</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>International Relations Development Intern</t>
+          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,39 +2351,39 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>Vectron</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1330086</t>
+          <t>1330095</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330086</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330095</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Master Franchise Intern</t>
+          <t>International Relations Development Intern</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Curitiba, PR, Brasil</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,39 +2393,39 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>The Coffee</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1330067</t>
+          <t>1330086</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330086</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Associate Program Manager (Eu Citizen Only)</t>
+          <t>[Impact Brazil] - Master Franchise Intern</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Curitiba, PR, Brasil</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>The Synergist</t>
+          <t>The Coffee</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1330058</t>
+          <t>1330067</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330058</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chemistry Intern</t>
+          <t>Associate Program Manager (Eu Citizen Only)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,34 +2477,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>The Synergist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1330056</t>
+          <t>1330058</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330056</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330058</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Chemistry Intern</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2536,22 +2536,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1330036</t>
+          <t>1330056</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330056</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Structural engineer</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Welt Inzenjering</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1330033</t>
+          <t>1330036</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Design development assistance</t>
+          <t>[Accelerate Serbia] Structural engineer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2613,29 +2613,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>IWA CONSALT DOO</t>
+          <t>Welt Inzenjering</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1330015</t>
+          <t>1330033</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>[Accelerate Serbia] Design development assistance</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2645,59 +2645,59 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Lovely Professional University</t>
+          <t>IWA CONSALT DOO</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1330003</t>
+          <t>1330015</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330003</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330015</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Infosys | In-Step Global Coordinator</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Lovely Professional University</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>118 applicants</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>57 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>88 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5812,17 +5812,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1328547</t>
+          <t>1328552</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328547</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328552</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEO</t>
+          <t>Mobile applicatio</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5854,17 +5854,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1328545</t>
+          <t>1328548</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328545</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328548</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5896,17 +5896,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1328543</t>
+          <t>1328547</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328543</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328547</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>UI/UX design</t>
+          <t>SEO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5938,17 +5938,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1328541</t>
+          <t>1328545</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328541</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328545</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5980,22 +5980,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1328537</t>
+          <t>1328543</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328537</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328543</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>French Preschool Coordinator</t>
+          <t>UI/UX design</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6015,29 +6015,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Talent School - October Gardens</t>
+          <t>TAR - Company</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1328536</t>
+          <t>1328541</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328541</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>English Preschool Coordinator</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6057,24 +6057,24 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Talent School - October Gardens</t>
+          <t>TAR - Company</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1328534</t>
+          <t>1328537</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328534</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328537</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>French Preschool Coordinator</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6099,24 +6099,24 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Think Advertising</t>
+          <t>Talent School - October Gardens</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1328532</t>
+          <t>1328536</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328532</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328536</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Marketing Strategist &amp; Media Buyer</t>
+          <t>English Preschool Coordinator</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6131,39 +6131,39 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Al Mowared for Engineering works</t>
+          <t>Talent School - October Gardens</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1328514</t>
+          <t>1328534</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328514</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328534</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6183,29 +6183,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Think Advertising</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1328510</t>
+          <t>1328532</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328510</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328532</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Marketing Strategist &amp; Media Buyer</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6215,39 +6215,39 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Al Mowared for Engineering works</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1328502</t>
+          <t>1328514</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328502</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328514</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6267,29 +6267,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>POP-UP Agency</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1328501</t>
+          <t>1328510</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328501</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328510</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Marketing &amp; Modeling Associate</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6309,29 +6309,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ch Store</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1328465</t>
+          <t>1328502</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328465</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328502</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6351,29 +6351,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>MechNova Engineering</t>
+          <t>POP-UP Agency</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1328460</t>
+          <t>1328501</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328460</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328501</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Medical Advisor (Romanian Speaker)</t>
+          <t>Marketing &amp; Modeling Associate</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6383,39 +6383,39 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Ch Store</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1328441</t>
+          <t>1328465</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328441</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328465</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Italian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6425,39 +6425,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Veo Wordwide Services - Iași</t>
+          <t>MechNova Engineering</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1328425</t>
+          <t>1328460</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328425</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328460</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sales representative</t>
+          <t>Medical Advisor (Romanian Speaker)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6467,39 +6467,39 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aura space</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1328376</t>
+          <t>1328441</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328376</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328441</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Export Manager Asistant</t>
+          <t>Accelerate Romania | Italian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>İzmir, Türkiye</t>
+          <t>Iași, Romania</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6509,39 +6509,39 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>120 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>BLACK LIGHT ELEKTRONIK SANAYI VE TICARET A.S.</t>
+          <t>Veo Wordwide Services - Iași</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1328344</t>
+          <t>1328425</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328425</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Business Development Outbound Specialist</t>
+          <t>Sales representative</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Београд, Србија</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6561,29 +6561,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Native Teams</t>
+          <t>Aura space</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1328306</t>
+          <t>1328376</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328306</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328376</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Automotive Maintenance Technician</t>
+          <t>Export Manager Asistant</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>İzmir, Türkiye</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>120 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6603,29 +6603,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Automotive fleet services</t>
+          <t>BLACK LIGHT ELEKTRONIK SANAYI VE TICARET A.S.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1328290</t>
+          <t>1328344</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328290</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328344</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cosmetologist</t>
+          <t>Business Development Outbound Specialist</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6635,39 +6635,39 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>Native Teams</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1328274</t>
+          <t>1328306</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328274</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328306</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Web Designer</t>
+          <t>Automotive Maintenance Technician</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6687,29 +6687,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>Automotive fleet services</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1328273</t>
+          <t>1328290</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328273</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328290</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Cosmetologist</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6719,34 +6719,34 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1328272</t>
+          <t>1328274</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328272</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328274</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Web Designer</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6778,22 +6778,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1328267</t>
+          <t>1328273</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328267</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328273</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Skin Care Expert</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6803,39 +6803,39 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>La fabrique</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1328250</t>
+          <t>1328272</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328272</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6845,34 +6845,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>La fabrique</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1328227</t>
+          <t>1328267</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328267</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Policy &amp; Advocacy Intern</t>
+          <t>Skin Care Expert</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6887,39 +6887,39 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1328225</t>
+          <t>1328250</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Social Impact &amp; Sustainability Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6929,39 +6929,39 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1328155</t>
+          <t>1328227</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Clinical Study Analyst Trainee</t>
+          <t>Policy &amp; Advocacy Intern</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6971,39 +6971,39 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1328131</t>
+          <t>1328225</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Content Creation Intern</t>
+          <t>Social Impact &amp; Sustainability Intern</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Panchkula, Haryana, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7013,39 +7013,39 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Idea Clan</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1328130</t>
+          <t>1328155</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Clinical Study Analyst Trainee</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7055,39 +7055,39 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1328115</t>
+          <t>1328131</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Content Creation Intern</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Panchkula, Haryana, India</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7107,29 +7107,29 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Idea Clan</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1328098</t>
+          <t>1328130</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Arabic Translator</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7139,39 +7139,39 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Pie Multilingual Services</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1328069</t>
+          <t>1328115</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage - Intern</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7191,29 +7191,29 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1328052</t>
+          <t>1328098</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328052</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Arabic Translator</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7223,39 +7223,39 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>WIT center</t>
+          <t>Pie Multilingual Services</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1328051</t>
+          <t>1328069</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Food &amp; Beverage - Intern</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7275,29 +7275,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1328041</t>
+          <t>1328052</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328052</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>IT/ ERP System Developers (Odoo)</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7307,39 +7307,39 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Epigro Pvt Ltd</t>
+          <t>WIT center</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1328021</t>
+          <t>1328051</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Guest Relations Officer Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7359,29 +7359,29 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>The Barn By Starbeans in Ella</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1328015</t>
+          <t>1328041</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>IT/ ERP System Developers (Odoo)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>56 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7401,29 +7401,29 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>Epigro Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1328013</t>
+          <t>1328021</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Guest Relations Officer Intern</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7443,24 +7443,24 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>The Barn By Starbeans in Ella</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1327992</t>
+          <t>1328015</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cloud Engineering Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7492,22 +7492,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1327970</t>
+          <t>1328013</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327970</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Malabe, Sri Lanka</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7527,150 +7527,150 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Ribelz Integrated Pvt Ltd</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1327967</t>
+          <t>1327992</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327967</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ACE Program | Russian Financial Analyst</t>
+          <t>Cloud Engineering Intern</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1327970</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327970</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Malabe, Sri Lanka</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Ribelz Integrated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1327958</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327958</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7702,17 +7702,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1327951</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7727,39 +7727,39 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Gipfel</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1327949</t>
+          <t>1327951</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327949</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Taste Hungary | Football Data Analyst</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>113 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7779,29 +7779,29 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>ACE Advisory</t>
+          <t>Gipfel</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1327922</t>
+          <t>1327949</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327949</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Taste Hungary | Football Data Analyst</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7811,34 +7811,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>114 applicants</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Starbeans Ceylon (Pvt ) Ltd</t>
+          <t>ACE Advisory</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1327919</t>
+          <t>1327922</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Customer Representative- Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7863,29 +7863,29 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
+          <t>Starbeans Ceylon (Pvt ) Ltd</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1327909</t>
+          <t>1327919</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>Customer Representative- Intern</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7905,29 +7905,29 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1327904</t>
+          <t>1327909</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>UX Research Trainee</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7937,39 +7937,39 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>132 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1327889</t>
+          <t>1327904</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>UX Research Trainee</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,39 +7979,39 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>132 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Lines</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1327813</t>
+          <t>1327889</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Nursery Spanish Practitioner</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ashby-de-la-Zouch LE65, UK</t>
+          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,39 +8021,39 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Bilingual Day Nursery and Preschool Ltd</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1327811</t>
+          <t>1327813</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327813</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Nursery Spanish Practitioner</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Ashby-de-la-Zouch LE65, UK</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8063,39 +8063,39 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Envision Circle (Pvt) Ltd</t>
+          <t>Bilingual Day Nursery and Preschool Ltd</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1327809</t>
+          <t>1327811</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Video editor</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>El Sadat City, Menofia Governorate, Egypt</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,39 +8105,39 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Habib Agency</t>
+          <t>Envision Circle (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1327778</t>
+          <t>1327809</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
+          <t>Video editor</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8147,39 +8147,39 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Solutions Ground (Pvt) Ltd</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327778</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,34 +8189,34 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>Solutions Ground (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8248,22 +8248,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1327760</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fashion Consultant</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,39 +8273,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1327658</t>
+          <t>1327760</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327658</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Fashion Consultant</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>El-Kom El-Ahmar, Shibin el-Qanater, Al-Qalyubia Governorate, Egypt</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8315,39 +8315,39 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Etolv</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1327512</t>
+          <t>1327658</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327658</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Research Intern | Biotech (Duplicated)</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Aronj, Uttar Pradesh, India</t>
+          <t>El-Kom El-Ahmar, Shibin el-Qanater, Al-Qalyubia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,34 +8357,34 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>FS University</t>
+          <t>Etolv</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1327511</t>
+          <t>1327512</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327511</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>IT Research Interns (Duplicated)</t>
+          <t>Research Intern | Biotech (Duplicated)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8416,22 +8416,22 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1327509</t>
+          <t>1327511</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327511</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Language trainer and Operations Manager</t>
+          <t>IT Research Interns (Duplicated)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Aronj, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8441,39 +8441,39 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
+          <t>FS University</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1327503</t>
+          <t>1327509</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Taste Hungary | Customer Service trainee</t>
+          <t>Language trainer and Operations Manager</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8483,39 +8483,39 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>JO&amp;JOE Budapest</t>
+          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1327497</t>
+          <t>1327503</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SEO Specialist</t>
+          <t>Taste Hungary | Customer Service trainee</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8535,24 +8535,24 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>JO&amp;JOE Budapest</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1327495</t>
+          <t>1327497</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>SEO Specialist</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8567,12 +8567,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,22 +8584,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1327434</t>
+          <t>1327495</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327434</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Internship Software Development with Rust, C++ and Linux (m/f/d)</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>72 Tübingen, Germany</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8609,39 +8609,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>229 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Intra2net AG</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1327432</t>
+          <t>1327434</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327432</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327434</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Social Media Specialist</t>
+          <t>Internship Software Development with Rust, C++ and Linux (m/f/d)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
+          <t>72 Tübingen, Germany</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8651,39 +8651,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>230 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Admixy</t>
+          <t>Intra2net AG</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1327381</t>
+          <t>1327432</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327432</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Product Management Intern</t>
+          <t>Social Media Specialist</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>111 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8703,24 +8703,24 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Admixy</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1327380</t>
+          <t>1327381</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Comunication Intern</t>
+          <t>Product Management Intern</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>111 applicants</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8752,22 +8752,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1327369</t>
+          <t>1327380</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327369</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Comunication Intern</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ennasr 2, Ariana, Tunisia</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8787,29 +8787,29 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Happy Office Solutions</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1327336</t>
+          <t>1327369</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327369</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Partnerships and Innovation Intern</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ennasr 2, Ariana, Tunisia</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8829,29 +8829,29 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Happy Office Solutions</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1327286</t>
+          <t>1327336</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Taxes &amp; Internal Control</t>
+          <t>Partnerships and Innovation Intern</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8861,39 +8861,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>NESTLÉ</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1327281</t>
+          <t>1327286</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327281</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Taxes &amp; Internal Control</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8913,29 +8913,29 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Microbiologia Y Genetica LTDA</t>
+          <t>NESTLÉ</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1327257</t>
+          <t>1327281</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327281</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8955,29 +8955,29 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>Microbiologia Y Genetica LTDA</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1327221</t>
+          <t>1327257</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Zagazig, El-Hariry, Zagazig 1, Al-Sharqia Governorate, Egypt</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8987,17 +8987,17 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>79 applicants</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Admixy</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -10138,64 +10138,64 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1326423</t>
+          <t>1326491</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326491</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>ACE Program | Global Program Coordinator (AIESECers Only)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>78 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326423</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10205,39 +10205,39 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10247,34 +10247,34 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10306,17 +10306,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10331,12 +10331,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10348,17 +10348,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10390,17 +10390,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10432,17 +10432,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10474,17 +10474,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -10499,12 +10499,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10516,17 +10516,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10541,12 +10541,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -10558,17 +10558,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10600,17 +10600,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -10625,12 +10625,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1326198</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>AI and ML Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10684,17 +10684,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326198</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>AI and ML Intern</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10726,17 +10726,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10751,12 +10751,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -10768,22 +10768,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10793,39 +10793,39 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1326081</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>102 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10845,39 +10845,39 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>ASM Crane</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1326081</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>Sales &amp; Marketing</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>102 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>ASM Crane</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>140 applicants</t>
+          <t>142 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11818,32 +11818,32 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1325152</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325152</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>ACE Program | Swedish Language Coach</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>157 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11853,29 +11853,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,39 +11885,39 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>57 applicants</t>
+          <t>157 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11927,39 +11927,39 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>57 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1324592</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Digital marketing</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11969,39 +11969,39 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1324438</t>
+          <t>1324592</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Digital marketing</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -12021,29 +12021,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Brainbucks</t>
+          <t>Business Haven Consultancy</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1324438</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324438</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12053,39 +12053,39 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Brainbucks</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1324164</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324164</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Receptionist/ Hostess</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Nuwara Eliya, Sri Lanka</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12095,17 +12095,17 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Pedro Barn pvt ltd</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>88 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>68 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>381 applicants</t>
+          <t>384 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>87 applicants</t>
+          <t>88 applicants</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>129 applicants</t>
+          <t>130 applicants</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>102 applicants</t>
+          <t>103 applicants</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>166 applicants</t>
+          <t>167 applicants</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>162 applicants</t>
+          <t>163 applicants</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>390 applicants</t>
+          <t>391 applicants</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>204 applicants</t>
+          <t>206 applicants</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H357"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1323469</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Infosys InStep PhD Internship</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,39 +503,39 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>57 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1284636</t>
+          <t>1297124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
+          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taste Hungary | [EU Only] Junior Field Service Associate</t>
+          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,24 +555,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>97 applicants</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>66 applicants</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>147 applicants</t>
+          <t>148 applicants</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>55 applicants</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5392,22 +5392,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1329443</t>
+          <t>1329430</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329443</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329430</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Spa Therapist</t>
+          <t>[Impact Brazil] - Research and Development Lab Intern</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Weligama, Sri Lanka</t>
+          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Steradian Capital Investments</t>
+          <t>Nidec Global Appliance</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1329430</t>
+          <t>1329388</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329430</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329388</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Research and Development Lab Intern</t>
+          <t>Sales Intern Home Appliances</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5459,39 +5459,39 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Nidec Global Appliance</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1329388</t>
+          <t>1329177</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329388</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329177</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sales Intern Home Appliances</t>
+          <t>[Impact Porto Alegre] - Social Media Intern – Intercultural Engagement Program</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Porto Alegre, RS, Brazil</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5501,39 +5501,39 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>ESCOLA GIORDANO BRUNO LTDA</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1329177</t>
+          <t>1329104</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329177</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329104</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre] - Social Media Intern – Intercultural Engagement Program</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS, Brazil</t>
+          <t>Pannipitiya, Sri Lanka</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5543,39 +5543,39 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ESCOLA GIORDANO BRUNO LTDA</t>
+          <t>Frella International</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1329104</t>
+          <t>1329079</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329104</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329079</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>Accelerate Romania - YOUNG CIVIL &amp; GEOTECHNICAL ENGINEER</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Pannipitiya, Sri Lanka</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5585,39 +5585,39 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Frella International</t>
+          <t>Expert Proiect</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1329079</t>
+          <t>1328980</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329079</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328980</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Accelerate Romania - YOUNG CIVIL &amp; GEOTECHNICAL ENGINEER</t>
+          <t>Engineering Intern</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5637,24 +5637,24 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Expert Proiect</t>
+          <t>Tepma MEP Design</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1328980</t>
+          <t>1328974</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328980</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328974</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Engineering Intern</t>
+          <t>Youth Volleyball Assistant Coach</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>65 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5679,29 +5679,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tepma MEP Design</t>
+          <t>OK Roda</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1328974</t>
+          <t>1328856</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328974</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328856</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Youth Volleyball Assistant Coach</t>
+          <t>Accelerate Romania | Digital Marketing &amp; Community Manager</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Iași, Romania</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5721,29 +5721,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>OK Roda</t>
+          <t>Nouveaux</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1328856</t>
+          <t>1328845</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328856</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328845</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Digital Marketing &amp; Community Manager</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5753,39 +5753,39 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Nouveaux</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1328845</t>
+          <t>1328792</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328845</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328792</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Accelerate Romania - Marketing Specialist</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5795,39 +5795,39 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Vigilare biopharma Pvt Ltd</t>
+          <t>GIS Solutions</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1328792</t>
+          <t>1328781</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328792</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328781</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Marketing Specialist</t>
+          <t>Risk Trainee</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5837,39 +5837,39 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>GIS Solutions</t>
+          <t>Banesco Panamá</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1328781</t>
+          <t>1328774</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328781</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328774</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Risk Trainee</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Leiria, Portugal</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5879,39 +5879,39 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>77 applicants</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Banesco Panamá</t>
+          <t>Multidrive</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1328774</t>
+          <t>1328768</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328768</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Leiria, Portugal</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>77 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5931,24 +5931,24 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Multidrive</t>
+          <t>Dog Assist</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1328768</t>
+          <t>1328767</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328767</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Content Intern – Social Media &amp; Website</t>
+          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5973,24 +5973,24 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Dog Assist</t>
+          <t>Ave Visto</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1328767</t>
+          <t>1328766</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328766</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Digital Marketing &amp; Social Media Assistant</t>
+          <t>Accelerate Romania - Community Manager</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6015,24 +6015,24 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Ave Visto</t>
+          <t>ClujStartups</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1328766</t>
+          <t>1328765</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328766</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328765</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Community Manager</t>
+          <t>Accelerate Romania -Business Development Specialist</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6057,24 +6057,24 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>ClujStartups</t>
+          <t>MTD Technology</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1328765</t>
+          <t>1328762</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328762</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Accelerate Romania -Business Development Specialist</t>
+          <t>Accelerate - Marketing Specialist</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6099,29 +6099,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>MTD Technology</t>
+          <t>Emotionstudios</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1328762</t>
+          <t>1328761</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328762</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328761</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Accelerate - Marketing Specialist</t>
+          <t>Accelerate Romania - Online Marketing Intern</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6141,24 +6141,24 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Emotionstudios</t>
+          <t>Gads Online Marketing</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1328761</t>
+          <t>1328760</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328760</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Online Marketing Intern</t>
+          <t>Accelerate Romania - Sales Business Manager</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6190,22 +6190,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1328760</t>
+          <t>1328759</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328759</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Sales Business Manager</t>
+          <t>Accelerate Romania - Graphic Design</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6225,24 +6225,24 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Gads Online Marketing</t>
+          <t>ROTSA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1328759</t>
+          <t>1328758</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328759</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328758</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Graphic Design</t>
+          <t>Accelerate Romania - Business Development Associate</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6267,29 +6267,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ROTSA</t>
+          <t>Mejix</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1328758</t>
+          <t>1328749</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328758</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328749</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Business Development Associate</t>
+          <t>Samples Analyst</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6299,39 +6299,39 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>77 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mejix</t>
+          <t>Merck</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1328749</t>
+          <t>1328686</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328749</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328686</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Samples Analyst</t>
+          <t>Business Process Intern</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Coímbra, Portugal</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6341,39 +6341,39 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>76 applicants</t>
+          <t>96 applicants</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>Assis Business Partners</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1328686</t>
+          <t>1328630</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328686</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328630</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Business Process Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Coímbra, Portugal</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6383,29 +6383,29 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>96 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Assis Business Partners</t>
+          <t>Amaavi Luxe Travels</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1328630</t>
+          <t>1328629</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328630</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328629</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6425,12 +6425,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6442,17 +6442,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1328629</t>
+          <t>1328626</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328629</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328626</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Travel Advisory intern</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1328626</t>
+          <t>1328625</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328626</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328625</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,22 +6526,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1328625</t>
+          <t>1328614</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328625</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328614</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Travel Advisory intern</t>
+          <t>Field Service Engineer [EU Preferred]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6551,39 +6551,39 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>135 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Amaavi Luxe Travels</t>
+          <t>Mitsubishi Power Europe Sucursal en España</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1328614</t>
+          <t>1328566</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328614</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328566</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Field Service Engineer [EU Preferred]</t>
+          <t>HR Intern</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Santiago, Región Metropolitana, Chile</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>131 applicants</t>
+          <t>115 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6603,29 +6603,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Mitsubishi Power Europe Sucursal en España</t>
+          <t>Boehringer Ingelheim in Chile</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1328566</t>
+          <t>1328557</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328566</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328557</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>HR Intern</t>
+          <t>Arduino Developer</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Santiago, Región Metropolitana, Chile</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6635,34 +6635,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim in Chile</t>
+          <t>Techno square</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1328557</t>
+          <t>1328553</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328557</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328553</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Arduino Developer</t>
+          <t>Business developer</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6687,24 +6687,24 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Techno square</t>
+          <t>I.C.Robotics</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1328553</t>
+          <t>1328552</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328553</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328552</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Business developer</t>
+          <t>Mobile applicatio</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6729,24 +6729,24 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>I.C.Robotics</t>
+          <t>TAR - Company</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1328552</t>
+          <t>1328548</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328552</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328548</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mobile applicatio</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6778,17 +6778,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1328548</t>
+          <t>1328547</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328547</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>SEO</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6820,17 +6820,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1328547</t>
+          <t>1328545</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328547</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328545</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SEO</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1328545</t>
+          <t>1328543</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328545</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328543</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>UI/UX design</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6904,22 +6904,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1328543</t>
+          <t>1328537</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328543</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328537</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>UI/UX design</t>
+          <t>French Preschool Coordinator</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6939,24 +6939,24 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>TAR - Company</t>
+          <t>Talent School - October Gardens</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1328537</t>
+          <t>1328536</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328537</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328536</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>French Preschool Coordinator</t>
+          <t>English Preschool Coordinator</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6988,17 +6988,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1328536</t>
+          <t>1328534</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328534</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>English Preschool Coordinator</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7023,24 +7023,24 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Talent School - October Gardens</t>
+          <t>Think Advertising</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1328534</t>
+          <t>1328532</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328534</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328532</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Marketing Strategist &amp; Media Buyer</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7055,39 +7055,39 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Think Advertising</t>
+          <t>Al Mowared for Engineering works</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1328532</t>
+          <t>1328514</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328532</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328514</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Marketing Strategist &amp; Media Buyer</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7097,34 +7097,34 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Al Mowared for Engineering works</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1328514</t>
+          <t>1328510</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328514</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328510</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7156,22 +7156,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1328510</t>
+          <t>1328502</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328510</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328502</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7191,24 +7191,24 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>POP-UP Agency</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1328502</t>
+          <t>1328501</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328502</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328501</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Marketing &amp; Modeling Associate</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7233,113 +7233,113 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>POP-UP Agency</t>
+          <t>Ch Store</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1328501</t>
+          <t>1328491</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328501</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328491</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Marketing &amp; Modeling Associate</t>
+          <t>[EXP] Project Support Officer</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Maastricht, Netherlands</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>174 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ch Store</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1328491</t>
+          <t>1328465</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328491</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328465</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[EXP] Project Support Officer</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Maastricht, Netherlands</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>169 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>MechNova Engineering</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1328465</t>
+          <t>1328460</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328465</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328460</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Medical Advisor (Romanian Speaker)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7349,39 +7349,39 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>MechNova Engineering</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1328460</t>
+          <t>1328442</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328460</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328442</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Medical Advisor (Romanian Speaker)</t>
+          <t>Brand Ambassador</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>台灣臺北</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7391,39 +7391,39 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>104 applicants</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>Din Tai Fung Restaurant Co., Ltd.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1328442</t>
+          <t>1328441</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328442</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328441</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Brand Ambassador</t>
+          <t>Accelerate Romania | Italian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>台灣臺北</t>
+          <t>Iași, Romania</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7433,39 +7433,39 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Din Tai Fung Restaurant Co., Ltd.</t>
+          <t>Veo Wordwide Services - Iași</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1328441</t>
+          <t>1328376</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328441</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328376</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Italian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Export Manager Asistant</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>İzmir, Türkiye</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7475,39 +7475,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Veo Wordwide Services - Iași</t>
+          <t>BLACK LIGHT ELEKTRONIK SANAYI VE TICARET A.S.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1328376</t>
+          <t>1328367</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328376</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328367</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Export Manager Asistant</t>
+          <t>Interior Designer</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>İzmir, Türkiye</t>
+          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7527,24 +7527,24 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>BLACK LIGHT ELEKTRONIK SANAYI VE TICARET A.S.</t>
+          <t>ASG Engineering</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1328367</t>
+          <t>1328365</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328367</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328365</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Interior Designer</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7576,17 +7576,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1328365</t>
+          <t>1328363</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328365</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328363</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1328363</t>
+          <t>1328345</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328363</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328345</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Design Engineer</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7653,29 +7653,29 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>ASG Engineering</t>
+          <t>print shop</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1328345</t>
+          <t>1328306</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328345</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328306</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Design Engineer</t>
+          <t>Automotive Maintenance Technician</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7695,29 +7695,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>print shop</t>
+          <t>Automotive fleet services</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1328306</t>
+          <t>1328274</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328306</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328274</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Automotive Maintenance Technician</t>
+          <t>Web Designer</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Tunis, Tunisia</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7737,24 +7737,24 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Automotive fleet services</t>
+          <t>La fabrique</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1328274</t>
+          <t>1328273</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328274</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328273</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Web Designer</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7786,22 +7786,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1328273</t>
+          <t>1328250</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328273</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7811,39 +7811,39 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1328250</t>
+          <t>1328227</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Policy &amp; Advocacy Intern</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7853,34 +7853,34 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1328227</t>
+          <t>1328225</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Policy &amp; Advocacy Intern</t>
+          <t>Social Impact &amp; Sustainability Intern</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7912,22 +7912,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1328225</t>
+          <t>1328155</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Social Impact &amp; Sustainability Intern</t>
+          <t>Clinical Study Analyst Trainee</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7937,39 +7937,39 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1328155</t>
+          <t>1328131</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Clinical Study Analyst Trainee</t>
+          <t>Content Creation Intern</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Panchkula, Haryana, India</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,39 +7979,39 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Idea Clan</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1328131</t>
+          <t>1328130</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Content Creation Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Panchkula, Haryana, India</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8031,24 +8031,24 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Idea Clan</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1328130</t>
+          <t>1328115</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8080,22 +8080,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1328115</t>
+          <t>1328098</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Arabic Translator</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,39 +8105,39 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Pie Multilingual Services</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1328098</t>
+          <t>1328069</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328098</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Arabic Translator</t>
+          <t>Food &amp; Beverage - Intern</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8147,39 +8147,39 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Pie Multilingual Services</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1328069</t>
+          <t>1328051</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage - Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8199,29 +8199,29 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1328051</t>
+          <t>1328041</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>IT/ ERP System Developers (Odoo)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8241,29 +8241,29 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Epigro Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1328041</t>
+          <t>1328032</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328032</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>IT/ ERP System Developers (Odoo)</t>
+          <t>IT Analyst</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>2620 Ramada, Portugal</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,39 +8273,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Epigro Pvt Ltd</t>
+          <t>Pegadamotriz</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1328032</t>
+          <t>1328030</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328032</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328030</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>IT Analyst</t>
+          <t>[Remote] Software Application Support and Development</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2620 Ramada, Portugal</t>
+          <t>No location available</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8315,39 +8315,39 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Pegadamotriz</t>
+          <t>dJava Factory Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1328030</t>
+          <t>1328023</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328030</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328023</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[Remote] Software Application Support and Development</t>
+          <t>Marketing - Intern</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>No location available</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,34 +8357,34 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>dJava Factory Sdn Bhd</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1328023</t>
+          <t>1328021</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328023</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Marketing - Intern</t>
+          <t>Guest Relations Officer Intern</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8409,29 +8409,29 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>The Barn By Starbeans in Ella</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1328021</t>
+          <t>1328015</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Guest Relations Officer Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8451,24 +8451,24 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>The Barn By Starbeans in Ella</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1328015</t>
+          <t>1328013</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8500,17 +8500,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1328013</t>
+          <t>1327992</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Cloud Engineering Intern</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8542,22 +8542,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1327992</t>
+          <t>1327958</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cloud Engineering Intern</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8577,66 +8577,66 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1327958</t>
+          <t>1327951</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>Account Executive</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8651,39 +8651,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>Gipfel</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327949</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327949</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Taste Hungary | Football Data Analyst</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,39 +8693,39 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>124 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>ACE Advisory</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1327951</t>
+          <t>1327922</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327951</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8735,39 +8735,39 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Gipfel</t>
+          <t>Starbeans Ceylon (Pvt ) Ltd</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1327949</t>
+          <t>1327919</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327949</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Taste Hungary | Football Data Analyst</t>
+          <t>Customer Representative- Intern</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8777,39 +8777,39 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>123 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>ACE Advisory</t>
+          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1327922</t>
+          <t>1327909</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8829,29 +8829,29 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Starbeans Ceylon (Pvt ) Ltd</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1327919</t>
+          <t>1327904</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Customer Representative- Intern</t>
+          <t>UX Research Trainee</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8861,39 +8861,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>141 applicants</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1327909</t>
+          <t>1327889</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8903,39 +8903,39 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1327904</t>
+          <t>1327811</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>UX Research Trainee</t>
+          <t>Software Engineering Intern</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8945,39 +8945,39 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>141 applicants</t>
+          <t>130 applicants</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Envision Circle (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1327889</t>
+          <t>1327809</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Video editor</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8997,24 +8997,24 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Lines</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1327811</t>
+          <t>1327778</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327811</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Software Engineering Intern</t>
+          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9029,39 +9029,39 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>129 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Envision Circle (Pvt) Ltd</t>
+          <t>Solutions Ground (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1327809</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Video editor</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>El Sadat City, Menofia Governorate, Egypt</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9081,29 +9081,29 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Habib Agency</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1327778</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327778</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Digital Content &amp; Stakeholder Engagement Intern</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9113,39 +9113,39 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Solutions Ground (Pvt) Ltd</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327760</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Fashion Consultant</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9155,39 +9155,39 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327512</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>Research Intern | Biotech (Duplicated)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Aronj, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9197,39 +9197,39 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>FS University</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1327760</t>
+          <t>1327509</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Fashion Consultant</t>
+          <t>Language trainer and Operations Manager</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9244,34 +9244,34 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1327512</t>
+          <t>1327503</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327512</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Research Intern | Biotech (Duplicated)</t>
+          <t>Taste Hungary | Customer Service trainee</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Aronj, Uttar Pradesh, India</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9291,29 +9291,29 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FS University</t>
+          <t>JO&amp;JOE Budapest</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1327509</t>
+          <t>1327500</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327500</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Language trainer and Operations Manager</t>
+          <t>Intern/Junior Engineer</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Barendrecht, Nederland</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9323,39 +9323,39 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>184 applicants</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
+          <t>CTS Offshore and Marine BV</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1327503</t>
+          <t>1327497</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Taste Hungary | Customer Service trainee</t>
+          <t>SEO Specialist</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9375,29 +9375,29 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>JO&amp;JOE Budapest</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1327500</t>
+          <t>1327495</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327500</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Intern/Junior Engineer</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Barendrecht, Nederland</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>183 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9417,29 +9417,29 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>CTS Offshore and Marine BV</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1327497</t>
+          <t>1327336</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>SEO Specialist</t>
+          <t>Partnerships and Innovation Intern</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9449,39 +9449,39 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1327495</t>
+          <t>1327286</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327495</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Taxes &amp; Internal Control</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9501,29 +9501,29 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>NESTLÉ</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1327336</t>
+          <t>1327257</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Partnerships and Innovation Intern</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9533,39 +9533,39 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1327286</t>
+          <t>1327200</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327200</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Taxes &amp; Internal Control</t>
+          <t>Accelerate Serbia | Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Београд, Србија</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9575,39 +9575,39 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>94 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>NESTLÉ</t>
+          <t>Innventa Pharm</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1327257</t>
+          <t>1327187</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9617,39 +9617,39 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1327200</t>
+          <t>1327186</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327200</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Accelerate Serbia | Digital Marketing Specialist</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Београд, Србија</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9669,24 +9669,24 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Innventa Pharm</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1327187</t>
+          <t>1327185</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9718,17 +9718,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1327186</t>
+          <t>1327184</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Cyber Security Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9760,22 +9760,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1327185</t>
+          <t>1327183</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Çayırova, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9785,34 +9785,34 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1327184</t>
+          <t>1327181</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9844,22 +9844,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1327183</t>
+          <t>1327168</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>AI &amp; ML Intern</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Çayırova, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9879,29 +9879,29 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1327181</t>
+          <t>1327154</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Guest Relations and Service Captain</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9911,39 +9911,39 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1327168</t>
+          <t>1327149</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AI &amp; ML Intern</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9963,29 +9963,29 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Altria Consulting (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1327154</t>
+          <t>1327043</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Guest Relations and Service Captain</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9995,39 +9995,39 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1327149</t>
+          <t>1327042</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Data Engineering Intern</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10037,39 +10037,39 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Altria Consulting (PVT) LTD</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1327043</t>
+          <t>1326934</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326934</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Social media manager</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Alexandria, Alexandria Governorate, Egypt</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10089,29 +10089,29 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>Eagle Office for Services</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1327042</t>
+          <t>1326776</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10121,39 +10121,39 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1326934</t>
+          <t>1326767</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326934</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Social media manager</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Alexandria, Alexandria Governorate, Egypt</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10173,24 +10173,24 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Eagle Office for Services</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1326776</t>
+          <t>1326765</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10222,17 +10222,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1326767</t>
+          <t>1326761</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Civil Engineering Intern</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1326765</t>
+          <t>1326757</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Architectural Intern</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10306,17 +10306,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1326761</t>
+          <t>1326756</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Civil Engineering Intern</t>
+          <t>Electrical &amp; ML Intern</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10348,22 +10348,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1326757</t>
+          <t>1326741</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Architectural Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10383,29 +10383,29 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1326756</t>
+          <t>1326706</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Electrical &amp; ML Intern</t>
+          <t>Sales Customer Service Support</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10415,39 +10415,39 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>172 applicants</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Aytek Soğutma</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1326741</t>
+          <t>1326666</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Computer Engineering Intern</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10467,29 +10467,29 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Vigilare biopharma Pvt Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1326706</t>
+          <t>1326639</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Sales Customer Service Support</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10499,39 +10499,39 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>172 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aytek Soğutma</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1326666</t>
+          <t>1326538</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Computer Engineering Intern</t>
+          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Belo Horizonte, MG, Brasil</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10541,39 +10541,39 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>97 applicants</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Onfly</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1326639</t>
+          <t>1326473</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Pune, India</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10583,39 +10583,39 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Spidron Tech LLP</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1326538</t>
+          <t>1326423</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326538</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[Impact in Belo Horizonte] - Digital Marketing</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG, Brasil</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10625,39 +10625,39 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>97 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Onfly</t>
+          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1326473</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Pune, India</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10667,39 +10667,39 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>139 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Spidron Tech LLP</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1326423</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10709,39 +10709,39 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10751,34 +10751,34 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>138 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -10793,12 +10793,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -10810,17 +10810,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10835,12 +10835,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -10852,17 +10852,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10894,17 +10894,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10936,17 +10936,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10961,12 +10961,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -10978,17 +10978,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -11020,17 +11020,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -11062,17 +11062,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11104,17 +11104,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326198</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>AI and ML Intern</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -11129,12 +11129,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -11146,17 +11146,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11188,17 +11188,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1326198</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AI and ML Intern</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11213,12 +11213,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -11230,22 +11230,22 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11255,39 +11255,39 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>130 applicants</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1326081</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Sales &amp; Marketing</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11297,49 +11297,49 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>103 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>ASM Crane</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>130 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11349,29 +11349,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1326081</t>
+          <t>1325922</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326081</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing</t>
+          <t>Taste Hungary| Associate Technical Support - Polish</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11391,29 +11391,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>ASM Crane</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1325922</t>
+          <t>1325656</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Polish</t>
+          <t>Design Intern</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11433,29 +11433,29 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Rediffusion Brand Solutions Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1325656</t>
+          <t>1325528</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325528</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Design Intern</t>
+          <t>Accelerate Romania | Spanish-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Iași, Romania</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11475,19 +11475,19 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Rediffusion Brand Solutions Pvt Ltd</t>
+          <t>Veo Wordwide Services - Iași</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1325528</t>
+          <t>1325527</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325528</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325527</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Iași, Romania</t>
+          <t>Brașov, Romania</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11524,17 +11524,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1325527</t>
+          <t>1325525</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325527</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325525</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Spanish-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Accelerate Romania | Hungarian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11566,22 +11566,22 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1325525</t>
+          <t>1325524</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325525</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325524</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Hungarian-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Accelerate Romania | Turkish-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Brașov, Romania</t>
+          <t>Constanța, Romania</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11608,22 +11608,22 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1325524</t>
+          <t>1325464</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325524</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Turkish-Speaking Purchasing &amp; Negotiation Specialist (EU Citizenship Required)</t>
+          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Constanța, Romania</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11633,39 +11633,39 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Veo Wordwide Services - Iași</t>
+          <t>Azuvioo</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1325464</t>
+          <t>1325417</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
+          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11675,39 +11675,39 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>151 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Azuvioo</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1325417</t>
+          <t>1325405</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11717,34 +11717,34 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>151 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1325405</t>
+          <t>1325404</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11776,17 +11776,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1325404</t>
+          <t>1325403</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11818,22 +11818,22 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1325403</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -11843,39 +11843,39 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,39 +11885,39 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>165 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11927,39 +11927,39 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>164 applicants</t>
+          <t>65 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11969,39 +11969,39 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1324592</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>Digital marketing</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12011,39 +12011,39 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>Business Haven Consultancy</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1324592</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324592</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Digital marketing</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>New Damietta City, Damietta El-Gadeeda City, New Damietta, Damietta Governorate, Egypt</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12053,39 +12053,39 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Business Haven Consultancy</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1323774</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12095,39 +12095,39 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>HB Architecture</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1323774</t>
+          <t>1323761</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Sales representative</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12147,29 +12147,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>HB Architecture</t>
+          <t>Fekretk</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1323761</t>
+          <t>1323714</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323714</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Sales representative</t>
+          <t>Digital Marketing</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Mansoura, Mansoura Qism 2, El Mansoura, Dakahlia Governorate, Egypt</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12189,24 +12189,24 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Fekretk</t>
+          <t>Obras Descomplicadas Lda</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1323714</t>
+          <t>1323713</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323714</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>101 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12238,22 +12238,22 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1323713</t>
+          <t>1323480</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323480</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Mechanical Engineer Intern</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>77 applicants</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12273,24 +12273,24 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Obras Descomplicadas Lda</t>
+          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1323480</t>
+          <t>1323479</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323480</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323479</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Mechanical Engineer Intern</t>
+          <t>Electrical Engineer Intern</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>77 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12322,22 +12322,22 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1323479</t>
+          <t>1323478</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323479</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Electrical Engineer Intern</t>
+          <t>Sales Support Executive</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12347,39 +12347,39 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1323478</t>
+          <t>1323474</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Sales Support Executive</t>
+          <t>Computer Engineer Intern</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12389,59 +12389,59 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>401 applicants</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1323474</t>
+          <t>1323469</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323474</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Computer Engineer Intern</t>
+          <t>Infosys InStep PhD Internship</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>400 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>AESP MÜHENDİSLİK SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>138 applicants</t>
+          <t>139 applicants</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>121 applicants</t>
+          <t>122 applicants</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>91 applicants</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>87 applicants</t>
+          <t>88 applicants</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -14716,64 +14716,64 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>57 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1303857</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -14783,29 +14783,29 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>160 applicants</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1303857</t>
+          <t>1303853</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303857</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>160 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -14842,22 +14842,22 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1303853</t>
+          <t>1303804</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303853</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES / ABC TEKSTİL</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Pınarkent, 20180 Pamukkale/Denizli, Türkiye</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14867,39 +14867,39 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>78 applicants</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>ABC TEKSTİL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1303804</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -14914,34 +14914,34 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1296685</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296685</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>Đống Đa, Vietnam</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -14951,49 +14951,49 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>78 applicants</t>
+          <t>394 applicants</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>Vitex Vietnam Software Joint Stock Company</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1297124</t>
+          <t>1296457</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296457</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
+          <t>Export Sales Specialist in EUROTRAY Company</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Dilovası, Türkiye</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>172 applicants</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -15003,29 +15003,29 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Eurotray Metal Elektrik Company</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1296685</t>
+          <t>1295935</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1296685</t>
+          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Business Development/HD</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Đống Đa, Vietnam</t>
+          <t>Pamukkale, Türkiye</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -15035,39 +15035,39 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>394 applicants</t>
+          <t>210 applicants</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Vitex Vietnam Software Joint Stock Company</t>
+          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1296457</t>
+          <t>1293818</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1296457</t>
+          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Export Sales Specialist in EUROTRAY Company</t>
+          <t>Receptionist and Marketing  Intern</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Dilovası, Türkiye</t>
+          <t>Chalkidiki, Greece</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -15077,39 +15077,39 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>172 applicants</t>
+          <t>210 applicants</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik Company</t>
+          <t>Hotel Kriopigi</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1295935</t>
+          <t>1289379</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1295935</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Business Development/HD</t>
+          <t>Medical Advisor Portuguese Speaker</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Pamukkale, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>210 applicants</t>
+          <t>122 applicants</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -15129,29 +15129,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>HD Kauçuk Sanayi ve Tic. Anonim Şirketi</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1293818</t>
+          <t>1289378</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Receptionist and Marketing  Intern</t>
+          <t>Medical Advisor (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Chalkidiki, Greece</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -15161,34 +15161,34 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>210 applicants</t>
+          <t>127 applicants</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Hotel Kriopigi</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1289379</t>
+          <t>1289377</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Medical Advisor Portuguese Speaker</t>
+          <t>Medical Advisor (Italian Speaker)</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>122 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -15220,17 +15220,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1289378</t>
+          <t>1289375</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
+          <t>Medical Advisor (German Speaker)</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>127 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -15262,22 +15262,22 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1289377</t>
+          <t>1288548</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
+          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Medical Advisor (Italian Speaker)</t>
+          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Honaz, Türkiye</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>174 applicants</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -15297,29 +15297,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>ERGÜN ÖZEN MACHINA</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1289375</t>
+          <t>1288371</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
+          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Medical Advisor (German Speaker)</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -15329,7 +15329,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>158 applicants</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -15339,39 +15339,39 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>International Plus</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1288548</t>
+          <t>1284636</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288548</t>
+          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Market Researcher/Sales Assistant on Ergün Özen Machine</t>
+          <t>Taste Hungary | [EU Only] Junior Field Service Associate</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Honaz, Türkiye</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>174 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -15381,49 +15381,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>ERGÜN ÖZEN MACHINA</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>1288371</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>International Sales Manager</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Delhi, India</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>158 applicants</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1331082</t>
+          <t>1297124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331082</t>
+          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Taste Hungary|Junior Field Service Associate</t>
+          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,29 +513,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1284636</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>Taste Hungary|Junior Field Service Associate</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,29 +555,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1284636</t>
+          <t>1331094</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taste Hungary|Junior Field Service Associate</t>
+          <t>[GBS] Transportation Sourcing Assistant</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,29 +597,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1331094</t>
+          <t>1331082</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331082</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[GBS] Transportation Sourcing Assistant</t>
+          <t>Taste Hungary|Junior Field Service Associate</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>59 applicants</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>105 applicants</t>
+          <t>109 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>97 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>94 applicants</t>
+          <t>97 applicants</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>163 applicants</t>
+          <t>165 applicants</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>97 applicants</t>
+          <t>98 applicants</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>107 applicants</t>
+          <t>108 applicants</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>87 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>99 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>133 applicants</t>
+          <t>134 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6736,22 +6736,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1328015</t>
+          <t>1328021</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>Guest Relations Officer Intern</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>60 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6771,24 +6771,24 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>The Barn By Starbeans in Ella</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1328013</t>
+          <t>1328015</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6820,17 +6820,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1327992</t>
+          <t>1328013</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cloud Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6862,101 +6862,101 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1327992</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>Cloud Engineering Intern</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1327958</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327958</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6988,22 +6988,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1327949</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327949</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Taste Hungary | Football Data Analyst</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7013,17 +7013,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>131 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ACE Advisory</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>149 applicants</t>
+          <t>151 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7198,22 +7198,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1327779</t>
+          <t>1327889</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Business Development &amp; Foreign Trade Assistant</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7233,29 +7233,29 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>ATM Atılım Teknik Makine</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327809</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Video editor</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>94 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7275,29 +7275,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327779</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>Business Development &amp; Foreign Trade Assistant</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7317,29 +7317,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>ATM Atılım Teknik Makine</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1327760</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fashion Consultant</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7349,39 +7349,39 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>94 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1327509</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Language trainer and Operations Manager</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7401,29 +7401,29 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1327503</t>
+          <t>1327760</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Taste Hungary | Customer Service trainee</t>
+          <t>Fashion Consultant</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7433,39 +7433,39 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>74 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>JO&amp;JOE Budapest</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1327497</t>
+          <t>1327509</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SEO Specialist</t>
+          <t>Language trainer and Operations Manager</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7475,39 +7475,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1327381</t>
+          <t>1327503</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327503</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Product Management Intern</t>
+          <t>Taste Hungary | Customer Service trainee</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,39 +7517,39 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>117 applicants</t>
+          <t>75 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>JO&amp;JOE Budapest</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1327380</t>
+          <t>1327497</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Comunication Intern</t>
+          <t>SEO Specialist</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7559,39 +7559,39 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1327336</t>
+          <t>1327381</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Partnerships and Innovation Intern</t>
+          <t>Product Management Intern</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>117 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7611,29 +7611,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1327286</t>
+          <t>1327380</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Taxes &amp; Internal Control</t>
+          <t>Comunication Intern</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7643,39 +7643,39 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>108 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>NESTLÉ</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1327257</t>
+          <t>1327336</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Partnerships and Innovation Intern</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7685,39 +7685,39 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>86 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1327187</t>
+          <t>1327286</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>Taxes &amp; Internal Control</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7727,39 +7727,39 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>NESTLÉ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1327186</t>
+          <t>1327257</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cyber Security Intern</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7769,34 +7769,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>87 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1327185</t>
+          <t>1327187</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7828,17 +7828,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1327184</t>
+          <t>1327186</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7870,22 +7870,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1327183</t>
+          <t>1327185</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Çayırova, Kocaeli, Türkiye</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7895,34 +7895,34 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>97 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1327181</t>
+          <t>1327184</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7954,22 +7954,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1327168</t>
+          <t>1327183</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>AI &amp; ML Intern</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Çayırova, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>98 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7989,29 +7989,29 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1327156</t>
+          <t>1327181</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327156</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Security Master Domain Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Heerlen, Netherlands</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,39 +8021,39 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>95 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>APG Heerlen</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1327154</t>
+          <t>1327168</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Guest Relations and Service Captain</t>
+          <t>AI &amp; ML Intern</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8073,29 +8073,29 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1327149</t>
+          <t>1327156</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327156</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Data Engineering Intern</t>
+          <t>Security Master Domain Intern</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Heerlen, Netherlands</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,39 +8105,39 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>96 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Altria Consulting (PVT) LTD</t>
+          <t>APG Heerlen</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1327043</t>
+          <t>1327154</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Guest Relations and Service Captain</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8147,39 +8147,39 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1327042</t>
+          <t>1327149</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,39 +8189,39 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>85 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>Altria Consulting (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1326776</t>
+          <t>1327043</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8231,39 +8231,39 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1326767</t>
+          <t>1327042</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8283,24 +8283,24 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1326765</t>
+          <t>1326776</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8315,12 +8315,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8332,17 +8332,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1326761</t>
+          <t>1326767</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Civil Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8374,17 +8374,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1326757</t>
+          <t>1326765</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Architectural Intern</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8416,17 +8416,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1326756</t>
+          <t>1326761</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Electrical &amp; ML Intern</t>
+          <t>Civil Engineering Intern</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8458,22 +8458,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1326741</t>
+          <t>1326757</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Architectural Intern</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8493,29 +8493,29 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Vigilare biopharma Pvt Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1326706</t>
+          <t>1326756</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Sales Customer Service Support</t>
+          <t>Electrical &amp; ML Intern</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8525,39 +8525,39 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>176 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aytek Soğutma</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1326666</t>
+          <t>1326741</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Computer Engineering Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8577,29 +8577,29 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1326639</t>
+          <t>1326706</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Sales Customer Service Support</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8609,39 +8609,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>176 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Aytek Soğutma</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1326473</t>
+          <t>1326666</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Computer Engineering Intern</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Pune, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8651,39 +8651,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Spidron Tech LLP</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1326423</t>
+          <t>1326639</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8703,29 +8703,29 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1326310</t>
+          <t>1326473</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Back - End Developer</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Glyfada, Greece</t>
+          <t>Pune, India</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>295 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8745,29 +8745,29 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Validata Software</t>
+          <t>Spidron Tech LLP</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326423</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8777,39 +8777,39 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>141 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326310</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Back - End Developer</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Glyfada, Greece</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>295 applicants</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8829,29 +8829,29 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Validata Software</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8861,34 +8861,34 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>142 applicants</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8920,17 +8920,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8945,12 +8945,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8962,17 +8962,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -9004,17 +9004,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -9046,17 +9046,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9071,12 +9071,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9088,17 +9088,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9172,17 +9172,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9214,17 +9214,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1326198</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326198</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AI and ML Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9239,12 +9239,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9256,17 +9256,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9298,17 +9298,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9323,12 +9323,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9340,22 +9340,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9365,39 +9365,39 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>130 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1325922</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Polish</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>130 applicants</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9417,39 +9417,39 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1325846</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Digital Media Strategist - Long Term</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9459,29 +9459,29 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1325656</t>
+          <t>1325922</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Design Intern</t>
+          <t>Taste Hungary| Associate Technical Support - Polish</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9501,29 +9501,29 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Rediffusion Brand Solutions Pvt Ltd</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1325464</t>
+          <t>1325846</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
+          <t>Digital Media Strategist - Long Term</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9533,39 +9533,39 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Azuvioo</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1325405</t>
+          <t>1325656</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Design Intern</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9575,39 +9575,39 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Rediffusion Brand Solutions Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1325404</t>
+          <t>1325464</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9627,24 +9627,24 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Azuvioo</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1325403</t>
+          <t>1325405</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9676,22 +9676,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1325404</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9701,39 +9701,39 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1325297</t>
+          <t>1325403</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>International Sales Representetive Spanish Speaker</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9743,39 +9743,39 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1325118</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325118</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>IT Support Specialist (Flexible RE dates)</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Χολαργός, Ελλάδα</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9785,39 +9785,39 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>155 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>WizzIT</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1325297</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>International Sales Representetive Spanish Speaker</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9827,39 +9827,39 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>69 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9869,39 +9869,39 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>69 applicants</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9921,29 +9921,29 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1324106</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tourism Specialist - Intern</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9953,39 +9953,39 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1323774</t>
+          <t>1324106</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Tourism Specialist - Intern</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -10005,29 +10005,29 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>HB Architecture</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1323714</t>
+          <t>1323774</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323714</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Obras Descomplicadas Lda</t>
+          <t>HB Architecture</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>185 applicants</t>
+          <t>186 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>256 applicants</t>
+          <t>257 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>265 applicants</t>
+          <t>269 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>223 applicants</t>
+          <t>224 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12322,106 +12322,106 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1306000</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306000</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Indore, Madhya Pradesh, India</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Walkover Web Solutions</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1303804</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -12431,39 +12431,39 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1301868</t>
+          <t>1303804</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Alor Setar, Kedah, Malaysia</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12473,39 +12473,39 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>440 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Yonhin Sdn. Bhd</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1301868</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301868</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>Marketing Assistant</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>Alor Setar, Kedah, Malaysia</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12515,39 +12515,39 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>442 applicants</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>Yonhin Sdn. Bhd</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1301473</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301473</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist in Istanbul</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>80 applicants</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12567,39 +12567,39 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Raff Textile</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1297124</t>
+          <t>1301473</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301473</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
+          <t>Digital Marketing Specialist in Istanbul</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Raff Textile</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>174 applicants</t>
+          <t>175 applicants</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1328588</t>
+          <t>1331082</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328588</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331082</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>My Way​ Operations &amp; Innovation Coordinator​ 2026-2027</t>
+          <t>Taste Hungary|Junior Field Service Associate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40 Düsseldorf, Germany</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,29 +513,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PwC Global Partnership</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1331094</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>[GBS] Transportation Sourcing Assistant</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>62 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,19 +555,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1331082</t>
+          <t>1284636</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331082</t>
+          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>103 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -604,22 +604,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1331124</t>
+          <t>1331155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331124</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MARKETING ASSISTANT ANIMAL HEALTH</t>
+          <t>Co-Manufacturing Trainee</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Santiago de Chile, Región Metropolitana, Chile</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,71 +639,71 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim in Chile</t>
+          <t>NESTLE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1331094</t>
+          <t>1331153</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331153</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[GBS] Transportation Sourcing Assistant</t>
+          <t>[Impact Brazil] - GTM Engineer Intern</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>São Paulo, SP, Brasil</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Ecomiles</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1331078</t>
+          <t>1331124</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331078</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Videography Intern – Cinematic Social Media</t>
+          <t>MARKETING ASSISTANT ANIMAL HEALTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Santiago de Chile, Región Metropolitana, Chile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -713,39 +713,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Reload snacks pvt ltd</t>
+          <t>Boehringer Ingelheim in Chile</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1331015</t>
+          <t>1331110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Sousse, Tunisie</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Maksan Lift</t>
+          <t>Next Round</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1331005</t>
+          <t>1331109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331005</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331109</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Industrial Engineer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Istanbul, İstanbul, Türkiye</t>
+          <t>Sousse, Tunisie</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,34 +797,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Unixpadel</t>
+          <t>Next Round</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1330962</t>
+          <t>1331101</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330962</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -856,22 +856,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1330867</t>
+          <t>1331078</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330867</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331078</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Social Media Director</t>
+          <t>Videography Intern – Cinematic Social Media</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,39 +881,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
+          <t>Reload snacks pvt ltd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1330859</t>
+          <t>1331055</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330859</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331055</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Repair technician</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
+          <t>Hammam Sousse, Tunisie</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,39 +923,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
+          <t>MOBYSTORE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1330856</t>
+          <t>1331015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330856</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Business Development Intern  (Long Term)</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,39 +965,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Chughtaiz</t>
+          <t>Maksan Lift</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1330854</t>
+          <t>1331005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330854</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Digital Production and e-commerce and Digital Assistance</t>
+          <t>Industrial Engineer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Αθήνα, Ελλάδα</t>
+          <t>Istanbul, İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,39 +1007,39 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nanodomi</t>
+          <t>Unixpadel</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1330851</t>
+          <t>1330962</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330851</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330962</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Sousse, Tunisie</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,39 +1049,39 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Chughtaiz</t>
+          <t>Business 360</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1330823</t>
+          <t>1330867</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330823</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330867</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Marketing &amp; SEO Intern</t>
+          <t>Social Media Director</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maschinenbau</t>
+          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1330822</t>
+          <t>1330859</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330822</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330859</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Web Development Intern</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1143,29 +1143,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maschinenbau</t>
+          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1330821</t>
+          <t>1330856</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330821</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330856</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Foreign Trade Expert</t>
+          <t>Business Development Intern  (Long Term)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Esenyurt, Balıkyolu, 34510 Esenyurt/İstanbul, Türkiye</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1185,29 +1185,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Yelken Kalıp Pencere &amp;Kapı AKS. ve MET. SAN. TİC. AŞ.</t>
+          <t>Chughtaiz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1330755</t>
+          <t>1330854</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330755</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330854</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Export Specialist</t>
+          <t>Digital Production and e-commerce and Digital Assistance</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Αθήνα, Ελλάδα</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,39 +1217,39 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ŞÖLEN MEDİKAL GIDA TEMİZLİK İNŞAAT LİMİTED ŞİRKETİ</t>
+          <t>Nanodomi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1330719</t>
+          <t>1330851</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330719</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Junior HR</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Islamabad, Pakistan</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,39 +1259,39 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Enigma Software Solutions</t>
+          <t>Chughtaiz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1330718</t>
+          <t>1330823</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330718</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330823</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Social Media Executive</t>
+          <t>Accelerate Romania | Marketing &amp; SEO Intern</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Islamabad, Pakistan</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1311,29 +1311,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Roshan Studios</t>
+          <t>Maschinenbau</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1330709</t>
+          <t>1330822</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330709</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330822</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Export Specialist</t>
+          <t>Accelerate Romania | Web Development Intern</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,39 +1343,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>63 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Anıl Yatağanlı A.Ş</t>
+          <t>Maschinenbau</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1330696</t>
+          <t>1330821</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330696</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330821</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Producer</t>
+          <t>Foreign Trade Expert</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6th of October City, Giza Governorate, Egypt</t>
+          <t>Esenyurt, Balıkyolu, 34510 Esenyurt/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Digitology</t>
+          <t>Yelken Kalıp Pencere &amp;Kapı AKS. ve MET. SAN. TİC. AŞ.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1330695</t>
+          <t>1330755</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330695</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330755</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Export Specialist</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6th of October City, Giza Governorate, Egypt</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Digitology</t>
+          <t>ŞÖLEN MEDİKAL GIDA TEMİZLİK İNŞAAT LİMİTED ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1330684</t>
+          <t>1330719</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330684</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330719</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Account Management Business Process Analyst</t>
+          <t>Junior HR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Islamabad, Pakistan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,39 +1469,39 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>G4S Panamá</t>
+          <t>Enigma Software Solutions</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1330682</t>
+          <t>1330718</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330682</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330718</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Web Master</t>
+          <t>Social Media Executive</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
+          <t>Islamabad, Pakistan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1521,29 +1521,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
+          <t>Roshan Studios</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1330658</t>
+          <t>1330709</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330658</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330709</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Export Specialist</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,39 +1553,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Talent Trellis</t>
+          <t>Anıl Yatağanlı A.Ş</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1330657</t>
+          <t>1330696</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330657</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330696</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Producer</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>6th of October City, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1605,29 +1605,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Talent Trellis</t>
+          <t>Digitology</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1330655</t>
+          <t>1330695</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330655</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330695</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Software Engineer Ruby on Rails/React/Flutter/AI/ML</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>6th of October City, Giza Governorate, Egypt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1647,29 +1647,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arkhitech</t>
+          <t>Digitology</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1330654</t>
+          <t>1330684</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330654</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330684</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>Account Management Business Process Analyst</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1679,39 +1679,39 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Arkhitech</t>
+          <t>G4S Panamá</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1330653</t>
+          <t>1330682</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330653</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330682</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Web Master</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lahore, Pakistan</t>
+          <t>Başakşehir, Başak, 34490 Başakşehir/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1731,29 +1731,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Arkhitech</t>
+          <t>Esen Isıtma Soğutma Elektrik İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1330646</t>
+          <t>1330658</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330646</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330658</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Μαρούσι, Ελλάδα</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>66 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1773,29 +1773,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Inventio</t>
+          <t>Talent Trellis</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1330644</t>
+          <t>1330657</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330644</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330657</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Μαρούσι, Ελλάδα</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1815,29 +1815,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Inventio</t>
+          <t>Talent Trellis</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1330643</t>
+          <t>1330655</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330643</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330655</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Market Data Management</t>
+          <t>Software Engineer Ruby on Rails/React/Flutter/AI/ML</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Heerlen, Netherlands</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1847,39 +1847,39 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>115 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>APG Heerlen</t>
+          <t>Arkhitech</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1330641</t>
+          <t>1330654</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330641</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330654</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Travel Guide/Consultant</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mehrauli, Delhi, India</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1889,39 +1889,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GeTS Holidays Private Limited</t>
+          <t>Arkhitech</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1330581</t>
+          <t>1330653</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330581</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330653</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Procurement Intern</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Lahore, Pakistan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1931,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Red Bull Panamá</t>
+          <t>Arkhitech</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1330558</t>
+          <t>1330646</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330558</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330646</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Μαρούσι, Ελλάδα</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1983,29 +1983,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Barq</t>
+          <t>Inventio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1330536</t>
+          <t>1330644</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330644</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[IMPACT FORTALEZA] INSIDE SALES</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Castanhal, PA, Brasil</t>
+          <t>Μαρούσι, Ελλάδα</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Petruz Fruity</t>
+          <t>Inventio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1330447</t>
+          <t>1330643</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330447</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330643</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Market Data Management</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Aveiro, Portugal</t>
+          <t>Heerlen, Netherlands</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,39 +2057,39 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>119 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Inforlandia</t>
+          <t>APG Heerlen</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1330421</t>
+          <t>1330641</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330421</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330641</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Digital Marketing &amp; Market Research Specialist</t>
+          <t>Travel Guide/Consultant</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Mehrauli, Delhi, India</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>0 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>InnovatorSpark</t>
+          <t>GeTS Holidays Private Limited</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1330419</t>
+          <t>1330581</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330419</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330581</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Digital Technology Application Services (ONLY EU)</t>
+          <t>Procurement Intern</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2151,29 +2151,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Red Bull Panamá</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1330415</t>
+          <t>1330558</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330415</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330558</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Digital Technology Training ( EU ONLY)</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2183,39 +2183,39 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Barq</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1330393</t>
+          <t>1330536</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330393</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330536</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[Impact in Belo Horizonte] - Business Development</t>
+          <t>[IMPACT FORTALEZA] INSIDE SALES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG, Brasil</t>
+          <t>Castanhal, PA, Brasil</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,29 +2235,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Group Tech Participações LTDA</t>
+          <t>Petruz Fruity</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1330392</t>
+          <t>1330421</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330392</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330421</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PMO Management Board</t>
+          <t>Digital Marketing &amp; Market Research Specialist</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2267,39 +2267,39 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BIMBO Panama</t>
+          <t>InnovatorSpark</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1330365</t>
+          <t>1330419</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330365</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330419</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Creative Styling &amp; Brand Experience Intern</t>
+          <t>Digital Technology Application Services (ONLY EU)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,39 +2309,39 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>31 applicants</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1330306</t>
+          <t>1330415</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330306</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330415</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Neuro-Marketing &amp; Communications Intern</t>
+          <t>Digital Technology Training ( EU ONLY)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2351,39 +2351,39 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Amoux Group</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1330294</t>
+          <t>1330393</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330294</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330393</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[Impact Brazil] - Industrial Engineering Intern</t>
+          <t>[Impact in Belo Horizonte] - Business Development</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
+          <t>Belo Horizonte, MG, Brasil</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,39 +2393,39 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Nidec Global Appliance</t>
+          <t>Group Tech Participações LTDA</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1330293</t>
+          <t>1330392</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330293</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330392</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Guest Relations Manager - Taj Hotels</t>
+          <t>PMO Management Board</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>52 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Taj Mahal Hotels &amp; Tower</t>
+          <t>BIMBO Panama</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1330287</t>
+          <t>1330365</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330287</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330365</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Spanish Speaker Sales Manager</t>
+          <t>Creative Styling &amp; Brand Experience Intern</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Niğde, Niğde Merkez/Niğde, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,39 +2477,39 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Nuhoğlu Bakır</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1330251</t>
+          <t>1330306</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330251</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330306</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Customer Care Specialist with German [EU Only]</t>
+          <t>Neuro-Marketing &amp; Communications Intern</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sofía, Bulgaria</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2519,39 +2519,39 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>dormakaba</t>
+          <t>Amoux Group</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1330246</t>
+          <t>1330294</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330246</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330294</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>[Impact Brazil] - Industrial Engineering Intern</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
+          <t>Joinville - Pirabeiraba, Joinville - SC, Brasil</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,39 +2561,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>42 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Safarni</t>
+          <t>Nidec Global Appliance</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1330230</t>
+          <t>1330293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330230</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330293</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Interior Designer</t>
+          <t>Guest Relations Manager - Taj Hotels</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2603,39 +2603,39 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Augustn</t>
+          <t>Taj Mahal Hotels &amp; Tower</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1330202</t>
+          <t>1330287</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330287</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Multimedia Ai Designer</t>
+          <t>Spanish Speaker Sales Manager</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Niğde, Niğde Merkez/Niğde, Türkiye</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2645,39 +2645,39 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Beyond Creative</t>
+          <t>Nuhoğlu Bakır</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1330185</t>
+          <t>1330251</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330185</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330251</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Front-End Web Developer</t>
+          <t>Customer Care Specialist with German [EU Only]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ciudad Juárez, Chihuahua, Mexico</t>
+          <t>Sofía, Bulgaria</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2687,39 +2687,39 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>EP&amp;O Corporation</t>
+          <t>dormakaba</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1330174</t>
+          <t>1330246</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330174</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330246</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Sales Specialist</t>
+          <t>Mobile Developer</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Tanta, Tanta Qism 2, Tanta, Gharbia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Hibyte</t>
+          <t>Safarni</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1330157</t>
+          <t>1330230</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330230</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sustainability Outreach &amp; Community Development Specialist</t>
+          <t>Interior Designer</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Krishna Sadan</t>
+          <t>Augustn</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1330155</t>
+          <t>1330185</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330185</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Content Creation and Cultural Ambassador Intern</t>
+          <t>Front-End Web Developer</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Ciudad Juárez, Chihuahua, Mexico</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2813,39 +2813,39 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
+          <t>EP&amp;O Corporation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1330154</t>
+          <t>1330174</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330174</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Content Creation and Cultural Ambassador Intern</t>
+          <t>Accelerate Romania | Sales Specialist</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2865,29 +2865,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
+          <t>Hibyte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1330126</t>
+          <t>1330157</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330157</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Social Media Marketing</t>
+          <t>Sustainability Outreach &amp; Community Development Specialist</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2907,29 +2907,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>StayWell</t>
+          <t>Krishna Sadan</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1330102</t>
+          <t>1330155</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330155</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
+          <t>Content Creation and Cultural Ambassador Intern</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Timișoara, Romania</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Vectron</t>
+          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1330067</t>
+          <t>1330154</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330154</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Associate Program Manager (Eu Citizen Only)</t>
+          <t>Content Creation and Cultural Ambassador Intern</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2981,39 +2981,39 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>The Synergist</t>
+          <t>Sunrise Immigration Consultants Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1330036</t>
+          <t>1330126</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330126</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Structural engineer</t>
+          <t>Social Media Marketing</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>83 applicants</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3033,29 +3033,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Welt Inzenjering</t>
+          <t>StayWell</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1330033</t>
+          <t>1330102</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330102</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Design development assistance</t>
+          <t>Accelerate Romania | Business Development Intern – External Expansion (POS) [GERMANY &amp; ITALY ONLY]</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Timișoara, Romania</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3075,29 +3075,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>IWA CONSALT DOO</t>
+          <t>Vectron</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1329997</t>
+          <t>1330067</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329997</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330067</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Recruitment Consultant</t>
+          <t>Associate Program Manager (Eu Citizen Only)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Prague, Czechia</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>97 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3117,29 +3117,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Non Stop Consulting</t>
+          <t>The Synergist</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1329978</t>
+          <t>1330036</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329978</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330036</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Mechanical engineer</t>
+          <t>[Accelerate Serbia] Structural engineer</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sibiu, Romania</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3159,29 +3159,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>NET.Engineering</t>
+          <t>Welt Inzenjering</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1329929</t>
+          <t>1330033</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329929</t>
+          <t>https://aiesec.org/opportunity/global-talent/1330033</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MARKETING &amp; SALES</t>
+          <t>[Accelerate Serbia] Design development assistance</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3191,39 +3191,39 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>DOĞAN İNŞ.MLZM.HAFR.NAK.İŞ MAK.SAN.VE TİC.LTD.ŞTİ.</t>
+          <t>IWA CONSALT DOO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1329876</t>
+          <t>1329997</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329876</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329997</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre] - Import and Product Development Intern (Mandarin Chinese Speaker)</t>
+          <t>Recruitment Consultant</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS, Brazil</t>
+          <t>Prague, Czechia</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>99 applicants</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3243,29 +3243,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Asialink - International Commerce</t>
+          <t>Non Stop Consulting</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1329871</t>
+          <t>1329978</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329871</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329978</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Accelerate Romania - Mechanical engineer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mayur Vihar, Delhi, India</t>
+          <t>Sibiu, Romania</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3275,39 +3275,39 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Credifin Limited</t>
+          <t>NET.Engineering</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1329869</t>
+          <t>1329929</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329869</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329929</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Marketing and Strategy Intern</t>
+          <t>MARKETING &amp; SALES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mayur Vihar, Delhi, India</t>
+          <t>Denizli, Kumkısık, Denizli, Türkiye</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3317,39 +3317,39 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Credifin Limited</t>
+          <t>DOĞAN İNŞ.MLZM.HAFR.NAK.İŞ MAK.SAN.VE TİC.LTD.ŞTİ.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1329810</t>
+          <t>1329876</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329810</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329876</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[IMPACT FORTALEZA] Business Development - Marketplace Specialst</t>
+          <t>[Impact Porto Alegre] - Import and Product Development Intern (Mandarin Chinese Speaker)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fortaleza - Zone 1, Fortaleza - Ceará, Brasil</t>
+          <t>Porto Alegre, RS, Brazil</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3369,29 +3369,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MAKRO MOVEIS E EQUIPAMENTOS MODULADOS LTDA</t>
+          <t>Asialink - International Commerce</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1329765</t>
+          <t>1329871</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329871</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sales Responsible</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ürgüp, Nevşehir, Türkiye</t>
+          <t>Mayur Vihar, Delhi, India</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3401,39 +3401,39 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Pink Lotus Jewellery</t>
+          <t>Credifin Limited</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1329703</t>
+          <t>1329869</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329703</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329869</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Social Media Manager</t>
+          <t>Marketing and Strategy Intern</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Mayur Vihar, Delhi, India</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3443,39 +3443,39 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Minds Club</t>
+          <t>Credifin Limited</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1329697</t>
+          <t>1329810</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329697</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329810</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Interior architect</t>
+          <t>[IMPACT FORTALEZA] Business Development - Marketplace Specialst</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sfax, Tunisie</t>
+          <t>Fortaleza - Zone 1, Fortaleza - Ceará, Brasil</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3485,39 +3485,39 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FacePro</t>
+          <t>MAKRO MOVEIS E EQUIPAMENTOS MODULADOS LTDA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1329674</t>
+          <t>1329765</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329674</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Digital Marketer</t>
+          <t>Sales Responsible</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Gabès, Tunisie</t>
+          <t>Ürgüp, Nevşehir, Türkiye</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3527,39 +3527,39 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>86 applicants</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ESSAT Privée</t>
+          <t>Pink Lotus Jewellery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1329669</t>
+          <t>1329703</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329669</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329703</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Electrical engineer</t>
+          <t>Social Media Manager</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Monastir, Tunisia</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3579,29 +3579,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>B.E.I.C</t>
+          <t>Minds Club</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1329667</t>
+          <t>1329697</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329667</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329697</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mechanical engineer</t>
+          <t>Interior architect</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Monastir, Tunisia</t>
+          <t>Sfax, Tunisie</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3621,29 +3621,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>B.E.I.C</t>
+          <t>FacePro</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1329657</t>
+          <t>1329674</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329657</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329674</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sales and Marketing Specialist</t>
+          <t>Digital Marketer</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Gabès, Tunisie</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>52 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3663,29 +3663,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Metaform</t>
+          <t>ESSAT Privée</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1329656</t>
+          <t>1329669</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329669</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Electrical engineer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Monastir, Tunisia</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>169 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3705,29 +3705,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Metaform</t>
+          <t>B.E.I.C</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1329595</t>
+          <t>1329667</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329595</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329667</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>Mechanical engineer</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Adana, Reşatbey, Seyhan/Adana, Türkiye</t>
+          <t>Monastir, Tunisia</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3737,39 +3737,39 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>73 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>PROPER PERLİT</t>
+          <t>B.E.I.C</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1329594</t>
+          <t>1329657</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329594</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329657</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Sales and Marketing Specialist</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Gabès, Tunisie</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>52 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3789,29 +3789,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Studio NAUVI</t>
+          <t>Metaform</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1329569</t>
+          <t>1329656</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329569</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329656</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Accelerate Romania - Map Design Assistant for Unity Casual Game</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>172 applicants</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3831,29 +3831,29 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Trafiki</t>
+          <t>Metaform</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1329565</t>
+          <t>1329595</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329565</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329595</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sfax, Tunisia</t>
+          <t>Adana, Reşatbey, Seyhan/Adana, Türkiye</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3863,39 +3863,39 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>73 applicants</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SRTC Country tunisia city sfax</t>
+          <t>PROPER PERLİT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1329557</t>
+          <t>1329594</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329557</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329594</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Swedish</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Gabès, Tunisie</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3905,39 +3905,39 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Studio NAUVI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1329556</t>
+          <t>1329565</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329556</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329565</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Dutch</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Budapeste, Hungria</t>
+          <t>Sfax, Tunisia</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3947,34 +3947,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>SRTC Country tunisia city sfax</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1329555</t>
+          <t>1329557</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329555</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329557</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Czech</t>
+          <t>Taste Hungary| Associate Technical Support - Swedish</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4006,22 +4006,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1329458</t>
+          <t>1329556</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329458</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329556</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Taste Hungary| Associate Technical Support - Dutch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4031,39 +4031,39 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Media3 Training</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1329457</t>
+          <t>1329555</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329457</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329555</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BA Intern</t>
+          <t>Taste Hungary| Associate Technical Support - Czech</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Visakhapatnam, Andhra Pradesh, India</t>
+          <t>Budapeste, Hungria</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4073,39 +4073,39 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Media3 Training</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1329388</t>
+          <t>1329458</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329388</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329458</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sales Intern Home Appliances</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4115,39 +4115,39 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
+          <t>Media3 Training</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1329367</t>
+          <t>1329457</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329367</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329457</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sales Development Intern</t>
+          <t>BA Intern</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Navi Mumbai, Maharashtra, India</t>
+          <t>Visakhapatnam, Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4157,39 +4157,39 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>AHY CONSULTING LLP</t>
+          <t>Media3 Training</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1329279</t>
+          <t>1329388</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329279</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329388</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Markets Commercial Ops trainee</t>
+          <t>Sales Intern Home Appliances</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>110 applicants</t>
+          <t>100 applicants</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4209,29 +4209,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Samsung Electronics Latinoamérica (Zona Libre) S.A (SELA)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1329177</t>
+          <t>1329367</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329177</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329367</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[Impact Porto Alegre] - Social Media Intern – Intercultural Engagement Program</t>
+          <t>Sales Development Intern</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS, Brazil</t>
+          <t>Navi Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4241,39 +4241,39 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>ESCOLA GIORDANO BRUNO LTDA</t>
+          <t>AHY CONSULTING LLP</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1329104</t>
+          <t>1329279</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329104</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329279</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>Markets Commercial Ops trainee</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Pannipitiya, Sri Lanka</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>110 applicants</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4293,29 +4293,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Frella International</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1329079</t>
+          <t>1329177</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1329079</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329177</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Accelerate Romania - YOUNG CIVIL &amp; GEOTECHNICAL ENGINEER</t>
+          <t>[Impact Porto Alegre] - Social Media Intern – Intercultural Engagement Program</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cluj-Napoca, Romania</t>
+          <t>Porto Alegre, RS, Brazil</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4335,29 +4335,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Expert Proiect</t>
+          <t>ESCOLA GIORDANO BRUNO LTDA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1328980</t>
+          <t>1329104</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328980</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329104</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Engineering Intern</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Pannipitiya, Sri Lanka</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4367,39 +4367,39 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tepma MEP Design</t>
+          <t>Frella International</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1328974</t>
+          <t>1329079</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328974</t>
+          <t>https://aiesec.org/opportunity/global-talent/1329079</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Youth Volleyball Assistant Coach</t>
+          <t>Accelerate Romania - YOUNG CIVIL &amp; GEOTECHNICAL ENGINEER</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Cluj-Napoca, Romania</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>OK Roda</t>
+          <t>Expert Proiect</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>93 applicants</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>31 applicants</t>
+          <t>32 applicants</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>102 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>145 applicants</t>
+          <t>146 applicants</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>114 applicants</t>
+          <t>115 applicants</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6400,22 +6400,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1328155</t>
+          <t>1328206</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328206</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Clinical Study Analyst Trainee</t>
+          <t>Power BI Specialist</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Frankfurt am Main, Deutschland</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6425,39 +6425,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>193 applicants</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Greyfood GmbH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1328131</t>
+          <t>1328155</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Content Creation Intern</t>
+          <t>Clinical Study Analyst Trainee</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Panchkula, Haryana, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6467,39 +6467,39 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>89 applicants</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Idea Clan</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1328130</t>
+          <t>1328131</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Content Creation Intern</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Panchkula, Haryana, India</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6519,24 +6519,24 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Idea Clan</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1328115</t>
+          <t>1328130</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6568,22 +6568,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1328069</t>
+          <t>1328115</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage - Intern</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6603,29 +6603,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1328051</t>
+          <t>1328069</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Food &amp; Beverage - Intern</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6645,29 +6645,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1328041</t>
+          <t>1328051</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>IT/ ERP System Developers (Odoo)</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6687,29 +6687,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Epigro Pvt Ltd</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1328032</t>
+          <t>1328041</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328032</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>IT Analyst</t>
+          <t>IT/ ERP System Developers (Odoo)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2620 Ramada, Portugal</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6719,17 +6719,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Pegadamotriz</t>
+          <t>Epigro Pvt Ltd</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>75 applicants</t>
+          <t>76 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>118 applicants</t>
+          <t>121 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>109 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>98 applicants</t>
+          <t>99 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>100 applicants</t>
+          <t>102 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>297 applicants</t>
+          <t>298 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -9508,32 +9508,32 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1325922</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Polish</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9543,29 +9543,29 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1325846</t>
+          <t>1325922</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Digital Media Strategist - Long Term</t>
+          <t>Taste Hungary| Associate Technical Support - Polish</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9585,29 +9585,29 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1325656</t>
+          <t>1325846</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325846</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Design Intern</t>
+          <t>Digital Media Strategist - Long Term</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9627,29 +9627,29 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Rediffusion Brand Solutions Pvt Ltd</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1325464</t>
+          <t>1325656</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325656</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
+          <t>Design Intern</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Mumbai, Maharashtra, India</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9659,39 +9659,39 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Azuvioo</t>
+          <t>Rediffusion Brand Solutions Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1325417</t>
+          <t>1325464</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
+          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9701,39 +9701,39 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>155 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Azuvioo</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1325405</t>
+          <t>1325417</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9743,34 +9743,34 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>155 applicants</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1325404</t>
+          <t>1325405</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9802,17 +9802,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1325403</t>
+          <t>1325404</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9844,22 +9844,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1325403</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9869,39 +9869,39 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1325297</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>International Sales Representetive Spanish Speaker</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9911,39 +9911,39 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1325297</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>International Sales Representetive Spanish Speaker</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>170 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9963,29 +9963,29 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9995,39 +9995,39 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>170 applicants</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10037,39 +10037,39 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10089,29 +10089,29 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1324106</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Tourism Specialist - Intern</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10121,39 +10121,39 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1323774</t>
+          <t>1324106</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Tourism Specialist - Intern</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10173,29 +10173,29 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>HB Architecture</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1323713</t>
+          <t>1323774</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10215,29 +10215,29 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Obras Descomplicadas Lda</t>
+          <t>HB Architecture</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1323507</t>
+          <t>1323713</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323507</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10247,34 +10247,34 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>Obras Descomplicadas Lda</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1323506</t>
+          <t>1323507</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323506</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323507</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10306,17 +10306,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1323504</t>
+          <t>1323506</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323504</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323506</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Management Trainee Officer</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10348,17 +10348,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1323503</t>
+          <t>1323504</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323504</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Customer Support Engineer</t>
+          <t>Management Trainee Officer</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10390,22 +10390,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1323478</t>
+          <t>1323503</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323503</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sales Support Executive</t>
+          <t>Customer Support Engineer</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>38 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10425,113 +10425,113 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1323469</t>
+          <t>1323478</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Infosys InStep PhD Internship</t>
+          <t>Sales Support Executive</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1323468</t>
+          <t>1323469</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323468</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Sales Account Manager</t>
+          <t>Infosys InStep PhD Internship</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>56 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1323391</t>
+          <t>1323468</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323391</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323468</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Business Development Officer</t>
+          <t>Sales Account Manager</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10551,29 +10551,29 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1323373</t>
+          <t>1323391</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323391</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Business Development Officer</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10583,39 +10583,39 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1323077</t>
+          <t>1323373</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Pharmacy Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10635,29 +10635,29 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1322916</t>
+          <t>1323077</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Film Making / Video Editing Intern</t>
+          <t>Pharmacy Intern</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10677,24 +10677,24 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1322914</t>
+          <t>1322916</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>AI Agent Experience Specialist</t>
+          <t>Film Making / Video Editing Intern</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10726,22 +10726,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1322886</t>
+          <t>1322914</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Customer Representative</t>
+          <t>AI Agent Experience Specialist</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10751,39 +10751,39 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>136 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1322690</t>
+          <t>1322886</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Business Development Representative</t>
+          <t>Customer Representative</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10793,39 +10793,39 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>136 applicants</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Travelr</t>
+          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1322494</t>
+          <t>1322690</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Business Development Representative</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10835,34 +10835,34 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>91 applicants</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Travelr</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1322343</t>
+          <t>1322494</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322343</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Electronics and Electrical Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10894,22 +10894,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1322239</t>
+          <t>1322343</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322343</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Marketing and Customer Support</t>
+          <t>Electronics and Electrical Intern</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Ηράκλειο, Ελλάδα</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10919,39 +10919,39 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>125 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>upsell</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1322114</t>
+          <t>1322239</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322114</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Marketing and Customer Support</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Ηράκλειο, Ελλάδα</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10961,39 +10961,39 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Fathalla &amp; co</t>
+          <t>upsell</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1321910</t>
+          <t>1322114</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321910</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322114</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11003,39 +11003,39 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>117 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Eman Agro Gıda</t>
+          <t>Fathalla &amp; co</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1321872</t>
+          <t>1321910</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321910</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mechanical Computer Science and Electronics Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11045,39 +11045,39 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>117 applicants</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Eman Agro Gıda</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1321256</t>
+          <t>1321872</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Businesses Development Intern</t>
+          <t>Mechanical Computer Science and Electronics Engineering</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11087,39 +11087,39 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Devsinc.</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1321215</t>
+          <t>1321497</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321497</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Business Management and Analytics Intern</t>
+          <t>Sales  Specialist</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Kartepe, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11129,39 +11129,39 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Dessa Teknoloji Sanayi Ticaret Limited Şirketi</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1321055</t>
+          <t>1321256</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>International Sales Representetive Italian Speaker</t>
+          <t>Businesses Development Intern</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11171,39 +11171,39 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Devsinc.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1321054</t>
+          <t>1321215</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>International Sales Representetive Russian Speaker</t>
+          <t>Business Management and Analytics Intern</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11213,34 +11213,34 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1321053</t>
+          <t>1321055</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>International Sales Representetive German Speaker</t>
+          <t>International Sales Representetive Italian Speaker</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11272,17 +11272,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1321052</t>
+          <t>1321054</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>International Sales Representetive</t>
+          <t>International Sales Representetive Russian Speaker</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>156 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11314,22 +11314,22 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1320933</t>
+          <t>1321053</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320933</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Culinary Internship Chef</t>
+          <t>International Sales Representetive German Speaker</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>42 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11349,29 +11349,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Treehouse</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1320932</t>
+          <t>1321052</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320932</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>International Sales Representetive</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>187 applicants</t>
+          <t>156 applicants</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11391,24 +11391,24 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Treehouse</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1320899</t>
+          <t>1320933</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320899</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320933</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>F&amp;B Operations Manager</t>
+          <t>Culinary Internship Chef</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>79 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11440,22 +11440,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1320868</t>
+          <t>1320932</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320932</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11465,39 +11465,39 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>189 applicants</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>RepsMate</t>
+          <t>Treehouse</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1320725</t>
+          <t>1320899</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320725</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320899</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>International Educational Consultant</t>
+          <t>F&amp;B Operations Manager</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>55 applicants</t>
+          <t>79 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11517,29 +11517,29 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>JOHN AND JOHN EĞİTİM TEKNOLOJİ VE İNTERNET YATIRIMLARI LİMİT</t>
+          <t>Treehouse</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1318464</t>
+          <t>1320868</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1318464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Summer Internship Program on AI &amp; ML</t>
+          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ghaziabad, Uttar Pradesh, India</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11559,29 +11559,29 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>KIET group of institutions</t>
+          <t>RepsMate</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1317568</t>
+          <t>1320725</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320725</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Research Intern, Project base learning</t>
+          <t>International Educational Consultant</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11591,39 +11591,39 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>56 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>PVG’s College of Engineering and Technology</t>
+          <t>JOHN AND JOHN EĞİTİM TEKNOLOJİ VE İNTERNET YATIRIMLARI LİMİT</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1317223</t>
+          <t>1318464</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
+          <t>https://aiesec.org/opportunity/global-talent/1318464</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
+          <t>Summer Internship Program on AI &amp; ML</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>București, România</t>
+          <t>Ghaziabad, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>127 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11643,29 +11643,29 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Kreston Romania</t>
+          <t>KIET group of institutions</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1317128</t>
+          <t>1317568</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>BUSINESS ADMINISTRATION</t>
+          <t>Research Intern, Project base learning</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11675,39 +11675,39 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>258 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Abdi İbrahim Pharmaceutical</t>
+          <t>PVG’s College of Engineering and Technology</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1317005</t>
+          <t>1317223</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317005</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Manisa, Yunusemre/Manisa, Türkiye</t>
+          <t>București, România</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>144 applicants</t>
+          <t>127 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11727,29 +11727,29 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>TOYO MATBAA MÜREKKEPLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Kreston Romania</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1316865</t>
+          <t>1317128</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1316865</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[Accelerate Serbia] Digital Marketing and Customer Support Intern</t>
+          <t>BUSINESS ADMINISTRATION</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Niš, Serbia</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11759,39 +11759,39 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>67 applicants</t>
+          <t>258 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>KOMOT</t>
+          <t>Abdi İbrahim Pharmaceutical</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1315739</t>
+          <t>1317005</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315739</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317005</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manisa, Yunusemre/Manisa, Türkiye</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11801,39 +11801,39 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>274 applicants</t>
+          <t>145 applicants</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Unixpadel</t>
+          <t>TOYO MATBAA MÜREKKEPLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1315190</t>
+          <t>1316865</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
+          <t>https://aiesec.org/opportunity/global-talent/1316865</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Front Office Trainee</t>
+          <t>[Accelerate Serbia] Digital Marketing and Customer Support Intern</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Niš, Serbia</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -11843,39 +11843,39 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>60 applicants</t>
+          <t>67 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Park Hotel International Limited</t>
+          <t>KOMOT</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1313882</t>
+          <t>1315739</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315739</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,39 +11885,39 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>159 applicants</t>
+          <t>275 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
+          <t>Unixpadel</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1313813</t>
+          <t>1315190</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Front Office Trainee</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11927,39 +11927,39 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>125 applicants</t>
+          <t>60 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
+          <t>Park Hotel International Limited</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1313793</t>
+          <t>1313882</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>IT Sales Executive</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>159 applicants</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11979,29 +11979,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1313206</t>
+          <t>1313813</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Digital Media Strategist</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -12021,29 +12021,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1312732</t>
+          <t>1313793</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>IT Sales Executive</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>110 applicants</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -12063,29 +12063,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1311536</t>
+          <t>1313206</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1311536</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313206</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Managing Co-founder</t>
+          <t>Digital Media Strategist</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>178 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -12105,29 +12105,29 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Skulptor</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1309734</t>
+          <t>1312732</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1309734</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12147,29 +12147,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Devsinc.</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1308576</t>
+          <t>1309734</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
+          <t>https://aiesec.org/opportunity/global-talent/1309734</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Chinese Language Specialist</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Colombo, Sri Lanka</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12179,39 +12179,39 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aitken Spence Travels (Pvt) Ltd</t>
+          <t>Devsinc.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1308313</t>
+          <t>1308576</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308576</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Chemical Engineering</t>
+          <t>Chinese Language Specialist</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Colombo, Sri Lanka</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>225 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12231,29 +12231,29 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
+          <t>Aitken Spence Travels (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1307741</t>
+          <t>1308313</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Chemical Engineering</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>253 applicants</t>
+          <t>225 applicants</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12273,29 +12273,29 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1307242</t>
+          <t>1307741</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307741</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Automotive Mechatronics</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Ghaziabad, India</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12305,39 +12305,39 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>254 applicants</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>KIET group of institutions</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1307153</t>
+          <t>1307242</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Technology Business Development Consultant</t>
+          <t>Automotive Mechatronics</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Ghaziabad, India</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12347,39 +12347,39 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>167 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Rinf Tech</t>
+          <t>KIET group of institutions</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1307150</t>
+          <t>1307153</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307150</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307153</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>ENGINEER</t>
+          <t>Accelerate Romania | Technology Business Development Consultant</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>167 applicants</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12399,24 +12399,24 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Göymen Makarna</t>
+          <t>Rinf Tech</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1306716</t>
+          <t>1307150</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306716</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307150</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>ENGINEER</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>29 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12448,22 +12448,22 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1306000</t>
+          <t>1306716</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306000</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306716</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Indore, Madhya Pradesh, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12473,123 +12473,123 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Walkover Web Solutions</t>
+          <t>Göymen Makarna</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1306000</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306000</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Indore, Madhya Pradesh, India</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Walkover Web Solutions</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1303804</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12599,39 +12599,39 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>84 applicants</t>
+          <t>83 applicants</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1303804</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12641,39 +12641,39 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>80 applicants</t>
+          <t>84 applicants</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1301473</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301473</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist in Istanbul</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>81 applicants</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Raff Textile</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>212 applicants</t>
+          <t>213 applicants</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>123 applicants</t>
+          <t>124 applicants</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -13030,48 +13030,6 @@
       <c r="H300" t="inlineStr">
         <is>
           <t>ARVICON INTERNATIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>1284636</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Taste Hungary|Junior Field Service Associate</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Budapest, Hungary</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>97 applicants</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>EATON</t>
         </is>
       </c>
     </row>

--- a/Yesterday.xlsx
+++ b/Yesterday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1331094</t>
+          <t>1305153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
+          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[GBS] Transportation Sourcing Assistant</t>
+          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,29 +513,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1284636</t>
+          <t>1297124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
+          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taste Hungary|Junior Field Service Associate</t>
+          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Chennai, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>108 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,29 +555,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1327965</t>
+          <t>1331094</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
+          <t>https://aiesec.org/opportunity/global-talent/1331094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACE Program | German Financial Analyst</t>
+          <t>[GBS] Transportation Sourcing Assistant</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Charles-de-Gaulle-Straße 20, 53113 Bonn, Germany</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54 applicants</t>
+          <t>57 applicants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>36 applicants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>37 applicants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>33 applicants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>106 applicants</t>
+          <t>107 applicants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>36 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>51 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>49 applicants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>71 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>71 applicants</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>103 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>33 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>89 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>174 applicants</t>
+          <t>175 applicants</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>113 applicants</t>
+          <t>115 applicants</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>50 applicants</t>
+          <t>51 applicants</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>72 applicants</t>
+          <t>74 applicants</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>38 applicants</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>107 applicants</t>
+          <t>108 applicants</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>152 applicants</t>
+          <t>153 applicants</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6526,22 +6526,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1328274</t>
+          <t>1328250</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328274</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Web Designer</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6551,39 +6551,39 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>32 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1328273</t>
+          <t>1328227</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328273</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Policy &amp; Advocacy Intern</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>37 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6603,29 +6603,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1328272</t>
+          <t>1328225</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328272</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Social Impact &amp; Sustainability Intern</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tunis, Tunisia</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6645,29 +6645,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>La fabrique</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1328250</t>
+          <t>1328155</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328250</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Clinical Study Analyst Trainee</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>91 applicants</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6687,29 +6687,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1328227</t>
+          <t>1328131</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328227</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Policy &amp; Advocacy Intern</t>
+          <t>Content Creation Intern</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Panchkula, Haryana, India</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6724,34 +6724,34 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Idea Clan</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1328225</t>
+          <t>1328130</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328225</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Social Impact &amp; Sustainability Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6761,39 +6761,39 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1328155</t>
+          <t>1328115</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328155</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Clinical Study Analyst Trainee</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6803,39 +6803,39 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>91 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>Requisite Technologies Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1328131</t>
+          <t>1328069</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328131</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Content Creation Intern</t>
+          <t>Food &amp; Beverage - Intern</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Panchkula, Haryana, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6855,24 +6855,24 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Idea Clan</t>
+          <t>Raffles Consolidated Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1328130</t>
+          <t>1328051</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328130</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>64 applicants</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6904,22 +6904,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1328115</t>
+          <t>1328041</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328115</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>IT/ ERP System Developers (Odoo)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>48 applicants</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6939,29 +6939,29 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>Epigro Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1328069</t>
+          <t>1328030</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328069</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328030</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage - Intern</t>
+          <t>[Remote] Software Application Support and Development</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>No location available</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6971,39 +6971,39 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Raffles Consolidated Pvt Ltd</t>
+          <t>dJava Factory Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1328051</t>
+          <t>1328015</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328051</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>Cybersecurity Intern</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>64 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7023,29 +7023,29 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Requisite Technologies Pvt Ltd</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1328041</t>
+          <t>1328013</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>IT/ ERP System Developers (Odoo)</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>48 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -7065,29 +7065,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Epigro Pvt Ltd</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1328030</t>
+          <t>1327992</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328030</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[Remote] Software Application Support and Development</t>
+          <t>Cloud Engineering Intern</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>No location available</t>
+          <t>Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7097,81 +7097,81 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>dJava Factory Sdn Bhd</t>
+          <t>GNA University</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1328021</t>
+          <t>1327965</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328021</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327965</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Guest Relations Officer Intern</t>
+          <t>ACE Program | German Financial Analyst</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>The Barn By Starbeans in Ella</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1328015</t>
+          <t>1327958</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328015</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cybersecurity Intern</t>
+          <t>Graphic designer</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7191,29 +7191,29 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1328013</t>
+          <t>1327957</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1328013</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7233,29 +7233,29 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>The Paddock</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1327992</t>
+          <t>1327919</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327992</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cloud Engineering Intern</t>
+          <t>Customer Representative- Intern</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Phagwara, Punjab, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7275,29 +7275,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>GNA University</t>
+          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1327958</t>
+          <t>1327909</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327958</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Graphic designer</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7317,29 +7317,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1327957</t>
+          <t>1327904</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327957</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>UX Research Trainee</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Bruxelles, Belgio</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7349,39 +7349,39 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>159 applicants</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>The Paddock</t>
+          <t>UCB</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1327919</t>
+          <t>1327889</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327919</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Customer Representative- Intern</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7391,39 +7391,39 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>4 applicants</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>KAYJAY ELECTRONICS (PVT) LTD</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1327909</t>
+          <t>1327809</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327909</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>Video editor</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>El Sadat City, Menofia Governorate, Egypt</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7433,39 +7433,39 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>Habib Agency</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1327904</t>
+          <t>1327779</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327904</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>UX Research Trainee</t>
+          <t>Business Development &amp; Foreign Trade Assistant</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Bruxelles, Belgio</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7475,39 +7475,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>158 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>ATM Atılım Teknik Makine</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1327889</t>
+          <t>1327775</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327889</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Accelerate Romania| Programming Intern</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Birkat as SAB, Madinet Berkat as Sabee, Birket el Sab, Menofia Governorate, Egypt</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4 applicants</t>
+          <t>99 applicants</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7527,29 +7527,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Lines</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1327809</t>
+          <t>1327768</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327809</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Video editor</t>
+          <t>Accelerate Romania| Business Development Intern</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>El Sadat City, Menofia Governorate, Egypt</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7569,29 +7569,29 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Habib Agency</t>
+          <t>AQUAsoft</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1327779</t>
+          <t>1327760</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327779</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Business Development &amp; Foreign Trade Assistant</t>
+          <t>Fashion Consultant</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7601,39 +7601,39 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>ATM Atılım Teknik Makine</t>
+          <t>MPF clothing collection PVT LTD</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1327775</t>
+          <t>1327509</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327775</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Programming Intern</t>
+          <t>Language trainer and Operations Manager</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Chandigarh, India</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>98 applicants</t>
+          <t>3 applicants</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7653,29 +7653,29 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1327768</t>
+          <t>1327497</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327768</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Accelerate Romania| Business Development Intern</t>
+          <t>SEO Specialist</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7685,39 +7685,39 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>AQUAsoft</t>
+          <t>Skyline Egypt Tours</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1327760</t>
+          <t>1327381</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327760</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Fashion Consultant</t>
+          <t>Product Management Intern</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7727,39 +7727,39 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>MPF clothing collection PVT LTD</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1327509</t>
+          <t>1327380</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327509</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Language trainer and Operations Manager</t>
+          <t>Comunication Intern</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Chandigarh, India</t>
+          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3 applicants</t>
+          <t>113 applicants</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7779,29 +7779,29 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>FA Educations (Chetanya Career Consultants – Mohali)</t>
+          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1327497</t>
+          <t>1327336</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SEO Specialist</t>
+          <t>Partnerships and Innovation Intern</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sheraton Al Matar, El Nozha, Cairo Governorate, Egypt</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7811,39 +7811,39 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Skyline Egypt Tours</t>
+          <t>Arunodhaya Trust</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1327381</t>
+          <t>1327286</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327381</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Product Management Intern</t>
+          <t>Taxes &amp; Internal Control</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Panamá, Provincia de Panamá, Panamá</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7853,39 +7853,39 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>125 applicants</t>
+          <t>101 applicants</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>NESTLÉ</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1327380</t>
+          <t>1327257</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327380</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Comunication Intern</t>
+          <t>Export Specialist at Arçek</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ümraniye, Elmalıkent, 34764 Ümraniye/İstanbul, Türkiye</t>
+          <t>Konya, Türkiye</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7895,39 +7895,39 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>112 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>ENTES ELEKTRONİK CİHAZLAR İMALAT VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1327336</t>
+          <t>1327187</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327336</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Partnerships and Innovation Intern</t>
+          <t>Software Developer Intern</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>26 applicants</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7947,29 +7947,29 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Arunodhaya Trust</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1327286</t>
+          <t>1327186</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327286</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Taxes &amp; Internal Control</t>
+          <t>Cyber Security Intern</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Panamá, Provincia de Panamá, Panamá</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7979,39 +7979,39 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>101 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>NESTLÉ</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1327257</t>
+          <t>1327185</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327257</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Export Specialist at Arçek</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Konya, Türkiye</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8021,34 +8021,34 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>90 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>ARÇEK İNŞAAT TEKSTİL OTOMOTİV İÇ VE DIŞ TİCARET LİMİTED ŞİRK</t>
+          <t>Solitaire Infosys Pvt. Ltd</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1327187</t>
+          <t>1327184</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327187</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Software Developer Intern</t>
+          <t>AI Intern</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>26 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8080,22 +8080,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1327186</t>
+          <t>1327183</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327186</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Cyber Security Intern</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Çayırova, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,34 +8105,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1327185</t>
+          <t>1327181</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327185</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Data Analyst Intern</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>11 applicants</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8164,22 +8164,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1327184</t>
+          <t>1327168</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327184</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AI Intern</t>
+          <t>AI &amp; ML Intern</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8189,39 +8189,39 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1327183</t>
+          <t>1327156</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327183</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327156</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>Security Master Domain Intern</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Çayırova, Kocaeli, Türkiye</t>
+          <t>Heerlen, Netherlands</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8231,39 +8231,39 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>102 applicants</t>
+          <t>105 applicants</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik San. Tic.: Ltd. Şti.</t>
+          <t>APG Heerlen</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1327181</t>
+          <t>1327154</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327181</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Data Analyst Intern</t>
+          <t>Guest Relations and Service Captain</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8273,39 +8273,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>11 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Solitaire Infosys Pvt. Ltd</t>
+          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1327168</t>
+          <t>1327149</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327168</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AI &amp; ML Intern</t>
+          <t>Data Engineering Intern</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>90 applicants</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8325,29 +8325,29 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Altria Consulting (PVT) LTD</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1327156</t>
+          <t>1327043</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327156</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Security Master Domain Intern</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Heerlen, Netherlands</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,39 +8357,39 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>105 applicants</t>
+          <t>34 applicants</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>APG Heerlen</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1327154</t>
+          <t>1327042</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327154</t>
+          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Guest Relations and Service Captain</t>
+          <t>Content Creator</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8399,39 +8399,39 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Concu [Quenelle36 Foodworks Pvt. Ltd.]</t>
+          <t>Progress Professional Center</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1327149</t>
+          <t>1326776</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327149</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Data Engineering Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>88 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8451,29 +8451,29 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Altria Consulting (PVT) LTD</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1327043</t>
+          <t>1326767</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327043</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8493,29 +8493,29 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1327042</t>
+          <t>1326765</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1327042</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Content Creator</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8535,24 +8535,24 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Progress Professional Center</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1326776</t>
+          <t>1326761</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326776</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Civil Engineering Intern</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,17 +8584,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1326767</t>
+          <t>1326757</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326767</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Architectural Intern</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>5 applicants</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8626,17 +8626,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1326765</t>
+          <t>1326756</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326765</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Electrical &amp; ML Intern</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>7 applicants</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8668,22 +8668,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1326761</t>
+          <t>1326741</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326761</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Civil Engineering Intern</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8703,29 +8703,29 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Vigilare biopharma Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1326757</t>
+          <t>1326706</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326757</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Architectural Intern</t>
+          <t>Sales Customer Service Support</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8735,34 +8735,34 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>5 applicants</t>
+          <t>177 applicants</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Aytek Soğutma</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1326756</t>
+          <t>1326666</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326756</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Electrical &amp; ML Intern</t>
+          <t>Computer Engineering Intern</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>7 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8794,22 +8794,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1326741</t>
+          <t>1326639</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8829,29 +8829,29 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Vigilare biopharma Pvt Ltd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1326706</t>
+          <t>1326473</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326706</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Sales Customer Service Support</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Pune, India</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8861,39 +8861,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>177 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aytek Soğutma</t>
+          <t>Spidron Tech LLP</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1326666</t>
+          <t>1326423</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326666</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Computer Engineering Intern</t>
+          <t>Sales Specialist</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>46 applicants</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8913,29 +8913,29 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1326639</t>
+          <t>1326310</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326639</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Back - End Developer</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Glyfada, Greece</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8945,39 +8945,39 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>308 applicants</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Validata Software</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1326473</t>
+          <t>1326256</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326473</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Export Sales Specialist</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Pune, India</t>
+          <t>Dilovası, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8987,39 +8987,39 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>143 applicants</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Spidron Tech LLP</t>
+          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1326423</t>
+          <t>1326221</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326423</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Sales Specialist</t>
+          <t>Electrical intern</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Sincan, İstasyon, 06934 Sincan/Ankara, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9029,39 +9029,39 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>46 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>JUMBOSAN MAKİNA İNŞAAT OTOMOTİV NAKLİYE VE GIDA SANAYİ TİCAR</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1326310</t>
+          <t>1326217</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326310</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Back - End Developer</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Glyfada, Greece</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>306 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9081,29 +9081,29 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Validata Software</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1326256</t>
+          <t>1326215</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Export Sales Specialist</t>
+          <t>Architecture and Design Intern</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Dilovası, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9113,34 +9113,34 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>143 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>PELSAN AYDINLATMA SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1326221</t>
+          <t>1326211</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326221</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Electrical intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9172,17 +9172,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1326217</t>
+          <t>1326209</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326217</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9197,12 +9197,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9214,17 +9214,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1326215</t>
+          <t>1326206</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Architecture and Design Intern</t>
+          <t>Web Development Intern</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>30 applicants</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9256,17 +9256,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1326211</t>
+          <t>1326203</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326211</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9298,17 +9298,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1326209</t>
+          <t>1326202</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326209</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>Digital Marketing Intern</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9340,17 +9340,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1326206</t>
+          <t>1326201</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326206</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Web Development Intern</t>
+          <t>Electrical Intern</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -9365,12 +9365,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>30 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9382,17 +9382,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1326203</t>
+          <t>1326199</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326203</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Mechanical Intern</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9407,12 +9407,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9424,17 +9424,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1326202</t>
+          <t>1326196</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326202</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Digital Marketing Intern</t>
+          <t>Robotics Intern</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>13 applicants</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9466,17 +9466,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1326201</t>
+          <t>1326192</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326201</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Electrical Intern</t>
+          <t>Mechanical &amp; Automobile Intern</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9508,22 +9508,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1326199</t>
+          <t>1326116</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326199</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Mechanical Intern</t>
+          <t>Sales and Customer Service Support</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9533,81 +9533,81 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>131 applicants</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1326196</t>
+          <t>1326041</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326196</t>
+          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Robotics Intern</t>
+          <t>ACE Program | Spanish Financial Analyst</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Thane, Maharashtra, India</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>13 applicants</t>
+          <t>39 applicants</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1326192</t>
+          <t>1325922</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326192</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Mechanical &amp; Automobile Intern</t>
+          <t>Taste Hungary| Associate Technical Support - Polish</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Budapest, Magyarország</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9617,39 +9617,39 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Tech Mahindra Kft.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1326116</t>
+          <t>1325464</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326116</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Sales and Customer Service Support</t>
+          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9659,49 +9659,49 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>131 applicants</t>
+          <t>70 applicants</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Tornado Makine Otomotiv İnşaat Sanayi ve Ticaret</t>
+          <t>Azuvioo</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1326041</t>
+          <t>1325417</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1326041</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Financial Analyst</t>
+          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Thane, Maharashtra, India</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>39 applicants</t>
+          <t>158 applicants</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9711,29 +9711,29 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1325922</t>
+          <t>1325405</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325922</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Taste Hungary| Associate Technical Support - Polish</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Budapest, Magyarország</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9743,39 +9743,39 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>45 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Tech Mahindra Kft.</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1325464</t>
+          <t>1325404</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Account Manager for Foreign Markets</t>
+          <t>Machine Learning Intern</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>70 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9795,29 +9795,29 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Azuvioo</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1325417</t>
+          <t>1325403</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325417</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Junior Software Engineer – AI &amp; Internal Tools (EU ONLY)</t>
+          <t>Electrical Engineering Intern</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9827,39 +9827,39 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>157 applicants</t>
+          <t>1 applicant</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>CGC JHANJERI MOHALI</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1325405</t>
+          <t>1325344</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325405</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Santiago de Querétaro, Qro., Mexico</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9869,39 +9869,39 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>WMP Mexico Advisors</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1325404</t>
+          <t>1325297</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325404</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Machine Learning Intern</t>
+          <t>International Sales Representetive Spanish Speaker</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9911,39 +9911,39 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>25 applicants</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1325403</t>
+          <t>1325033</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325403</t>
+          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Electrical Engineering Intern</t>
+          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Sahibzada Ajit Singh Nagar, Punjab, India</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9953,39 +9953,39 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1 applicant</t>
+          <t>172 applicants</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>CGC JHANJERI MOHALI</t>
+          <t>Eureka Resource Mining</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1325344</t>
+          <t>1324995</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325344</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Customer Service for finance &amp; accounting (German Speaker)</t>
+          <t>[Partly Remote] Marketing Intern</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Santiago de Querétaro, Qro., Mexico</t>
+          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9995,39 +9995,39 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>41 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>Partly Remote</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>WMP Mexico Advisors</t>
+          <t>Boostorder Sdn. Bhd.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1325297</t>
+          <t>1324648</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325297</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>International Sales Representetive Spanish Speaker</t>
+          <t>Sales &amp; Marketing Intern</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>25 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -10047,29 +10047,29 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>All Home Living LLP</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1325033</t>
+          <t>1324339</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1325033</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Junior Full-Stack Developer – AI &amp; Web Projects (EU ONLY)</t>
+          <t>Russian Sales Manager</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>171 applicants</t>
+          <t>20 applicants</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10089,29 +10089,29 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Eureka Resource Mining</t>
+          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1324995</t>
+          <t>1324106</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324995</t>
+          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[Partly Remote] Marketing Intern</t>
+          <t>Tourism Specialist - Intern</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+          <t>Nugegoda, Sri Lanka</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10121,39 +10121,39 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>72 applicants</t>
+          <t>24 applicants</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Partly Remote</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Boostorder Sdn. Bhd.</t>
+          <t>Brand Corridor (Pvt) Ltd</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1324648</t>
+          <t>1323774</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324648</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Intern</t>
+          <t>Interior Architect</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Sousse, Tunisia</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10163,39 +10163,39 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>All Home Living LLP</t>
+          <t>HB Architecture</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1324339</t>
+          <t>1323713</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324339</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Russian Sales Manager</t>
+          <t>Civil Engineer</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Pendik, Kaynarca, 34890 Pendik/İstanbul, Türkiye</t>
+          <t>Oporto, Portugal</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10205,39 +10205,39 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>20 applicants</t>
+          <t>47 applicants</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>SALDA METAL SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Obras Descomplicadas Lda</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1324106</t>
+          <t>1323507</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1324106</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323507</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tourism Specialist - Intern</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Nugegoda, Sri Lanka</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10247,39 +10247,39 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>24 applicants</t>
+          <t>14 applicants</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Brand Corridor (Pvt) Ltd</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1323774</t>
+          <t>1323506</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323774</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323506</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Interior Architect</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Sousse, Tunisia</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10289,39 +10289,39 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>HB Architecture</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1323713</t>
+          <t>1323504</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323713</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323504</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Management Trainee Officer</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Oporto, Portugal</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10331,34 +10331,34 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>47 applicants</t>
+          <t>18 applicants</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Obras Descomplicadas Lda</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1323507</t>
+          <t>1323503</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323507</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323503</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Sales Intern</t>
+          <t>Customer Support Engineer</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>14 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10390,22 +10390,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1323506</t>
+          <t>1323478</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323506</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Sales Support Executive</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>40 applicants</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10425,71 +10425,71 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1323504</t>
+          <t>1323469</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323504</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Management Trainee Officer</t>
+          <t>Infosys InStep PhD Internship</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>18 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1323503</t>
+          <t>1323468</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323503</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323468</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Customer Support Engineer</t>
+          <t>Sales Account Manager</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>58 applicants</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10509,29 +10509,29 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1323478</t>
+          <t>1323391</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323478</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323391</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Sales Support Executive</t>
+          <t>Business Development Officer</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Karachi, Pakistan</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>40 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10551,71 +10551,71 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>Wavetec</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1323469</t>
+          <t>1323373</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323469</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Infosys InStep PhD Internship</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka, India</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1323468</t>
+          <t>1323077</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323468</t>
+          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Sales Account Manager</t>
+          <t>Pharmacy Intern</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10625,39 +10625,39 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>58 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1323391</t>
+          <t>1322916</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323391</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Business Development Officer</t>
+          <t>Film Making / Video Editing Intern</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10667,34 +10667,34 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>2 applicants</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Wavetec</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1323373</t>
+          <t>1322914</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323373</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>AI Agent Experience Specialist</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>9 applicants</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10726,22 +10726,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1323077</t>
+          <t>1322886</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1323077</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Pharmacy Intern</t>
+          <t>Customer Representative</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10751,39 +10751,39 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>137 applicants</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1322916</t>
+          <t>1322690</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322916</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Film Making / Video Editing Intern</t>
+          <t>Business Development Representative</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2 applicants</t>
+          <t>92 applicants</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10803,29 +10803,29 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>Travelr</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1322914</t>
+          <t>1322494</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322914</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AI Agent Experience Specialist</t>
+          <t>Biotechnology Intern</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10835,39 +10835,39 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>9 applicants</t>
+          <t>28 applicants</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1322886</t>
+          <t>1322343</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322886</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322343</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Customer Representative</t>
+          <t>Electronics and Electrical Intern</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10877,39 +10877,39 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>137 applicants</t>
+          <t>21 applicants</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>İME HAYAT SAĞLIK TURİZM ANONİM ŞİRKETİ</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1322690</t>
+          <t>1322239</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322690</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Business Development Representative</t>
+          <t>Marketing and Customer Support</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Ηράκλειο, Ελλάδα</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>92 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10929,29 +10929,29 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Travelr</t>
+          <t>upsell</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1322494</t>
+          <t>1322114</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322494</t>
+          <t>https://aiesec.org/opportunity/global-talent/1322114</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Biotechnology Intern</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Cairo, Cairo Governorate, Egypt</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10971,29 +10971,29 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Fathalla &amp; co</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1322343</t>
+          <t>1321910</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322343</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321910</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Electronics and Electrical Intern</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11003,39 +11003,39 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>21 applicants</t>
+          <t>120 applicants</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Eman Agro Gıda</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1322239</t>
+          <t>1321872</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322239</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Marketing and Customer Support</t>
+          <t>Mechanical Computer Science and Electronics Engineering</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Ηράκλειο, Ελλάδα</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11045,39 +11045,39 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>125 applicants</t>
+          <t>23 applicants</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>upsell</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1322114</t>
+          <t>1321497</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1322114</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321497</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Sales  Specialist</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Cairo, Cairo Governorate, Egypt</t>
+          <t>Kartepe, Kocaeli, Türkiye</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11087,39 +11087,39 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>72 applicants</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Fathalla &amp; co</t>
+          <t>Dessa Teknoloji Sanayi Ticaret Limited Şirketi</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1321910</t>
+          <t>1321294</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321910</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321294</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>UI/UX &amp; Web Development Intern</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11129,39 +11129,39 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>119 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Eman Agro Gıda</t>
+          <t>Devsinc.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1321872</t>
+          <t>1321256</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321872</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mechanical Computer Science and Electronics Engineering</t>
+          <t>Businesses Development Intern</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11171,39 +11171,39 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>23 applicants</t>
+          <t>22 applicants</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Devsinc.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1321497</t>
+          <t>1321215</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321497</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Sales  Specialist</t>
+          <t>Business Management and Analytics Intern</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Kartepe, Kocaeli, Türkiye</t>
+          <t>Manipal, Karnataka, India</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11213,39 +11213,39 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>72 applicants</t>
+          <t>10 applicants</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Dessa Teknoloji Sanayi Ticaret Limited Şirketi</t>
+          <t>M.A.H.E.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1321294</t>
+          <t>1321055</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321294</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>UI/UX &amp; Web Development Intern</t>
+          <t>International Sales Representetive Italian Speaker</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11255,39 +11255,39 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>44 applicants</t>
+          <t>17 applicants</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Devsinc.</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1321256</t>
+          <t>1321054</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321256</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Businesses Development Intern</t>
+          <t>International Sales Representetive Russian Speaker</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11297,39 +11297,39 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>22 applicants</t>
+          <t>16 applicants</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Devsinc.</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1321215</t>
+          <t>1321053</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321215</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Business Management and Analytics Intern</t>
+          <t>International Sales Representetive German Speaker</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Manipal, Karnataka, India</t>
+          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11339,34 +11339,34 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>10 applicants</t>
+          <t>19 applicants</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>M.A.H.E.</t>
+          <t>Esvita Clinic</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1321055</t>
+          <t>1321052</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321055</t>
+          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>International Sales Representetive Italian Speaker</t>
+          <t>International Sales Representetive</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>17 applicants</t>
+          <t>158 applicants</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11398,22 +11398,22 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1321054</t>
+          <t>1320933</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321054</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320933</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>International Sales Representetive Russian Speaker</t>
+          <t>Culinary Internship Chef</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>16 applicants</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11433,29 +11433,29 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Treehouse</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1321053</t>
+          <t>1320932</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321053</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320932</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>International Sales Representetive German Speaker</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>193 applicants</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11475,29 +11475,29 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Treehouse</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1321052</t>
+          <t>1320899</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1321052</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320899</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>International Sales Representetive</t>
+          <t>F&amp;B Operations Manager</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Maslak, Sarıyer/İstanbul, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>158 applicants</t>
+          <t>81 applicants</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11517,29 +11517,29 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Esvita Clinic</t>
+          <t>Treehouse</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1320933</t>
+          <t>1320868</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320933</t>
+          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Culinary Internship Chef</t>
+          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11549,39 +11549,39 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>15 applicants</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Treehouse</t>
+          <t>RepsMate</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1320932</t>
+          <t>1318464</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320932</t>
+          <t>https://aiesec.org/opportunity/global-talent/1318464</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Summer Internship Program on AI &amp; ML</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Ghaziabad, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11591,39 +11591,39 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>192 applicants</t>
+          <t>53 applicants</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Treehouse</t>
+          <t>KIET group of institutions</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1320899</t>
+          <t>1317568</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320899</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>F&amp;B Operations Manager</t>
+          <t>Research Intern, Project base learning</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Pune, Maharashtra, India</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11633,39 +11633,39 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>81 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Treehouse</t>
+          <t>PVG’s College of Engineering and Technology</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1320868</t>
+          <t>1317223</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1320868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Data Labeling Specialist (SERBIAN Speackers)</t>
+          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>București, România</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>15 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11685,29 +11685,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>RepsMate</t>
+          <t>Kreston Romania</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1318464</t>
+          <t>1317128</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1318464</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Summer Internship Program on AI &amp; ML</t>
+          <t>BUSINESS ADMINISTRATION</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ghaziabad, Uttar Pradesh, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11717,39 +11717,39 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>53 applicants</t>
+          <t>259 applicants</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>KIET group of institutions</t>
+          <t>Abdi İbrahim Pharmaceutical</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1317568</t>
+          <t>1317005</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317568</t>
+          <t>https://aiesec.org/opportunity/global-talent/1317005</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Research Intern, Project base learning</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra, India</t>
+          <t>Manisa, Yunusemre/Manisa, Türkiye</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>35 applicants</t>
+          <t>147 applicants</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11769,29 +11769,29 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>PVG’s College of Engineering and Technology</t>
+          <t>TOYO MATBAA MÜREKKEPLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1317223</t>
+          <t>1316788</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317223</t>
+          <t>https://aiesec.org/opportunity/global-talent/1316788</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Accelerate Romania|Software Developer (ONLY EUROPE)</t>
+          <t>Travel Coordinator</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>București, România</t>
+          <t>Mexico City, CDMX, Mexico</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11801,34 +11801,34 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>128 applicants</t>
+          <t>138 applicants</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Kreston Romania</t>
+          <t>Ikan Experience</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1317128</t>
+          <t>1315739</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317128</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315739</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BUSINESS ADMINISTRATION</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>259 applicants</t>
+          <t>282 applicants</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11853,29 +11853,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Abdi İbrahim Pharmaceutical</t>
+          <t>Unixpadel</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1317005</t>
+          <t>1315190</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1317005</t>
+          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Front Office Trainee</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Manisa, Yunusemre/Manisa, Türkiye</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11885,39 +11885,39 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>147 applicants</t>
+          <t>61 applicants</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>TOYO MATBAA MÜREKKEPLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ</t>
+          <t>Park Hotel International Limited</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1316788</t>
+          <t>1313882</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1316788</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Travel Coordinator</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Mexico City, CDMX, Mexico</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -11927,39 +11927,39 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>137 applicants</t>
+          <t>159 applicants</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Ikan Experience</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1315739</t>
+          <t>1313813</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315739</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11969,39 +11969,39 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>280 applicants</t>
+          <t>125 applicants</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Unixpadel</t>
+          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1315190</t>
+          <t>1313793</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1315190</t>
+          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Front Office Trainee</t>
+          <t>IT Sales Executive</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12011,39 +12011,39 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>110 applicants</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Park Hotel International Limited</t>
+          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1313882</t>
+          <t>1312732</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313882</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
+          <t>Hyderabad, Telangana, India</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>159 applicants</t>
+          <t>6 applicants</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -12063,29 +12063,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
+          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1313813</t>
+          <t>1312369</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313813</t>
+          <t>https://aiesec.org/opportunity/global-talent/1312369</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Software Engineer Intern</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Bảo Yên, Thanh Thủy, Phú Thọ, Việt Nam</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>125 applicants</t>
+          <t>8 applicants</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -12105,29 +12105,29 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>LYNN TIMES HOTELS &amp; RESORTS</t>
+          <t>Devsinc</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1313793</t>
+          <t>1309734</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1313793</t>
+          <t>https://aiesec.org/opportunity/global-talent/1309734</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>IT Sales Executive</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Kim Chung, Hoài Đức, Hà Nội, Việt Nam</t>
+          <t>Lahore, Punjab, Pakistan</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>110 applicants</t>
+          <t>12 applicants</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12147,29 +12147,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>MOHA SOFTWARE JOINT STOCK COMPANY</t>
+          <t>Devsinc.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1312732</t>
+          <t>1308313</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1312732</t>
+          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Chemical Engineering</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hyderabad, Telangana, India</t>
+          <t>Ankara, Türkiye</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12179,39 +12179,39 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>6 applicants</t>
+          <t>225 applicants</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>TERICSOFT TECHNOLOGY SOLUTIONS PVT. LTD.</t>
+          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1312369</t>
+          <t>1307741</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1312369</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307741</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Marketing Intern</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Cyberjaya, Selangor, Malaysia</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -12221,39 +12221,39 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>8 applicants</t>
+          <t>256 applicants</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Devsinc</t>
+          <t>IX Telecom Sdn Bhd</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1309734</t>
+          <t>1307242</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1309734</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Automotive Mechatronics</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Lahore, Punjab, Pakistan</t>
+          <t>Ghaziabad, India</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>12 applicants</t>
+          <t>35 applicants</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12273,29 +12273,29 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Devsinc.</t>
+          <t>KIET group of institutions</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1308313</t>
+          <t>1307153</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1308313</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307153</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Chemical Engineering</t>
+          <t>Accelerate Romania | Technology Business Development Consultant</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Ankara, Türkiye</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>225 applicants</t>
+          <t>169 applicants</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12315,29 +12315,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>AKA SU TEKNOLOJİLERİ ANONİM ŞİRKETİ</t>
+          <t>Rinf Tech</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1307741</t>
+          <t>1307150</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307741</t>
+          <t>https://aiesec.org/opportunity/global-talent/1307150</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Cyberjaya, Selangor, Malaysia</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>255 applicants</t>
+          <t>50 applicants</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12357,29 +12357,29 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>IX Telecom Sdn Bhd</t>
+          <t>Göymen Makarna</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1307242</t>
+          <t>1306716</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307242</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306716</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Automotive Mechatronics</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Ghaziabad, India</t>
+          <t>Gaziantep, Türkiye</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12394,34 +12394,34 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>KIET group of institutions</t>
+          <t>Göymen Makarna</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1307153</t>
+          <t>1306000</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1306000</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Accelerate Romania | Technology Business Development Consultant</t>
+          <t>Business Development Intern</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Indore, Madhya Pradesh, India</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -12431,39 +12431,39 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>169 applicants</t>
+          <t>27 applicants</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Rinf Tech</t>
+          <t>Walkover Web Solutions</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1307150</t>
+          <t>1304488</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1307150</t>
+          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12473,39 +12473,39 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>49 applicants</t>
+          <t>83 applicants</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>3 - 6 Months</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Göymen Makarna</t>
+          <t>SpeakIT</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1306716</t>
+          <t>1303804</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306716</t>
+          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>[Impact Florianópolis]- Social Media</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Gaziantep, Türkiye</t>
+          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12515,39 +12515,39 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>34 applicants</t>
+          <t>85 applicants</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>6 - 18 Months</t>
+          <t>9 - 12 Weeks</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Göymen Makarna</t>
+          <t>KNN Idiomas</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1306000</t>
+          <t>1301868</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1306000</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301868</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Business Development Intern</t>
+          <t>Marketing Assistant</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Indore, Madhya Pradesh, India</t>
+          <t>Alor Setar, Kedah, Malaysia</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>27 applicants</t>
+          <t>442 applicants</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12567,39 +12567,39 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Walkover Web Solutions</t>
+          <t>Yonhin Sdn. Bhd</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1305153</t>
+          <t>1301518</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1305153</t>
+          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ACE Program | Spanish Talent Acquisition Specialist</t>
+          <t>MARKETING</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>Yıldırım, Türkiye</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>61 applicants</t>
+          <t>82 applicants</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12609,29 +12609,29 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>OMTEC Automotive</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1304488</t>
+          <t>1296457</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1304488</t>
+          <t>https://aiesec.org/opportunity/global-talent/1296457</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Client Consultant | Tourism Sector (German speaker) ( Flexible RE dates )</t>
+          <t>Export Sales Specialist in EUROTRAY Company</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Dilovası, Türkiye</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12641,39 +12641,39 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>83 applicants</t>
+          <t>177 applicants</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>SpeakIT</t>
+          <t>Eurotray Metal Elektrik Company</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1303804</t>
+          <t>1293818</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1303804</t>
+          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[Impact Florianópolis]- Social Media</t>
+          <t>Receptionist and Marketing  Intern</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>São Miguel do Oeste, SC, 89900-000, Brasil</t>
+          <t>Chalkidiki, Greece</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>85 applicants</t>
+          <t>216 applicants</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12693,29 +12693,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>KNN Idiomas</t>
+          <t>Hotel Kriopigi</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1301868</t>
+          <t>1289379</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301868</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Marketing Assistant</t>
+          <t>Medical Advisor Portuguese Speaker</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Alor Setar, Kedah, Malaysia</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -12725,39 +12725,39 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>442 applicants</t>
+          <t>128 applicants</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3 - 6 Months</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Yonhin Sdn. Bhd</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1301518</t>
+          <t>1289378</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1301518</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>MARKETING</t>
+          <t>Medical Advisor (Spanish Speaker)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Yıldırım, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>82 applicants</t>
+          <t>129 applicants</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12777,39 +12777,39 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>OMTEC Automotive</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1297124</t>
+          <t>1289377</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1297124</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ACE Program | Portuguese Talent Acquisition Specialist</t>
+          <t>Medical Advisor (Italian Speaker)</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Chennai, Tamil Nadu, India</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>19 applicants</t>
+          <t>41 applicants</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12819,29 +12819,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1296457</t>
+          <t>1289375</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1296457</t>
+          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Export Sales Specialist in EUROTRAY Company</t>
+          <t>Medical Advisor (German Speaker)</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Dilovası, Türkiye</t>
+          <t>İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>177 applicants</t>
+          <t>44 applicants</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12861,29 +12861,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Eurotray Metal Elektrik Company</t>
+          <t>International Plus</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1293818</t>
+          <t>1288371</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1293818</t>
+          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Receptionist and Marketing  Intern</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Chalkidiki, Greece</t>
+          <t>Delhi, India</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12893,49 +12893,49 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>216 applicants</t>
+          <t>158 applicants</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>9 - 12 Weeks</t>
+          <t>6 - 18 Months</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Hotel Kriopigi</t>
+          <t>ARVICON INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1289379</t>
+          <t>1284636</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289379</t>
+          <t>https://aiesec.org/opportunity/global-talent/1284636</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Medical Advisor Portuguese Speaker</t>
+          <t>Taste Hungary|Junior Field Service Associate</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>İstanbul, Türkiye</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>127 applicants</t>
+          <t>112 applicants</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12945,175 +12945,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>1289378</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289378</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Medical Advisor (Spanish Speaker)</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>İstanbul, Türkiye</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>129 applicants</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>1289377</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289377</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Medical Advisor (Italian Speaker)</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>İstanbul, Türkiye</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>41 applicants</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>1289375</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1289375</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Medical Advisor (German Speaker)</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>İstanbul, Türkiye</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>44 applicants</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>International Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>1288371</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>https://aiesec.org/opportunity/global-talent/1288371</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>International Sales Manager</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Delhi, India</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>158 applicants</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>6 - 18 Months</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>ARVICON INTERNATIONAL</t>
+          <t>EATON</t>
         </is>
       </c>
     </row>
